--- a/sentences_train.xlsx
+++ b/sentences_train.xlsx
@@ -1,929 +1,1255 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\La_Admin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t>Sentence</t>
   </si>
   <si>
-    <t>What's up give me invoice ; My data is: my vendor id is 26C6F805-55D5-4232-8E1F-577A0E2FAD53 and USERNAME: sarah.hsuneeley date: 2019-11-01 04:00:00.0000000 ; BUID = A7FD72D6-E742-45CB-B505-E4B310F35851 entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>What's up I privation to get my Invoice status ; My data is: ven id = 26C6F805-55D5-4232-8E1F-577A0E2FAD53 also invoice was created on: 2019-11-01 04:00:00.0000000 also , my BICODE is : A7FD72D6-E742-45CB-B505-E4B310F35851 InvoiceNum is 869222</t>
-  </si>
-  <si>
-    <t>hello invoice status My details are - USERNAME is alexis.singletary Date when invoice was created: 2019-11-05 05:00:00.0000000 , id of my Vendor = 4314E108-98DC-44B5-9E1F-784A3698E247 and</t>
-  </si>
-  <si>
-    <t>What's up , , my business code is 90B77B8D-8A29-4E19-ABAF-CACC87FAC25C entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 , id of my Vendor = 78AA51CD-4388-48B5-B442-FC5C3293AE2A and also</t>
-  </si>
-  <si>
-    <t>Hey , invoice status Here's my information: InvoiceNum is 1157060 id of my Vendor : 4314E108-98DC-44B5-9E1F-784A3698E247 also USERNAME: alexis.singletary</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice . My data is: BUID = A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 InvoiceNum is 1157050 dates is2019-11-05 05:00:00.0000000 also BUID = alexis.singletary Thank you</t>
-  </si>
-  <si>
-    <t>Hey , I privation status of my invoice ; information. inv num: 22371 , ; BUID = jeannie.tickle dates = 2019-10-31 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>what is my invoice status Details: Inv_Num: 869221 also enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 also ; code is: A7FD72D6-E742-45CB-B505-E4B310F35851 also userNAME - sarah.hsuneeley Thank you</t>
-  </si>
-  <si>
-    <t>hello . Details: date: 2019-11-01 04:00:00.0000000 Vendor_Id: 4314E108-98DC-44B5-9E1F-784A3698E247 , my inv num is 1156189 , bi code = A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3</t>
-  </si>
-  <si>
-    <t>get me my Invoice . Details: dates - 2019-11-05 05:00:00.0000000 i have the follwoing Invoice Number: 1157214 vendor id: 4314E108-98DC-44B5-9E1F-784A3698E247 ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 also ; Thank you</t>
-  </si>
-  <si>
-    <t>I privation to get my Invoice status ; I have the following information. bi code = A7FD72D6-E742-45CB-B505-E4B310F35851 ven id 26C6F805-55D5-4232-8E1F-577A0E2FAD53 , num of my inv - 869220 ; the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 also person who created my invoice: sarah.hsuneeley also Date when invoice was created: 2019-11-01 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice , information. business code is something like this: A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 ven id = 4314E108-98DC-44B5-9E1F-784A3698E247 username = alexis.singletary Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status. the BI_CODE = A7FD72D6-E742-45CB-B505-E4B310F35851 vendor id - B83FCB11-2BFA-434D-B338-6F91FC3E1A03 Thank you</t>
-  </si>
-  <si>
-    <t>Hey , I privation status of my invoice. ven id = 26C6F805-55D5-4232-8E1F-577A0E2FAD53 BUID = A7FD72D6-E742-45CB-B505-E4B310F35851 created by sarah.hsuneeley the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 and , InvoiceNum is 869218</t>
-  </si>
-  <si>
-    <t>get me my Invoice. number of my invoice is: 869219 enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; also name = sarah.hsuneeley Vendor_Id is26C6F805-55D5-4232-8E1F-577A0E2FAD53 ; date of the invoice creation is: 2019-11-01 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; My details are - name = alexis.singletary and my code is : A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 also ;</t>
-  </si>
-  <si>
-    <t>What's up , I privation status of my invoice . Details: my BICODE is : 90B77B8D-8A29-4E19-ABAF-CACC87FAC25C and VENDORID is8A649E33-A583-4963-851C-DE50F0E1BE92 person who created my invoice: Patricia.Oyola ;</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice , details. USERNAME: nicky.williams enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 i have the follwoing Vendor ID: B83FCB11-2BFA-434D-B338-6F91FC3E1A03</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status Details: dates - 2019-10-31 04:00:00.0000000 enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 and invoice was created by alexis.singletary inv num: 1156937 and my vendor id is 4314E108-98DC-44B5-9E1F-784A3698E247</t>
-  </si>
-  <si>
-    <t>Hey . I privation status of my invoice , information. enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 and num of my inv - 869216 BUID = sarah.hsuneeley and Date when invoice was created: 2019-11-01 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>what is my invoice status , information. date of the invoice creation is: 2019-10-31 04:00:00.0000000 the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 INVOICE Num: 1156932</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status I have the following information. enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 number of my invoice is: 1931230 ; Unit ID: A7FD72D6-E742-45CB-B505-E4B310F35851</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice ; details. the time when my invoice was created is: 2019-10-31 04:00:00.0000000 , num of my inv - 1156934 business code is something like this: A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 , created by alexis.singletary id of my Vendor = 4314E108-98DC-44B5-9E1F-784A3698E247 , enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>Hey . I privation status of my invoice Details: dates is2019-11-03 04:00:00.0000000 number of my invoice = 2148058 person who created my invoice: ann.yorgey ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; Vendor ID C96C2DE6-60A6-4921-8E8F-2646266688A5</t>
-  </si>
-  <si>
-    <t>Hey ; I privation status of my invoice Details: bi code = A7FD72D6-E742-45CB-B505-E4B310F35851 invoice was created on: 2019-11-01 04:00:00.0000000 , my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 Vendor_Id is26C6F805-55D5-4232-8E1F-577A0E2FAD53 also InvoiceNum is 869214 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status Here's my information: USERNAME: sarah.hsuneeley , number of my invoice is: 869215 also I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I would like to have the invoice. invoice was created on: 2019-11-03 04:00:00.0000000 BUID = ann.yorgey num of my inv - 2148056 my vend id C96C2DE6-60A6-4921-8E8F-2646266688A5 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice. entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 also ven id = 4314E108-98DC-44B5-9E1F-784A3698E247 and my inv num is 1156896 also and created by alexis.singletary my business code is A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3</t>
-  </si>
-  <si>
-    <t>hello , I privation to get my Invoice status ; My data is: code is: A7FD72D6-E742-45CB-B505-E4B310F35851 enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 and</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status Details: my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 , BUID = A7FD72D6-E742-45CB-B505-E4B310F35851 , ven id = AF39E78E-D802-431F-9BAD-BD9AF9A666DD ; and USERNAME =  sarah.hsuneeley</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice I have the following information. i have the follwoing Vendor ID: C96C2DE6-60A6-4921-8E8F-2646266688A5 also the BI_CODE = 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 invoice Number = 2148055 I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 invoice was created on: 2019-11-03 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; get me my Invoice ; I have the following information. number of my invoice = 1156825 , my business code is A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 , also Vendor_Id: 4314E108-98DC-44B5-9E1F-784A3698E247 ; Date when invoice was created: 2019-10-31 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello My data is: my BICODE is : 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 BUID = ann.yorgey , VENDOR_ID = C96C2DE6-60A6-4921-8E8F-2646266688A5 and dates = 2019-11-03 04:00:00.0000000 num of my inv is2148053</t>
-  </si>
-  <si>
-    <t>What's up invoice status details. entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 , dates = 2019-10-31 04:00:00.0000000 also code is: 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 and Vendor_Id: C96C2DE6-60A6-4921-8E8F-2646266688A5</t>
-  </si>
-  <si>
-    <t>give me invoice My data is: entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 , invoice was created by nicky.williams ; the time when my invoice was created is: 2019-11-01 04:00:00.0000000 also Vendor_Id: 59033197-B051-4A65-81D3-6A9430EE6CAE</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status , information. business code is something like this: A7FD72D6-E742-45CB-B505-E4B310F35851 enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 and my vend id 59033197-B051-4A65-81D3-6A9430EE6CAE ; and Inv_Num: 720266 also Thank you</t>
-  </si>
-  <si>
-    <t>What's up My details are - my code is : A7FD72D6-E742-45CB-B505-E4B310F35851 enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 dates is2019-11-01 04:00:00.0000000 , my VENDOR_ID is A6594BEE-55C7-447B-AC5B-2B0A4A17431E number of my invoice 4474269</t>
-  </si>
-  <si>
-    <t>hello . get me my Invoice My details are - enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me invoice , My details are - USERNAME: sarah.hsuneeley Vendor_Id isB5754FDD-C8DC-44A9-9EC8-F0399257A421 also INVOICE Num: 1615132 enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 also BI CODE is - A7FD72D6-E742-45CB-B505-E4B310F35851 Thank you</t>
-  </si>
-  <si>
-    <t>give me my Invoice. dates - 2019-10-31 04:00:00.0000000 , vendor id - C96C2DE6-60A6-4921-8E8F-2646266688A5 , invoice Number = 2147057</t>
-  </si>
-  <si>
-    <t>hello , give me my Invoice My data is: the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 and invoice was created on: 2019-11-01 04:00:00.0000000 also USERNAME: sarah.hsuneeley business code is something like this: A7FD72D6-E742-45CB-B505-E4B310F35851 inv num: 1647191 Thank you</t>
-  </si>
-  <si>
-    <t>hello , give me invoice details. BI CODE is - A7FD72D6-E742-45CB-B505-E4B310F35851 my inv num is 1614091 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I privation status of my invoice . I have the following information. enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 vendor id - C96C2DE6-60A6-4921-8E8F-2646266688A5 num of my inv is2147055 ; date of the invoice creation is: 2019-10-31 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; I would like to have the invoice , Here's my information: VENDORID isD77903BC-F381-4902-A071-697636F7ED12 also Date when invoice was created: 2019-11-01 04:00:00.0000000 code is: A7FD72D6-E742-45CB-B505-E4B310F35851 the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 also and the username of the person who created invoice : sarah.hsuneeley Thank you</t>
-  </si>
-  <si>
-    <t>hello , give me invoice. num of my inv is5962875 ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 my BICODE is : A7FD72D6-E742-45CB-B505-E4B310F35851 and ; Thank you</t>
-  </si>
-  <si>
-    <t>hello , I privation to get my Invoice status Here's my information: vendor id: D77903BC-F381-4902-A071-697636F7ED12 dates = 2019-11-01 04:00:00.0000000 also enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 and , Business Unit ID is A7FD72D6-E742-45CB-B505-E4B310F35851 also</t>
-  </si>
-  <si>
-    <t>what is my invoice status ; I have the following information. USERNAME: Patricia.Oyola , also id of my Vendor : 4C46DA61-42F3-4264-9372-9DE076FE8DE0 and I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 bi code = 90B77B8D-8A29-4E19-ABAF-CACC87FAC25C</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice , I have the following information. my VENDOR_ID is D77903BC-F381-4902-A071-697636F7ED12 Unit ID: A7FD72D6-E742-45CB-B505-E4B310F35851 I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>What's up , give me my Invoice. person who created my invoice: sarah.hsuneeley , InvoiceNum = 1930786 ; my VENDOR_ID is B83FCB11-2BFA-434D-B338-6F91FC3E1A03 date: 2019-11-01 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>Hey Details: dates - 2019-11-01 04:00:00.0000000 entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 , , BUID = A7FD72D6-E742-45CB-B505-E4B310F35851 ;</t>
-  </si>
-  <si>
-    <t>Hey ; I would like to have the invoice , My details are - person who created my invoice: sarah.hsuneeley Inv_Num: 1929158 ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 code is: A7FD72D6-E742-45CB-B505-E4B310F35851 ven id = B83FCB11-2BFA-434D-B338-6F91FC3E1A03 , dates - 2019-11-01 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status , My data is: ven id = 6E9E4766-A729-432C-AD41-AD11EAD513C8 ; ,</t>
-  </si>
-  <si>
-    <t>hello ; what is my invoice status. my code is : 9AF06808-A19A-4F53-966D-1856E9BA3480 person who created my invoice: erica.shepherd Vendor_Id isF215F807-ADD0-436E-A8FC-C399C193AC99 num of my inv is50051906 enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 date: 2019-10-03 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up . I privation status of my invoice . Here's my information: date of the invoice creation is: 2019-11-01 04:00:00.0000000 my code is : A7FD72D6-E742-45CB-B505-E4B310F35851 also entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 InvNum = 1931056 also ,</t>
-  </si>
-  <si>
-    <t>What's up ; I would like to have the invoice details. created by sarah.hsuneeley date of the invoice creation is: 2019-11-01 04:00:00.0000000 InvoiceNum = 1931013 ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 and Vendor_Id: B83FCB11-2BFA-434D-B338-6F91FC3E1A03 my BICODE is : A7FD72D6-E742-45CB-B505-E4B310F35851</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice ; My data is: date: 2019-10-31 04:00:00.0000000 , userNAME - michelle.kennedy and bi code = BCC41876-0D3B-48E0-A3E1-6220CB2512ED ven id 1C889B31-2466-4BC8-BDDE-F34F85675AF6 inv num: I246-1283</t>
-  </si>
-  <si>
-    <t>What's up , I privation to get my Invoice status . details. bi code = A7FD72D6-E742-45CB-B505-E4B310F35851 the time when my invoice was created is: 2019-10-25 04:00:00.0000000 also Vendor_Id: F8E2E560-CA3A-43A9-90F0-EDB24EB8ABAA username = sarah.hsuneeley</t>
-  </si>
-  <si>
-    <t>My details are - Inv_Num is I246-1299 and Business Unit ID is 89904EA3-0A21-45D3-93EF-C20D8DDAE803 ; my vendor id is 1C889B31-2466-4BC8-BDDE-F34F85675AF6</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice My data is: dates is2019-10-25 04:00:00.0000000 Vendor_Id isF8E2E560-CA3A-43A9-90F0-EDB24EB8ABAA enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; USERNAME =  sarah.hsuneeley the BI_CODE = A7FD72D6-E742-45CB-B505-E4B310F35851</t>
-  </si>
-  <si>
-    <t>What's up . I privation status of my invoice , Here's my information: dates = 2019-10-31 04:00:00.0000000 id of my Vendor = 1C889B31-2466-4BC8-BDDE-F34F85675AF6 my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 and</t>
-  </si>
-  <si>
-    <t>What's up give me invoice My details are - entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 business code is something like this: A7FD72D6-E742-45CB-B505-E4B310F35851 , username = sarah.hsuneeley , number of my invoice is: 13500358 date: 2019-11-01 04:00:00.0000000 and</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status details. enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 BUID = A7FD72D6-E742-45CB-B505-E4B310F35851 and date of the invoice creation is: 2019-10-30 04:00:00.0000000 and my vendor id is 3C700D8F-F5CA-4CFC-9547-BF8CB911F2FC and INVOICE Num: 375132</t>
-  </si>
-  <si>
-    <t>What's up . invoice status. USERNAME is sarah.hsuneeley and InvoiceNum = 13501986 I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>Hey give me invoice ; information. InvoiceNum: 512325 ; Date when invoice was created: 2019-11-01 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello , give me invoice information. inv num: 492874649 person who created my invoice: chris.milo and my BICODE is : 97F76EBE-9E42-47E2-AA30-DED5F22B5A9A , Vendor_Id isF1250FBD-FEA3-474B-8818-970D31BF93EE enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>hello give me invoice. vendor id - 8473DF52-C0CC-49DA-9872-BDD265AD8A94 , name = LaDatril.Long date: 2019-09-08 04:00:00.0000000 BI CODE is - 6A148451-0B55-43B3-8270-9A415C3458FA Inv_Num: 25126982 ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>get me my Invoice Details: ven id 8473DF52-C0CC-49DA-9872-BDD265AD8A94 date: 2019-10-01 04:00:00.0000000 ; my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice . information. entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 Vendor_Id is8473DF52-C0CC-49DA-9872-BDD265AD8A94 invoice was created on: 2019-09-01 04:00:00.0000000 ; INVOICE Num: 25115611 Business Unit ID is 6A148451-0B55-43B3-8270-9A415C3458FA</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice I have the following information. dates is2019-10-14 04:00:00.0000000 created by chris.milo ; I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 num of my inv isC87876 , BI CODE is - 97F76EBE-9E42-47E2-AA30-DED5F22B5A9A vendor id - A9678744-D19A-41E0-9A9E-4B4095B34409</t>
-  </si>
-  <si>
-    <t>hello , give me my Invoice details. BUID = 97F76EBE-9E42-47E2-AA30-DED5F22B5A9A ; InvoiceNum: 3098067889 , Thank you</t>
-  </si>
-  <si>
-    <t>What's up , give me invoice Details: Vendor_Id: 891B9076-6E30-46CB-A6E5-D344759A0834 , my code is : BC6698F7-8BA0-4F44-97B3-3C38E9B61398 ; InvoiceNum: 10-19-80 enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me invoice , ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 i have the follwoing Vendor ID: C9B59E22-B3AD-402D-882E-7E01BF3E5987 , business code is something like this: 97F76EBE-9E42-47E2-AA30-DED5F22B5A9A USERNAME: chris.milo INVOICE Num: 35634</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status . Here's my information: the username of the person who created invoice : jacky.bonds and VENDORID is496F8236-D7EA-42A3-A4C9-F67B9A309408 date: 2019-10-30 04:00:00.0000000 ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; Thank you</t>
-  </si>
-  <si>
-    <t>hello , what is my invoice status ; dates is2019-10-30 04:00:00.0000000 also InvNum = INV-0703 entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 code is: BC6698F7-8BA0-4F44-97B3-3C38E9B61398 also</t>
-  </si>
-  <si>
-    <t>hello . I privation to get my Invoice status ; details. Business Unit ID is BC6698F7-8BA0-4F44-97B3-3C38E9B61398 i have the follwoing Invoice Number: INV-0713 and , BUID = jacky.bonds</t>
-  </si>
-  <si>
-    <t>What's up ; invoice status Here's my information: dates - 2019-11-03 04:00:00.0000000 and and invoice Number = 43339091 enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>hello . person who created my invoice: jacky.bonds bi code = BC6698F7-8BA0-4F44-97B3-3C38E9B61398 INVOICE Num: INV-0715 Thank you</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status , My details are - vendor id: 4314E108-98DC-44B5-9E1F-784A3698E247 the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 the time when my invoice was created is: 2019-10-31 04:00:00.0000000 , ,</t>
-  </si>
-  <si>
-    <t>What's up invoice status Details: I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 Date when invoice was created: 2019-10-30 04:00:00.0000000 , the BI_CODE = BC6698F7-8BA0-4F44-97B3-3C38E9B61398 ; INVOICE Num: Inv-0714 , Vendor_Id: 3F33BC88-1C2E-4FC4-9DB6-8B68287661C4 userNAME - jacky.bonds</t>
-  </si>
-  <si>
-    <t>hello , give me my Invoice My data is: the time when my invoice was created is: 2019-11-06 05:00:00.0000000 ; i have the follwoing Invoice Number: 267075 Thank you</t>
-  </si>
-  <si>
-    <t>give me invoice. userNAME - alexis.singletary , date of the invoice creation is: 2019-10-31 04:00:00.0000000 and VENDOR_ID = 4314E108-98DC-44B5-9E1F-784A3698E247 and Business Unit ID is A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 , i have the follwoing Invoice Number: 1156515 Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status ; My details are - my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 Unit ID: A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 , VENDORID is4314E108-98DC-44B5-9E1F-784A3698E247 BUID = alexis.singletary dates - 2019-10-31 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice My data is: inv num: 1156537 I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; USERNAME: alexis.singletary ven id 4314E108-98DC-44B5-9E1F-784A3698E247 Business Unit ID is A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3</t>
-  </si>
-  <si>
-    <t>What's up . My data is: invoice was created on: 2019-11-06 05:00:00.0000000 ; invoice Number = 267074 ; BI CODE is - 20B96F08-D206-4F90-93AF-6CA3D6B32DFB also ven id = B94CF75E-3BCE-4FEB-9A79-C421DE682456</t>
-  </si>
-  <si>
-    <t>hello , invoice status details. id of my Vendor : B94CF75E-3BCE-4FEB-9A79-C421DE682456 , ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 also date: 2019-11-06 05:00:00.0000000 and my business code is 20B96F08-D206-4F90-93AF-6CA3D6B32DFB InvNum = 267074 USERNAME is maxine.oakley Thank you</t>
-  </si>
-  <si>
-    <t>What's up I would like to have the invoice information. bi code = A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 Inv_Num is 1156207 person who created my invoice: alexis.singletary ; enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 also the time when my invoice was created is: 2019-10-31 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status ; Details: InvoiceNum = 1152755 i have the follwoing Vendor ID: 4314E108-98DC-44B5-9E1F-784A3698E247 code is: A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 invoice was created by alexis.singletary Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice ; information. vendor id: 4314E108-98DC-44B5-9E1F-784A3698E247 dates is2019-10-31 04:00:00.0000000 ; USERNAME =  alexis.singletary ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 BUID = A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 , INVOICE Num: 1155918</t>
-  </si>
-  <si>
-    <t>hello ; what is my invoice status details. Vendor_Id: 4314E108-98DC-44B5-9E1F-784A3698E247 and number of my invoice is: 1156913 I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 date of the invoice creation is: 2019-10-30 04:00:00.0000000 also</t>
-  </si>
-  <si>
-    <t>hello give me invoice ; information. dates is2019-11-05 05:00:00.0000000 my vend id 4314E108-98DC-44B5-9E1F-784A3698E247 and Inv_Num: 1157211 Thank you</t>
-  </si>
-  <si>
-    <t>hello , I would like to have the invoice Details: BI CODE is - 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 username = Melonie.Williford Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I privation status of my invoice . Inv_Num is 1145963 and my business code is A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 USERNAME =  alexis.singletary my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 my VENDOR_ID is 4314E108-98DC-44B5-9E1F-784A3698E247</t>
-  </si>
-  <si>
-    <t>Hey I would like to have the invoice My data is: bi code = 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 name = Melonie.Williford also dates is2019-10-30 04:00:00.0000000 the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 and vendor id: 7A39A48E-F588-410A-A067-48699FB9F4A7 Thank you</t>
-  </si>
-  <si>
-    <t>hello , invoice status ; Details: vendor id - 943291D5-A2A1-4277-A09D-178CD323F093 Date when invoice was created: 2019-10-23 04:00:00.0000000 , ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 USERNAME is Melonie.Williford ; my inv num is 915967409 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status Here's my information: dates = 2019-11-06 05:00:00.0000000 also my vend id C1C6630B-C97A-4C33-95DD-9226F82491B7 and , entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice , My details are - i have the follwoing Invoice Number: 3868479700 1119 and enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 bi code = 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 the time when my invoice was created is: 2019-11-06 05:00:00.0000000 ; i have the follwoing Vendor ID: C0F2C6D5-467D-4D4D-B935-6318C695ACC3</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice My data is: dates = 2019-10-24 04:00:00.0000000 my VENDOR_ID is 4973512F-FE51-4ED1-A0BB-993E269ECE90 Inv_Num is 545521 my code is : 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice Details: I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 i have the follwoing Invoice Number: D150-001-TEST , date of the invoice creation is: 2019-11-02 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>invoice status My data is: BUID = Melonie.Williford also , ven id 98FF2FFD-7719-4303-82F6-A461A438C6FF my inv num is 15383463 Thank you</t>
-  </si>
-  <si>
-    <t>What's up . I would like to have the invoice I have the following information. my VENDOR_ID is 98FF2FFD-7719-4303-82F6-A461A438C6FF the BI_CODE = 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice ; information. my VENDOR_ID is 5F4AA92B-16EB-492A-AD5E-F6DD1CC348BB dates = 2019-10-01 04:00:00.0000000 INVOICE Num: 9737050502 enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 ;</t>
-  </si>
-  <si>
-    <t>I would like to have the invoice Here's my information: the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 also and</t>
-  </si>
-  <si>
-    <t>hello ; details. INVOICE Num: 69424860502 ; BUID = Melonie.Williford bi code = 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5</t>
-  </si>
-  <si>
-    <t>hello , Here's my information: invoice was created on: 2019-10-07 04:00:00.0000000 number of my invoice is: 50052765 also VENDOR_ID = F215F807-ADD0-436E-A8FC-C399C193AC99</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice. the time when my invoice was created is: 2019-11-06 05:00:00.0000000 entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 id of my Vendor : 783E44A1-4C49-492A-A3BA-9B2BF5825A03 ; , inv num: CHK1119 Thank you</t>
-  </si>
-  <si>
-    <t>hello , I would like to have the invoice details. the BI_CODE = 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 dates is2019-11-06 05:00:00.0000000 my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 InvoiceNum = 115199 1119 also invoice was created by ann.yorgey and</t>
-  </si>
-  <si>
-    <t>What's up I would like to have the invoice , My data is: bi code = E7685E2E-A027-4D2A-94AA-6C4605F84CA4 ; the time when my invoice was created is: 2019-10-05 04:00:00.0000000 ven id = F215F807-ADD0-436E-A8FC-C399C193AC99 Inv_Num: 50052261 also BUID = erica.shepherd ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>What's up . I privation to get my Invoice status Details: dates - 2019-08-19 04:00:00.0000000 , Unit ID: 98B27F15-08B7-4709-885E-B85E9402B138 enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 Vendor ID 8F72D462-4210-416D-B6A1-B67C83A7878A username = kristin.deluca</t>
-  </si>
-  <si>
-    <t>What's up ; invoice status My data is: date: 2019-11-06 05:00:00.0000000 ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 USERNAME =  jacky.bonds , Business Unit ID is BC6698F7-8BA0-4F44-97B3-3C38E9B61398 , inv num: 492876601 Thank you</t>
-  </si>
-  <si>
-    <t>invoice status Details: VENDORID is94A10007-B85F-4C4D-AFAA-F1A23FFD3AFE dates = 2019-10-25 04:00:00.0000000 InvNum = P00C2209490 code is: BC6698F7-8BA0-4F44-97B3-3C38E9B61398 also enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>hello . details. my vend id 2B6403EF-9E74-4743-8765-9CB84167316E , ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 my code is : A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 , dates is2019-10-04 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello , I privation status of my invoice ; I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 and ven id = D208C165-B1A8-4873-82CE-60E62E65A8E6 userNAME - laura.young dates - 2019-10-01 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; what is my invoice status Here's my information: invoice Number = P00C2209119 dates - 2019-10-24 04:00:00.0000000 , USERNAME =  jacky.bonds Unit ID: BC6698F7-8BA0-4F44-97B3-3C38E9B61398 also ,</t>
-  </si>
-  <si>
-    <t>Hey ; what is my invoice status Details: my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 , USERNAME =  Tracy.Cooke , id of my Vendor = 4677F8D9-6C1C-4AE4-8017-AE8F40A5ED6B inv num: 230498 , invoice was created on: 2019-10-31 04:00:00.0000000 and bi code = 796AC5E5-C4BC-4704-BD40-38CB5C98442E</t>
-  </si>
-  <si>
-    <t>Hey , invoice status . Details: the username of the person who created invoice : laura.young Date when invoice was created: 2019-11-06 05:00:00.0000000 , code is: 43AC8D04-74C3-4273-A4DD-942F7BEAB2CA also</t>
-  </si>
-  <si>
-    <t>What's up I privation to get my Invoice status. name = Tracy.Cooke BUID = 796AC5E5-C4BC-4704-BD40-38CB5C98442E , ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 vendor id - 4677F8D9-6C1C-4AE4-8017-AE8F40A5ED6B and dates = 2019-10-31 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello , I would like to have the invoice details. dates = 2019-10-23 04:00:00.0000000 entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 ven id = 40C114C7-98F3-4E36-888C-2DC29583435A and number of my invoice 4022734 person who created my invoice: Patricia.Oyola , Thank you</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice I have the following information. enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 userNAME - Brandi.Peavy , Inv_Num is 2524 also my BICODE is : A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 Thank you</t>
-  </si>
-  <si>
-    <t>hello , I privation to get my Invoice status Details: ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 , dates = 2019-10-31 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello , get me my Invoice details. dates = 2019-05-19 04:00:00.0000000 userNAME - michael.howell , VENDORID is1B1DCE89-01A9-49C0-8AFF-72A6CBD098B5 InvoiceNum: 24211 my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 also BI CODE is - 21C24A88-5FC3-4B76-9DBC-0D52932DCDC8</t>
-  </si>
-  <si>
-    <t>What's up invoice status ; details. VENDORID is94A10007-B85F-4C4D-AFAA-F1A23FFD3AFE Inv_Num is P00C2208805 ; my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 the time when my invoice was created is: 2019-10-23 04:00:00.0000000 also name = jacky.bonds my business code is BC6698F7-8BA0-4F44-97B3-3C38E9B61398</t>
-  </si>
-  <si>
-    <t>What's up give me invoice My data is: number of my invoice = 103100 ; my business code is AA79891C-CED2-41EE-A47C-462A55B01315 ; I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 also my VENDOR_ID is C3A87A99-9E8C-4474-B346-FA98B14343EB</t>
-  </si>
-  <si>
-    <t>My details are - ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 number of my invoice is: 1119-1 ; VENDORID is19C40700-80CE-43E8-A7EB-2BEAE4362239 and name = Brandi.Peavy the time when my invoice was created is: 2019-11-01 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice . My data is: num of my inv is0029830-IN created by Brandi.Peavy also code is: A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 my vendor id is 5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A invoice was created on: 2019-10-31 04:00:00.0000000 and</t>
-  </si>
-  <si>
-    <t>I have the following information. Vendor_Id: 5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A my BICODE is : A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 num of my inv is0029759-IN invoice was created by Brandi.Peavy</t>
-  </si>
-  <si>
-    <t>hello ; invoice status Details: the username of the person who created invoice : alexis.singletary also my VENDOR_ID is 5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A also , my BICODE is : A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3</t>
-  </si>
-  <si>
-    <t>Hey , give me my Invoice Here's my information: enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; USERNAME =  alexis.singletary ; inv num: 0029815-IN vendor id: 5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A ;</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice . Unit ID: A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 BUID = billie.wood also date of the invoice creation is: 2019-11-06 05:00:00.0000000 ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 InvoiceNum: 010708 VENDORID is5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A</t>
-  </si>
-  <si>
-    <t>What's up ; I would like to have the invoice . details. Vendor_Id is49EDC4C3-7657-43D9-8A18-A76F8F1C467D userNAME - sarah.hsuneeley also my inv num is 0000396116 ; bi code = A7FD72D6-E742-45CB-B505-E4B310F35851</t>
-  </si>
-  <si>
-    <t>What's up , I have the following information. Inv_Num is 992937295 dates = 2019-10-31 04:00:00.0000000 business code is something like this: 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 , my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 , name = Melonie.Williford Thank you</t>
-  </si>
-  <si>
-    <t>What's up I privation status of my invoice details. entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 inv num: 1014055128 my business code is 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 and id of my Vendor = CFBB74A9-FD1D-4289-8E7C-329CDDD3B603 person who created my invoice: Melonie.Williford Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me invoice. INVOICE Num: 105184 and ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 the username of the person who created invoice : sarah.hsuneeley also Vendor_Id: BFCD329D-8C4A-446B-8DDE-AD2A23F03043 ; Business Unit ID is A7FD72D6-E742-45CB-B505-E4B310F35851 Thank you</t>
-  </si>
-  <si>
-    <t>Hey ; information. my business code is A7FD72D6-E742-45CB-B505-E4B310F35851 and my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 number of my invoice = 13060 and dates is2019-10-31 04:00:00.0000000 also my VENDOR_ID is E44423ED-A366-4304-BA26-38C1412CA8B8 Thank you</t>
-  </si>
-  <si>
-    <t>hello . My details are - VENDOR_ID = F978FB7B-241E-4A25-921E-49D9583AEF08 dates = 2019-11-01 04:00:00.0000000 ; ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 , Inv_Num is 103311 and code is: A7FD72D6-E742-45CB-B505-E4B310F35851 Thank you</t>
-  </si>
-  <si>
-    <t>hello . I privation to get my Invoice status details. Date when invoice was created: 2019-11-06 05:00:00.0000000 and the BI_CODE = 796AC5E5-C4BC-4704-BD40-38CB5C98442E ;</t>
-  </si>
-  <si>
-    <t>What's up , I privation to get my Invoice status . Here's my information: USERNAME: Melonie.Williford business code is something like this: 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 Vendor ID 148ACA56-6EAD-46D0-80F7-03E842A32A7A InvNum = 118246 also ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>What's up I privation to get my Invoice status I have the following information. i have the follwoing Vendor ID: B48ADE7D-E72F-42E1-92FD-527CAD36ADC0 , number of my invoice INV-8082 also USERNAME: sarah.hsuneeley ; BI CODE is - A7FD72D6-E742-45CB-B505-E4B310F35851</t>
-  </si>
-  <si>
-    <t>What's up ; My details are - enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 and date: 2019-10-01 04:00:00.0000000 , , my VENDOR_ID is 895A3C55-5FC3-4174-A58B-36A0BB4C059C and invoice Number = 11059 Thank you</t>
-  </si>
-  <si>
-    <t>hello . I privation status of my invoice ; Details: userNAME - jacky.bonds code is: BC6698F7-8BA0-4F44-97B3-3C38E9B61398 dates = 2019-10-22 04:00:00.0000000 vendor id: 94A10007-B85F-4C4D-AFAA-F1A23FFD3AFE Thank you</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice. ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 also also dates - 2019-10-31 04:00:00.0000000 also Thank you</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice ; details. enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 username = Tracy.Cooke date of the invoice creation is: 2019-10-31 04:00:00.0000000 also my vend id 4677F8D9-6C1C-4AE4-8017-AE8F40A5ED6B</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice I have the following information. invoice Number = 0029829-IN date: 2019-10-31 04:00:00.0000000 also person who created my invoice: billie.wood business code is something like this: A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 Thank you</t>
-  </si>
-  <si>
-    <t>What's up . I would like to have the invoice Here's my information: enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 and business code is something like this: 796AC5E5-C4BC-4704-BD40-38CB5C98442E userNAME - Tracy.Cooke Vendor_Id: 4677F8D9-6C1C-4AE4-8017-AE8F40A5ED6B Date when invoice was created: 2019-10-31 04:00:00.0000000 also InvNum = 230485 Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; invoice status , entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 invoice was created on: 2019-11-06 05:00:00.0000000 code is: 796AC5E5-C4BC-4704-BD40-38CB5C98442E ; inv num: 230484 Vendor_Id: 4677F8D9-6C1C-4AE4-8017-AE8F40A5ED6B</t>
-  </si>
-  <si>
-    <t>Hey invoice status My data is: entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 ; USERNAME is sarah.hsuneeley my business code is A7FD72D6-E742-45CB-B505-E4B310F35851 InvoiceNum is 7197873 date of the invoice creation is: 2019-10-31 04:00:00.0000000 ;</t>
-  </si>
-  <si>
-    <t>hello , I privation to get my Invoice status Details: my BICODE is : 796AC5E5-C4BC-4704-BD40-38CB5C98442E and ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 invoice was created on: 2019-10-31 04:00:00.0000000 Inv_Num: 230482 the username of the person who created invoice : Tracy.Cooke and vendor id - 4677F8D9-6C1C-4AE4-8017-AE8F40A5ED6B Thank you</t>
-  </si>
-  <si>
-    <t>hello ; information. inv num: 230483 code is: 796AC5E5-C4BC-4704-BD40-38CB5C98442E created by Tracy.Cooke ; ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 the time when my invoice was created is: 2019-10-31 04:00:00.0000000 and VENDORID is4677F8D9-6C1C-4AE4-8017-AE8F40A5ED6B Thank you</t>
-  </si>
-  <si>
-    <t>hello , give me invoice Here's my information: Vendor ID 2C3D1957-2A5C-453B-AB20-E7D126432015 Date when invoice was created: 2019-11-01 04:00:00.0000000 number of my invoice 015-019579 ; bi code = 90B77B8D-8A29-4E19-ABAF-CACC87FAC25C Thank you</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status , details. USERNAME =  sarah.hsuneeley entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 ,</t>
-  </si>
-  <si>
-    <t>what is my invoice status. USERNAME: sandra.williams , date: 2019-10-14 04:00:00.0000000 Business Unit ID is E20642CA-919B-4FCC-8F51-23713219CDE3 also Thank you</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status. enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 inv num: 7197732 and bi code = A7FD72D6-E742-45CB-B505-E4B310F35851 username = sarah.hsuneeley i have the follwoing Vendor ID: 84235E6A-7198-4147-8D03-6953140DD945 Thank you</t>
-  </si>
-  <si>
-    <t>hello . give me my Invoice ; details. the BI_CODE = A7FD72D6-E742-45CB-B505-E4B310F35851 , ; invoice was created by sarah.hsuneeley my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 , dates - 2019-10-31 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up I privation status of my invoice ; details. date: 2019-11-02 04:00:00.0000000 , entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 and INVOICE Num: 11022019 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; give me invoice My data is: ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 also dates = 2019-10-30 04:00:00.0000000 and Vendor_Id is941EE1EC-008D-4E0F-94D0-C19B0EA6AF42 also my code is : A724D27B-CCEA-4B59-B2D7-4C3D946612FD created by julie.brookshire Thank you</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status I have the following information. ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 username = michelle.kennedy number of my invoice is: 3298 and id of my Vendor : 6E9E4766-A729-432C-AD41-AD11EAD513C8 my code is : BCC41876-0D3B-48E0-A3E1-6220CB2512ED , the time when my invoice was created is: 2019-10-31 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice ; Here's my information: num of my inv is11012019 i have the follwoing Vendor ID: 4D9B4F3A-E6A0-45F6-AFF1-5771479F86CC and also dates - 2019-11-01 04:00:00.0000000 and my code is : 85921EC7-5D7D-4212-A77E-7CDBD739505E ; created by Jill.Ferrell Thank you</t>
-  </si>
-  <si>
-    <t>hello . I privation status of my invoice . Here's my information: InvoiceNum is 7194665 ; enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 Date when invoice was created: 2019-10-31 04:00:00.0000000 also BUID = A7FD72D6-E742-45CB-B505-E4B310F35851 , BUID = sarah.hsuneeley , vendor id: 84235E6A-7198-4147-8D03-6953140DD945 Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; I would like to have the invoice Here's my information: date of the invoice creation is: 2019-11-01 04:00:00.0000000 BUID = julie.brookshire and and INVOICE Num: 21067 I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 , i have the follwoing Vendor ID: A5A23936-CC30-43E0-A1D5-8E739C12FF91</t>
-  </si>
-  <si>
-    <t>Hey I would like to have the invoice ; Details: InvoiceNum: CHK1019 also the BI_CODE = BCC41876-0D3B-48E0-A3E1-6220CB2512ED and USERNAME =  michelle.kennedy also</t>
-  </si>
-  <si>
-    <t>Hey . what is my invoice status Details: ven id = 84235E6A-7198-4147-8D03-6953140DD945 USERNAME =  sarah.hsuneeley and ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 invoice was created on: 2019-10-31 04:00:00.0000000 Unit ID: A7FD72D6-E742-45CB-B505-E4B310F35851 number of my invoice 7194664</t>
-  </si>
-  <si>
-    <t>hello , I would like to have the invoice details. date of the invoice creation is: 2019-10-31 04:00:00.0000000 id of my Vendor = 84235E6A-7198-4147-8D03-6953140DD945 ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; name = sarah.hsuneeley</t>
-  </si>
-  <si>
-    <t>I privation to get my Invoice status . Here's my information: VENDORID is84235E6A-7198-4147-8D03-6953140DD945 ; USERNAME =  sarah.hsuneeley dates is2019-10-31 04:00:00.0000000 InvoiceNum is 7194662 , Unit ID: A7FD72D6-E742-45CB-B505-E4B310F35851 ;</t>
-  </si>
-  <si>
-    <t>hello , I privation status of my invoice My details are - dates is2019-10-31 04:00:00.0000000 , INVOICE Num: 7194630 ; person who created my invoice: sarah.hsuneeley my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 VENDOR_ID = 84235E6A-7198-4147-8D03-6953140DD945</t>
-  </si>
-  <si>
-    <t>What's up what is my invoice status information. ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; my code is : A7FD72D6-E742-45CB-B505-E4B310F35851 my vend id 84235E6A-7198-4147-8D03-6953140DD945 USERNAME =  sarah.hsuneeley</t>
-  </si>
-  <si>
-    <t>invoice status ; My details are - the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 VENDOR_ID = 02F15923-5073-434B-911F-8BB25C895A81 also , USERNAME is julie.brookshire ; number of my invoice 13348363 the time when my invoice was created is: 2019-10-30 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up invoice status . I have the following information. USERNAME is nicky.williams my inv num is 719689 ; date of the invoice creation is: 2019-11-01 04:00:00.0000000 and my vendor id is 59033197-B051-4A65-81D3-6A9430EE6CAE Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status My data is: i have the follwoing Invoice Number: 05030911 ; the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 userNAME - jacky.bonds ven id 86591C4F-9131-4F8E-8738-F494F4965B16 bi code = BC6698F7-8BA0-4F44-97B3-3C38E9B61398 ; invoice was created on: 2019-10-25 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello . what is my invoice status ; I have the following information. VENDOR_ID = E78FF643-AF93-4CEC-95AD-DB7C426920AC also USERNAME is julie.brookshire code is: A724D27B-CCEA-4B59-B2D7-4C3D946612FD and num of my inv is17414 Thank you</t>
-  </si>
-  <si>
-    <t>What's up , ven id 6A2F826F-1397-4AE8-9AAA-D169F43C292F USERNAME: laura.young , my business code is 43AC8D04-74C3-4273-A4DD-942F7BEAB2CA INVOICE Num: 101719 Thank you</t>
-  </si>
-  <si>
-    <t>hello , I would like to have the invoice. i have the follwoing Vendor ID: 59033197-B051-4A65-81D3-6A9430EE6CAE BUID = nicky.williams ; my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 also dates - 2019-11-01 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello ; I privation to get my Invoice status. dates is2018-10-31 04:00:00.0000000 and Vendor ID 56143C57-05E8-4ACF-AA2A-A68BBA5A6560 also Inv_Num: 363 I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 ;</t>
-  </si>
-  <si>
-    <t>Hey give me invoice , My data is: id of my Vendor = 59033197-B051-4A65-81D3-6A9430EE6CAE entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 , InvoiceNum = 719329 invoice was created by nicky.williams</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice I have the following information. date: 2019-11-01 04:00:00.0000000 , my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 my VENDOR_ID is 59033197-B051-4A65-81D3-6A9430EE6CAE the BI_CODE = A7FD72D6-E742-45CB-B505-E4B310F35851 BUID = nicky.williams</t>
-  </si>
-  <si>
-    <t>Hey , I privation to get my Invoice status . Here's my information: I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 , userNAME - ann.yorgey VENDORID is783E44A1-4C49-492A-A3BA-9B2BF5825A03 the time when my invoice was created is: 2019-10-31 04:00:00.0000000 ; BI CODE is - 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5</t>
-  </si>
-  <si>
-    <t>hello , give me invoice . ven id 59033197-B051-4A65-81D3-6A9430EE6CAE ; my business code is A7FD72D6-E742-45CB-B505-E4B310F35851 , BUID = nicky.williams Inv_Num is 719266 Date when invoice was created: 2019-11-01 04:00:00.0000000 and I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>What's up , what is my invoice status , business code is something like this: 43AC8D04-74C3-4273-A4DD-942F7BEAB2CA date: 2019-10-24 04:00:00.0000000 and ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 InvoiceNum is 072994 person who created my invoice: laura.young Thank you</t>
-  </si>
-  <si>
-    <t>Hey , get me my Invoice My details are - dates - 2019-10-31 04:00:00.0000000 the BI_CODE = 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 vendor id - 1D600FFE-CB4D-4027-8A58-31859377F2A7 person who created my invoice: rene.vanek enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>Hey invoice status . USERNAME is Melissa.White also date: 2019-10-31 04:00:00.0000000 id of my Vendor = 751701BC-EE28-4E85-A52B-0DA52CEDD0C7 ; my BICODE is : A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 my inv num is 211 1019 Thank you</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice . My details are - USERNAME: Melissa.White , BUID = A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 invoice was created on: 2019-10-30 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello . give me my Invoice Details: Vendor ID 56143C57-05E8-4ACF-AA2A-A68BBA5A6560 ; Date when invoice was created: 2019-11-04 05:00:00.0000000 also InvoiceNum = 481</t>
-  </si>
-  <si>
-    <t>what is my invoice status details. InvoiceNum: CHK1119 ; Unit ID: 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 ; USERNAME =  Carla.Staton , enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>invoice status My data is: USERNAME =  sarah.hsuneeley my code is : A7FD72D6-E742-45CB-B505-E4B310F35851 Vendor ID 84235E6A-7198-4147-8D03-6953140DD945 , dates is2019-10-31 04:00:00.0000000 also the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>Hey , I would like to have the invoice I have the following information. i have the follwoing Vendor ID: 1FEE4F73-112E-48C0-9DF9-4D0A198259C1 dates is2019-10-25 04:00:00.0000000 ; ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 Inv_Num is 8620705525 Thank you</t>
-  </si>
-  <si>
-    <t>Hey , give me my Invoice details. INVOICE Num: 19-284 dates = 2019-11-01 04:00:00.0000000 also my BICODE is : A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 also i have the follwoing Vendor ID: 2DFFA506-7F49-417E-B101-91C5E3F2F3F2 Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status , I have the following information. BUID = A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 my VENDOR_ID is 5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A and Inv_Num: 0029748-IN also the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice . Here's my information: my business code is 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 also ven id = 057CF46A-5CC2-49B5-BC79-801AF88EBC3D InvNum = CHK1119 and USERNAME: Carla.Staton Date when invoice was created: 2019-11-01 04:00:00.0000000 enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; give me invoice , information. my inv num is 0029747-IN Unit ID: A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 VENDOR_ID = 4314E108-98DC-44B5-9E1F-784A3698E247 , dates = 2019-10-25 04:00:00.0000000 and name = Melissa.White ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>hello ; invoice status , invoice was created on: 2019-10-31 04:00:00.0000000 and my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 also id of my Vendor = 84235E6A-7198-4147-8D03-6953140DD945 Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status . Here's my information: ven id = A6938FDA-C8D8-4B3D-8DAF-7CC08FB3045E ; dates - 2019-10-04 04:00:00.0000000 my inv num is 16426 and ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I would like to have the invoice My data is: InvNum = 0029701-IN Vendor_Id is5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A and I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 , BUID = A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 and the time when my invoice was created is: 2019-10-18 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice ; Details: id of my Vendor = 9DA68920-28A9-4C86-A2C4-8310AB41051D number of my invoice = 2019-10 P2 dates - 2019-10-27 04:00:00.0000000 and also USERNAME: Melissa.White code is: D8A51D10-FC42-4E86-BC21-010FBB6A516D</t>
-  </si>
-  <si>
-    <t>Hey get me my Invoice ; ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 Vendor_Id is5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A the time when my invoice was created is: 2019-10-18 04:00:00.0000000 also BUID = A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3 USERNAME is Melissa.White , number of my invoice is: 0029700-IN</t>
-  </si>
-  <si>
-    <t>hello . I privation to get my Invoice status information. created by Carla.Staton invoice Number = CHK1119 ; Vendor_Id isD8A800F9-B5B0-4DB0-8CAE-A3F4D9E7A5B5 also I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 ,</t>
-  </si>
-  <si>
-    <t>What's up . vendor id - 7074ECCB-FF36-47AD-844C-3B64FE7C601E the BI_CODE = 307C62F4-BDEE-4090-9F3C-963211E8C782 the username of the person who created invoice : patricia.moorefield also num of my inv - CHK-DEC2019RENT dates = 2019-11-06 05:00:00.0000000 and enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>Hey ; give me my Invoice Here's my information: ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 invoice was created by Patricia.Oyola dates is2019-11-01 04:00:00.0000000 vendor id: 98FF2FFD-7719-4303-82F6-A461A438C6FF Thank you</t>
-  </si>
-  <si>
-    <t>What's up , I privation to get my Invoice status. my VENDOR_ID is 9DA68920-28A9-4C86-A2C4-8310AB41051D and also ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 and</t>
-  </si>
-  <si>
-    <t>give me my Invoice . information. inv num: 719150 ; date of the invoice creation is: 2019-11-01 04:00:00.0000000 , ; USERNAME =  nicky.williams , my vend id 59033197-B051-4A65-81D3-6A9430EE6CAE the BI_CODE = A7FD72D6-E742-45CB-B505-E4B310F35851</t>
-  </si>
-  <si>
-    <t>hello ; I privation to get my Invoice status ; I have the following information. vendor id - CBE2D524-EB9F-4DA7-9526-5477FC03A1A6 and userNAME - sarah.hsuneeley num of my inv is10-0062709 0 1119</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice Details: inv num: 2019-10 P1 invoice was created on: 2019-10-27 04:00:00.0000000 and entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 ; person who created my invoice: Melissa.White Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status ; number of my invoice is: 127342 , date of the invoice creation is: 2019-11-05 05:00:00.0000000 i have the follwoing Vendor ID: BB61C9E1-CC5E-49F0-9195-979DBDA827D9 , ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>I privation status of my invoice , INVOICE Num: 719027 created by nicky.williams Date when invoice was created: 2019-11-01 04:00:00.0000000 entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 code is: A7FD72D6-E742-45CB-B505-E4B310F35851</t>
-  </si>
-  <si>
-    <t>What's up ; I privation to get my Invoice status My data is: code is: A7FD72D6-E742-45CB-B505-E4B310F35851 the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 my inv num is 10-0062715 7 1119 ; invoice was created on: 2019-11-02 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status ; Here's my information: the username of the person who created invoice : Melissa.White enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 , VENDORID is5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status My details are - my code is : A7FD72D6-E742-45CB-B505-E4B310F35851 name = sarah.hsuneeley , ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 InvoiceNum = 10-0062716 5 1119 dates is2019-11-02 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello ; what is my invoice status My data is: enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 and the time when my invoice was created is: 2019-11-01 04:00:00.0000000 name = nicky.williams INVOICE Num: 719000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up , what is my invoice status My details are - my vend id 8473DF52-C0CC-49DA-9872-BDD265AD8A94 ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 and the BI_CODE = 90B77B8D-8A29-4E19-ABAF-CACC87FAC25C also dates = 2019-10-27 04:00:00.0000000 the username of the person who created invoice : Patricia.Oyola Thank you</t>
-  </si>
-  <si>
-    <t>hello ; invoice status My details are - Inv_Num is 10-0062714 0 1119 enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 code is: A7FD72D6-E742-45CB-B505-E4B310F35851 ; VENDOR_ID = CBE2D524-EB9F-4DA7-9526-5477FC03A1A6 date: 2019-11-02 04:00:00.0000000 and USERNAME is sarah.hsuneeley</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice Details: my vend id CBE2D524-EB9F-4DA7-9526-5477FC03A1A6 num of my inv - 10-0062710 8 1119 ; invoice was created on: 2019-11-02 04:00:00.0000000 ; my BICODE is : A7FD72D6-E742-45CB-B505-E4B310F35851 ; USERNAME: sarah.hsuneeley</t>
-  </si>
-  <si>
-    <t>hello invoice status My details are - Vendor_Id is5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 also , Date when invoice was created: 2019-10-04 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up , I privation status of my invoice . I have the following information. the username of the person who created invoice : nicky.williams my business code is A7FD72D6-E742-45CB-B505-E4B310F35851 and Thank you</t>
-  </si>
-  <si>
-    <t>What's up , I privation status of my invoice , InvoiceNum is E4466945 USERNAME: michelle.kennedy ven id = FDC4BBD2-6665-4B62-80DC-A61DCA5FE247 also my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>Hey invoice status information. invoice Number = 009004 1019 invoice was created on: 2019-10-31 04:00:00.0000000 the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 , Business Unit ID is E20642CA-919B-4FCC-8F51-23713219CDE3 created by sandra.williams vendor id - 5C675883-56B7-40A2-8A51-59C2412BE7BF Thank you</t>
-  </si>
-  <si>
-    <t>give me my Invoice , My details are - the time when my invoice was created is: 2019-11-01 04:00:00.0000000 , BUID = 307C62F4-BDEE-4090-9F3C-963211E8C782 VENDOR_ID = 5BE586C7-DDD8-4BF4-8AB1-6DB6C956BCAE and Inv_Num: 20042 Thank you</t>
-  </si>
-  <si>
-    <t>information. VENDORID is59033197-B051-4A65-81D3-6A9430EE6CAE also InvoiceNum: 718188 and USERNAME: nicky.williams also Date when invoice was created: 2019-11-01 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello ; I privation status of my invoice details. userNAME - sarah.hsuneeley enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; BI CODE is - A7FD72D6-E742-45CB-B505-E4B310F35851 my vend id CBE2D524-EB9F-4DA7-9526-5477FC03A1A6</t>
-  </si>
-  <si>
-    <t>Hey . i have the follwoing Invoice Number: 1934927 also Business Unit ID is A3D903B7-261B-4C9B-A040-13CDDD0EBEC7 ; USERNAME =  natashia.mcmurrin ; I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>What's up . what is my invoice status Details: invoice was created by sandra.williams I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 my vend id 5C675883-56B7-40A2-8A51-59C2412BE7BF business code is something like this: E20642CA-919B-4FCC-8F51-23713219CDE3 ; num of my inv is008430 0919 Thank you</t>
-  </si>
-  <si>
-    <t>hello , invoice status information. ven id 59033197-B051-4A65-81D3-6A9430EE6CAE ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 name = nicky.williams also</t>
-  </si>
-  <si>
-    <t>what is my invoice status . I have the following information. ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 bi code = A7FD72D6-E742-45CB-B505-E4B310F35851 and the time when my invoice was created is: 2019-11-01 04:00:00.0000000 Vendor_Id: 59033197-B051-4A65-81D3-6A9430EE6CAE created by nicky.williams</t>
-  </si>
-  <si>
-    <t>Hey give me invoice ; information. dates = 2019-10-28 04:00:00.0000000 I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 the username of the person who created invoice : Stephanie.Walters</t>
-  </si>
-  <si>
-    <t>hello . I would like to have the invoice , information. Unit ID: 307C62F4-BDEE-4090-9F3C-963211E8C782 , USERNAME is patricia.moorefield and dates is2019-10-30 04:00:00.0000000 InvNum = 85-900850 VENDOR_ID = A51B95B4-3CBA-40CE-B4C3-B54DECE51976 Thank you</t>
-  </si>
-  <si>
-    <t>hello , details. the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 my inv num is 718008 invoice was created on: 2019-11-01 04:00:00.0000000 ; also code is: A7FD72D6-E742-45CB-B505-E4B310F35851 and my vend id 59033197-B051-4A65-81D3-6A9430EE6CAE</t>
-  </si>
-  <si>
-    <t>hello , I would like to have the invoice details. bi code = A7FD72D6-E742-45CB-B505-E4B310F35851 number of my invoice is: 716974 also USERNAME: nicky.williams the time when my invoice was created is: 2019-11-01 04:00:00.0000000 also Thank you</t>
-  </si>
-  <si>
-    <t>Hey invoice status. the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 and invoice was created on: 2019-11-01 04:00:00.0000000 , my vend id 59033197-B051-4A65-81D3-6A9430EE6CAE the BI_CODE = A7FD72D6-E742-45CB-B505-E4B310F35851 , inv num: 716880</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice , information. i have the follwoing Invoice Number: 716638 person who created my invoice: nicky.williams , i have the follwoing Vendor ID: 59033197-B051-4A65-81D3-6A9430EE6CAE ; enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>Hey ; invoice status Here's my information: business code is something like this: 8F685050-E1F7-4683-86BB-6F2691786C8E USERNAME =  Stephanie.Walters dates - 2019-10-25 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello ; I would like to have the invoice My data is: VENDOR_ID = 59033197-B051-4A65-81D3-6A9430EE6CAE business code is something like this: A7FD72D6-E742-45CB-B505-E4B310F35851 invoice was created by nicky.williams date: 2019-11-01 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up , invoice status. id of my Vendor = 2631A656-B8AF-42E0-A5C5-8DC706B00CE7 ; my code is : A724D27B-CCEA-4B59-B2D7-4C3D946612FD invoice was created by julie.brookshire ; my inv num is CHK1119 Thank you</t>
-  </si>
-  <si>
-    <t>hello , give me invoice My details are - entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 invoice was created by Stephanie.Walters date of the invoice creation is: 2019-10-25 04:00:00.0000000 , BUID = 8F685050-E1F7-4683-86BB-6F2691786C8E vendor id: B94CF75E-3BCE-4FEB-9A79-C421DE682456 Thank you</t>
-  </si>
-  <si>
-    <t>get me my Invoice. vendor id: 4314E108-98DC-44B5-9E1F-784A3698E247 num of my inv is3549051 , , Business Unit ID is A49F71B7-9D14-4D9C-B9E6-DFEADF2EABE3</t>
-  </si>
-  <si>
-    <t>hello , I would like to have the invoice ; id of my Vendor : AF4C074E-77C0-4802-900B-E79FAE3E1044 date of the invoice creation is: 2019-10-28 04:00:00.0000000 my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 my business code is 21C24A88-5FC3-4B76-9DBC-0D52932DCDC8 also my inv num is 468528-RI-00642 also Thank you</t>
-  </si>
-  <si>
-    <t>Hey . give me my Invoice ; My details are - invoice was created on: 2019-11-01 04:00:00.0000000 USERNAME =  nicky.williams also my code is : A7FD72D6-E742-45CB-B505-E4B310F35851 and the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I privation status of my invoice , Here's my information: the time when my invoice was created is: 2019-11-01 04:00:00.0000000 ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 VENDOR_ID = 59033197-B051-4A65-81D3-6A9430EE6CAE ; InvoiceNum is 716325 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice . details. my business code is A7FD72D6-E742-45CB-B505-E4B310F35851 , id of my Vendor = 59033197-B051-4A65-81D3-6A9430EE6CAE dates = 2019-11-01 04:00:00.0000000 name = nicky.williams also Thank you</t>
-  </si>
-  <si>
-    <t>hello ; invoice status Here's my information: ven id DF2607F6-16F3-4D8E-AE41-965AE29E70D7 username = nick.campbell and dates - 2019-11-01 04:00:00.0000000 I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 inv num: CHK1119 my BICODE is : 5380D4AA-A129-46A2-A64A-24E9433A37AA</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status I have the following information. ven id = 59033197-B051-4A65-81D3-6A9430EE6CAE ; enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 the time when my invoice was created is: 2019-11-01 04:00:00.0000000 and</t>
-  </si>
-  <si>
-    <t>hello . I privation status of my invoice ; details. invoice was created by patricia.moorefield I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 id of my Vendor : 1C889B31-2466-4BC8-BDDE-F34F85675AF6 , dates - 2019-10-31 04:00:00.0000000 my business code is 329E11FF-7860-4239-9F51-A4844AFD39AC ; number of my invoice is: I284-1193</t>
-  </si>
-  <si>
-    <t>What's up give me invoice . I have the following information. dates = 2019-10-20 04:00:00.0000000 ; Inv_Num is 0003145563 , business code is something like this: A7FD72D6-E742-45CB-B505-E4B310F35851 invoice was created by sarah.hsuneeley Thank you</t>
-  </si>
-  <si>
-    <t>hello ; what is my invoice status I have the following information. username = julie.brookshire ; date of the invoice creation is: 2019-10-01 04:00:00.0000000 Vendor_Id: 56143C57-05E8-4ACF-AA2A-A68BBA5A6560 INVOICE Num: CHK1119-2</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice Details: date: 2019-10-24 04:00:00.0000000 and I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 bi code = 8F685050-E1F7-4683-86BB-6F2691786C8E VENDOR_ID = B94CF75E-3BCE-4FEB-9A79-C421DE682456</t>
-  </si>
-  <si>
-    <t>hello , I privation status of my invoice , Here's my information: invoice Number = 0009654425 also my business code is A7FD72D6-E742-45CB-B505-E4B310F35851 also id of my Vendor = 65D836EC-9BF4-4B78-B777-02F979A6CD0D ; dates = 2019-11-01 04:00:00.0000000 my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 , USERNAME is sarah.hsuneeley</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status Details: Date when invoice was created: 2019-10-31 04:00:00.0000000 I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 invoice Number = I246-1298 ; Vendor_Id: 1C889B31-2466-4BC8-BDDE-F34F85675AF6 USERNAME is michelle.kennedy also Unit ID: BCC41876-0D3B-48E0-A3E1-6220CB2512ED Thank you</t>
-  </si>
-  <si>
-    <t>What's up I privation status of my invoice ; My details are - ven id 1C889B31-2466-4BC8-BDDE-F34F85675AF6 num of my inv isI284-1191 BUID = patricia.moorefield also Business Unit ID is 307C62F4-BDEE-4090-9F3C-963211E8C782</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status details. business code is something like this: 6A148451-0B55-43B3-8270-9A415C3458FA dates = 2019-11-05 05:00:00.0000000 BUID = LaDatril.Long ;</t>
-  </si>
-  <si>
-    <t>hello invoice status . I have the following information. vendor id - B94CF75E-3BCE-4FEB-9A79-C421DE682456 ; name = Stephanie.Walters , Date when invoice was created: 2019-10-24 04:00:00.0000000 also bi code = 8F685050-E1F7-4683-86BB-6F2691786C8E Thank you</t>
-  </si>
-  <si>
-    <t>Hey . give me invoice ; INVOICE Num: 0009654359 Vendor ID 65D836EC-9BF4-4B78-B777-02F979A6CD0D and my business code is A7FD72D6-E742-45CB-B505-E4B310F35851 dates is2019-11-01 04:00:00.0000000 enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>What's up I privation status of my invoice I have the following information. enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 Date when invoice was created: 2019-11-01 04:00:00.0000000 InvoiceNum: 0009654414 my BICODE is : A7FD72D6-E742-45CB-B505-E4B310F35851 Thank you</t>
-  </si>
-  <si>
-    <t>hello . give me my Invoice. my vend id E5A93685-6BFA-4FB6-B272-D66CAF4F07FD my business code is A9538919-1B13-4FB1-AAF0-09A14E120E3B entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 BUID = cynthia.pyle Inv_Num: 1019</t>
-  </si>
-  <si>
-    <t>hello give me invoice I have the following information. the time when my invoice was created is: 2019-11-01 04:00:00.0000000 INVOICE Num: 0009653773 also userNAME - sarah.hsuneeley Thank you</t>
-  </si>
-  <si>
-    <t>I would like to have the invoice details. my vendor id is B94CF75E-3BCE-4FEB-9A79-C421DE682456 my business code is 20B96F08-D206-4F90-93AF-6CA3D6B32DFB date: 2019-11-05 05:00:00.0000000 invoice was created by maxine.oakley Thank you</t>
-  </si>
-  <si>
-    <t>Hey . I privation to get my Invoice status Details: date of the invoice creation is: 2019-11-01 04:00:00.0000000 inv num: 0009653894 person who created my invoice: sarah.hsuneeley Vendor_Id is65D836EC-9BF4-4B78-B777-02F979A6CD0D , enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>hello , what is my invoice status My data is: dates - 2019-11-04 05:00:00.0000000 Inv_Num is 642915 , enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 ;</t>
-  </si>
-  <si>
-    <t>What's up ; get me my Invoice ; Details: my business code is A7FD72D6-E742-45CB-B505-E4B310F35851 the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 USERNAME: sarah.hsuneeley num of my inv - 0009652686 ; ven id 65D836EC-9BF4-4B78-B777-02F979A6CD0D , dates = 2019-11-01 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up what is my invoice status . My data is: invoice was created on: 2019-11-05 05:00:00.0000000 the username of the person who created invoice : Patricia.Oyola InvoiceNum is 9264 Unit ID: 90B77B8D-8A29-4E19-ABAF-CACC87FAC25C Thank you</t>
-  </si>
-  <si>
-    <t>What's up what is my invoice status details. ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>What's up . what is my invoice status I have the following information. InvNum = 19049 , my BICODE is : 1C56F76D-5633-4CFD-AE50-89FD6FC7CBE5 id of my Vendor : 47121BD8-8ABB-4AA2-8FF7-8BC318974630 the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 and</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice ; Details: the username of the person who created invoice : sarah.hsuneeley BUID = A7FD72D6-E742-45CB-B505-E4B310F35851 and the time when my invoice was created is: 2019-11-01 04:00:00.0000000 my vendor id is 65D836EC-9BF4-4B78-B777-02F979A6CD0D number of my invoice 0009650815 my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>hello , I privation status of my invoice ; Details: USERNAME: laura.young ; the time when my invoice was created is: 2019-10-28 04:00:00.0000000 ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice. enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; Date when invoice was created: 2019-11-05 05:00:00.0000000 USERNAME =  patricia.moorefield Vendor_Id: 26BA1C1F-7D85-4EA0-8B18-C5DE8B4E90FB</t>
-  </si>
-  <si>
-    <t>What's up . invoice status . information. date: 2019-10-31 04:00:00.0000000 also userNAME - sandra.williams , ; number of my invoice = 000300 1019</t>
-  </si>
-  <si>
-    <t>Hey Here's my information: BUID = laura.young business code is something like this: 43AC8D04-74C3-4273-A4DD-942F7BEAB2CA also Inv_Num is EMPT3040596 Vendor_Id is0B533B4F-A490-4738-994B-FA768BAC028F also my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 and date of the invoice creation is: 2019-11-06 05:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice , My data is: dates is2019-10-17 04:00:00.0000000 also Vendor ID 9D670FF1-3783-4C79-BE74-374DA817DC86 ; num of my inv is7800 the username of the person who created invoice : patricia.moorefield also Unit ID: 307C62F4-BDEE-4090-9F3C-963211E8C782 enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>hello . Here's my information: number of my invoice 267035 and Business Unit ID is 20B96F08-D206-4F90-93AF-6CA3D6B32DFB and date of the invoice creation is: 2019-11-05 05:00:00.0000000 VENDOR_ID = B94CF75E-3BCE-4FEB-9A79-C421DE682456 also ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 , created by maxine.oakley Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice ; information. Vendor_Id: B94CF75E-3BCE-4FEB-9A79-C421DE682456 , person who created my invoice: Stephanie.Walters , number of my invoice is: 265306 dates = 2019-10-24 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey , I privation to get my Invoice status. ven id 0B533B4F-A490-4738-994B-FA768BAC028F also dates - 2019-09-18 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>Hey ; I privation to get my Invoice status I have the following information. number of my invoice is: 3298 enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 date: 2019-10-31 04:00:00.0000000 USERNAME: michelle.kennedy BI CODE is - BCC41876-0D3B-48E0-A3E1-6220CB2512ED Thank you</t>
-  </si>
-  <si>
-    <t>hello ; the username of the person who created invoice : patricia.moorefield Vendor_Id: 9D670FF1-3783-4C79-BE74-374DA817DC86 my business code is 307C62F4-BDEE-4090-9F3C-963211E8C782 and</t>
-  </si>
-  <si>
-    <t>What's up ; what is my invoice status Details: enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 and Vendor ID C5C5F731-3029-40AC-9E41-827F17844465 and dates = 2019-07-29 04:00:00.0000000 ; also name = natashia.mcmurrin</t>
-  </si>
-  <si>
-    <t>What's up . I would like to have the invoice My data is: invoice was created on: 2019-07-01 04:00:00.0000000 ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 Business Unit ID is 5380D4AA-A129-46A2-A64A-24E9433A37AA</t>
-  </si>
-  <si>
-    <t>What's up , I privation to get my Invoice status , Details: BUID = amber.stone enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 and Unit ID: 5380D4AA-A129-46A2-A64A-24E9433A37AA also</t>
-  </si>
-  <si>
-    <t>What's up , I would like to have the invoice My details are - the time when my invoice was created is: 2019-11-01 04:00:00.0000000 BUID = A724D27B-CCEA-4B59-B2D7-4C3D946612FD , enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; ; inv num: CHK1119-1 , id of my Vendor : 56143C57-05E8-4ACF-AA2A-A68BBA5A6560</t>
-  </si>
-  <si>
-    <t>Hey I privation to get my Invoice status ; information. USERNAME =  amber.stone , dates is2019-08-29 04:00:00.0000000 my inv num is 217-83482 also and entity name -  8482FBEF-962B-4BBA-BE63-41CC4897F723 my code is : 5380D4AA-A129-46A2-A64A-24E9433A37AA</t>
-  </si>
-  <si>
-    <t>I privation status of my invoice. VENDORID is4B0AB2A2-D7F2-48A4-B643-CCDEB2C69DCD and BUID = amber.stone ; INVOICE Num: 0240361-IN enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 , and the time when my invoice was created is: 2019-10-25 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello . what is my invoice status Here's my information: name = amber.stone and dates = 2019-10-25 04:00:00.0000000 Vendor_Id is4B0AB2A2-D7F2-48A4-B643-CCDEB2C69DCD also bi code = 5380D4AA-A129-46A2-A64A-24E9433A37AA Thank you</t>
-  </si>
-  <si>
-    <t>hello . I privation to get my Invoice status information. the BI_CODE = A7FD72D6-E742-45CB-B505-E4B310F35851 also Inv_Num is 20583698 and invoice was created on: 2019-10-31 04:00:00.0000000 name = sarah.hsuneeley ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me my Invoice My data is: my vend id A51B95B4-3CBA-40CE-B4C3-B54DECE51976 , ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 , invoice Number = 64-806679 , Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me invoice My details are - USERNAME: nicky.williams and Vendor_Id: 59033197-B051-4A65-81D3-6A9430EE6CAE enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 , Business Unit ID is A7FD72D6-E742-45CB-B505-E4B310F35851 invoice was created on: 2019-11-01 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status I have the following information. dates - 2019-10-24 04:00:00.0000000 and ent id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; and bi code = 5380D4AA-A129-46A2-A64A-24E9433A37AA person who created my invoice: amber.stone InvoiceNum is 0240299-IN Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice. Unit ID: A7FD72D6-E742-45CB-B505-E4B310F35851 InvNum = 20583977 and VENDORID is96C7976E-0601-4464-832D-78ABE19D2945 invoice was created by sarah.hsuneeley</t>
-  </si>
-  <si>
-    <t>hello , Details: created by sarah.hsuneeley Business Unit ID is A7FD72D6-E742-45CB-B505-E4B310F35851 , enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 num of my inv is20655345 , dates - 2019-10-31 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice. my inv num is 0002451-IN enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; id of my Vendor : 5C055D76-1CA8-46B3-BDBF-AF9A7ADF070A</t>
-  </si>
-  <si>
-    <t>What's up I privation to get my Invoice status . I have the following information. invoice was created by sarah.hsuneeley , ven id = 96C7976E-0601-4464-832D-78ABE19D2945 Inv_Num is 20583947</t>
-  </si>
-  <si>
-    <t>Hey , get me my Invoice ; information. INVOICE Num: 625887 , USERNAME: patricia.moorefield and VENDORID is26BA1C1F-7D85-4EA0-8B18-C5DE8B4E90FB Thank you</t>
-  </si>
-  <si>
-    <t>Hey I would like to have the invoice Here's my information: InvoiceNum = 0240303-IN also ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 and and id of my Vendor = 4B0AB2A2-D7F2-48A4-B643-CCDEB2C69DCD name = amber.stone</t>
-  </si>
-  <si>
-    <t>hello , give me my Invoice My details are - Unit ID: 5380D4AA-A129-46A2-A64A-24E9433A37AA my inv num is 0240148-IN Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I privation status of my invoice ; USERNAME: amber.stone also date of the invoice creation is: 2019-10-23 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up ; what is my invoice status details. invoice was created on: 2019-05-31 04:00:00.0000000 also person who created my invoice: billie.wood , ; enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 also num of my inv is0002450-IN</t>
-  </si>
-  <si>
-    <t>What's up what is my invoice status information. InvoiceNum = 1940431 also USERNAME: LaDatril.Long code is: 6A148451-0B55-43B3-8270-9A415C3458FA Vendor_Id: FA11E494-F603-47FC-A64E-BA3BECD9853E</t>
-  </si>
-  <si>
-    <t>Hey , I privation status of my invoice . created by maxine.oakley , Date when invoice was created: 2019-10-30 04:00:00.0000000 and vendor id: 2652D743-CC9D-4C23-9827-2F61DC139261 Unit ID: 20B96F08-D206-4F90-93AF-6CA3D6B32DFB Thank you</t>
-  </si>
-  <si>
-    <t>hello . ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 also i have the follwoing Vendor ID: 023F0403-0223-4ACF-B020-FCFFB8318D21 and USERNAME is Stephanie.Walters dates is2019-10-29 04:00:00.0000000 , Inv_Num: 6852</t>
-  </si>
-  <si>
-    <t>hello. USERNAME is amber.stone , date: 2019-10-22 04:00:00.0000000 and Vendor_Id is4B0AB2A2-D7F2-48A4-B643-CCDEB2C69DCD number of my invoice 0239877-IN , I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723</t>
-  </si>
-  <si>
-    <t>Hey ; invoice status details. InvoiceNum = 59166 created by maxine.oakley also the name of an enity is 8482FBEF-962B-4BBA-BE63-41CC4897F723 Date when invoice was created: 2019-10-31 04:00:00.0000000 also</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice ; information. person who created my invoice: patricia.moorefield enity id = 8482FBEF-962B-4BBA-BE63-41CC4897F723 InvoiceNum: 603874 ; Thank you</t>
-  </si>
-  <si>
-    <t>What's up , I privation to get my Invoice status. dates - 2019-10-31 04:00:00.0000000 Business Unit ID is A7FD72D6-E742-45CB-B505-E4B310F35851 , enity name: 8482FBEF-962B-4BBA-BE63-41CC4897F723 also num of my inv is20584269 and my VENDOR_ID is 96C7976E-0601-4464-832D-78ABE19D2945 created by sarah.hsuneeley</t>
-  </si>
-  <si>
-    <t>What's up give me my Invoice . My data is: inv num: 20583931 , Vendor ID 96C7976E-0601-4464-832D-78ABE19D2945 , , USERNAME is sarah.hsuneeley</t>
-  </si>
-  <si>
-    <t>What's up ; information. USERNAME is maxine.oakley my code is : 20B96F08-D206-4F90-93AF-6CA3D6B32DFB ; i have the follwoing Vendor ID: 2652D743-CC9D-4C23-9827-2F61DC139261 Thank you</t>
-  </si>
-  <si>
-    <t>hello , I privation to get my Invoice status ; information. my inv num is 20653980 my entity name is 8482FBEF-962B-4BBA-BE63-41CC4897F723 , date: 2019-10-31 04:00:00.0000000 and and name = sarah.hsuneeley Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice , dates - 2019-11-01 04:00:00.0000000 ; I have the following name of invoice enntity: 8482FBEF-962B-4BBA-BE63-41CC4897F723 created by nicky.williams , Business Unit ID is A7FD72D6-E742-45CB-B505-E4B310F35851 number of my invoice is: 715444 ven id 59033197-B051-4A65-81D3-6A9430EE6CAE</t>
-  </si>
-  <si>
-    <t>I privation to get my Invoice status . My data is: ENTITY_ID is : 8482FBEF-962B-4BBA-BE63-41CC4897F723 ; date of the invoice creation is: 2019-11-01 04:00:00.0000000 name = nicky.williams Unit ID: A7FD72D6-E742-45CB-B505-E4B310F35851 Thank you</t>
-  </si>
-  <si>
-    <t>Hey , I would like to have the invoice details. VENDOR_ID = 96C7976E-0601-4464-832D-78ABE19D2945 also Date when invoice was created: 2019-10-31 04:00:00.0000000 USERNAME =  sarah.hsuneeley ,</t>
+    <t>I privation status of my invoice . inv num: W02997 also created by pmisener invoice was created on: 2020-10-27 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello , give me my Invoice ; I have the following information. num of my inv - R04209 code is: Ground Force ; Vendor ID 107ONT01 Thank you</t>
+  </si>
+  <si>
+    <t>hello ; get me my Invoice , Details: my business code is Ground Force ; Vendor_Id: 107ONT01 the name of an enity is GFL10 also Thank you</t>
+  </si>
+  <si>
+    <t>What's up I privation status of my invoice . I have the following information. number of my invoice = R04214 also USERNAME is tmian ; vendor id - 107ONT01 , invoice was created on: 2020-10-29 04:00:00.0000000 my code is : Ground Force Thank you</t>
+  </si>
+  <si>
+    <t>get me my Invoice , details. invoice Number = R04196 ; my entity name is GFL10 also vendor id: 107ONT01 BUID = Ground Force , name = tmian also Thank you</t>
+  </si>
+  <si>
+    <t>hello ; give me my Invoice Details: my BICODE is : Ground Force dates = 2020-10-27 04:00:00.0000000 BUID = tmian</t>
+  </si>
+  <si>
+    <t>Hey ; invoice status. inv num: R04157 BUID = mhorlings ;</t>
+  </si>
+  <si>
+    <t>Hey , give me invoice . My data is: invoice was created on: 2020-09-30 04:00:00.0000000 ent id = GFL10 ven id = 107ONT01 person who created my invoice: mhorlings ; also my code is : Ground Force</t>
+  </si>
+  <si>
+    <t>What's up . I privation to get my Invoice status details. ENTITY_ID is : GFL10 InvoiceNum: R04160 dates is2020-09-30 04:00:00.0000000 the BI_CODE = Ground Force id of my Vendor : 107ONT01 and person who created my invoice: pmisener Thank you</t>
+  </si>
+  <si>
+    <t>What's up I privation to get my Invoice status , My details are - business code is something like this: First Class also USERNAME: sknezetic , and i have the follwoing Vendor ID: 115BCL01 and enity id = GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello get me my Invoice I have the following information. my VENDOR_ID is 115BCL01 , also USERNAME: sknezetic dates is2021-09-17 04:00:00.0000000 Business Unit ID is First Class</t>
+  </si>
+  <si>
+    <t>What's up what is my invoice status My details are - created by pmisener ENTITY_ID is : GFL10 and Vendor_Id: 107ONT01 also dates = 2020-09-30 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice Here's my information: InvNum = R04158 also created by tmian ; my vendor id is 107ONT01 Thank you</t>
+  </si>
+  <si>
+    <t>What's up , , information. business code is something like this: Ground Force and date of the invoice creation is: 2020-09-15 04:00:00.0000000 , vendor id: 107ONT01 also the username of the person who created invoice : tmian</t>
+  </si>
+  <si>
+    <t>hello . get me my Invoice I have the following information. InvNum = R04105 created by hzhang Date when invoice was created: 2020-09-06 04:00:00.0000000 vendor id: 107ONT01 also I have the following name of invoice enntity: GFL10</t>
+  </si>
+  <si>
+    <t>Hey ; get me my Invoice My details are - dates = 2020-09-25 04:00:00.0000000 , username = tmian and num of my inv - R04137 and also my business code is Ground Force</t>
+  </si>
+  <si>
+    <t>What's up I privation status of my invoice , My data is: I have the following name of invoice enntity: GFL10 ; Vendor ID 107ONT01 Thank you</t>
+  </si>
+  <si>
+    <t>hello , details. Inv_Num: R04087 also and Date when invoice was created: 2020-08-31 04:00:00.0000000 , Thank you</t>
+  </si>
+  <si>
+    <t>What's up give me invoice , BUID = Ground Force and ent id = GFL10 , ven id 107ONT01 and Date when invoice was created: 2020-09-10 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up invoice status ; information. BUID = hzhang BUID = Ground Force i have the follwoing Invoice Number: W02872 ; enity id = GFL10 dates = 2020-07-31 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello , give me my Invoice Details: username = tmian and dates = 2020-08-24 04:00:00.0000000 also my BICODE is : Ground Force ent id = GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>Hey give me my Invoice Details: USERNAME: tmian Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  USERNAME is jberisha ; INVOICE Num: R04062 the name of an enity is GFL10 dates = 2020-08-18 04:00:00.0000000 vendor id - 107ONT01</t>
+  </si>
+  <si>
+    <t>hello , I would like to have the invoice details. Vendor ID 107ONT01 ; also INVOICE Num: R04050 ent id = GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>Hey . invoice status I have the following information. entity name -  GFL10 Unit ID: Ground Force , Thank you</t>
+  </si>
+  <si>
+    <t>hello , I have the following information. invoice Number = R04051 username = jberisha dates is2020-08-13 04:00:00.0000000 and my code is : Ground Force and also</t>
+  </si>
+  <si>
+    <t>What's up ; I privation to get my Invoice status. my inv num is R04045 and the BI_CODE = Ground Force Vendor ID 107ONT01 and Thank you</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice My details are - Date when invoice was created: 2020-07-27 04:00:00.0000000 number of my invoice = R04019</t>
+  </si>
+  <si>
+    <t>hello . date of the invoice creation is: 2020-07-28 04:00:00.0000000 also id of my Vendor : 107ONT01 ; the BI_CODE = Ground Force INVOICE Num: nan my entity name is GFL10</t>
+  </si>
+  <si>
+    <t>What's up get me my Invoice ; My details are - number of my invoice is: R04008 invoice was created by jberisha , dates is2020-07-21 04:00:00.0000000 and i have the follwoing Vendor ID: 107ONT01</t>
+  </si>
+  <si>
+    <t>I privation status of my invoice , VENDOR_ID = 107ONT01 and InvoiceNum: R04002 and enity id = GFL10 ; USERNAME: jberisha and dates is2020-07-16 04:00:00.0000000 my code is : Ground Force Thank you</t>
+  </si>
+  <si>
+    <t>hello give me invoice ; information. the BI_CODE = Ground Force my vendor id is 107ONT01 inv num: R04003 the time when my invoice was created is: 2020-07-16 04:00:00.0000000 invoice was created by jberisha</t>
+  </si>
+  <si>
+    <t>Hey . get me my Invoice . I have the following information. id of my Vendor = 107ONT01 the time when my invoice was created is: 2020-07-08 04:00:00.0000000 BUID = Ground Force the name of an enity is GFL10 created by jberisha</t>
+  </si>
+  <si>
+    <t>hello . give me invoice. id of my Vendor : 115BCL01 , invoice was created by tlanyon date of the invoice creation is: 2021-07-08 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey invoice status My data is: ENTITY_ID is : GFL10 id of my Vendor : 115BCL01 dates - 2021-07-08 04:00:00.0000000 BUID = tlanyon and</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice My data is: dates = 2021-07-08 04:00:00.0000000 ; BUID = tlanyon and VENDOR_ID = 115BCL01 ; ; Unit ID: First Class Thank you</t>
+  </si>
+  <si>
+    <t>Hey , I would like to have the invoice Here's my information: date of the invoice creation is: 2020-06-30 04:00:00.0000000 ; Business Unit ID is Ground Force enity id = GFL10 , also</t>
+  </si>
+  <si>
+    <t>Hey ; My details are - InvoiceNum = R03871 , entity name -  GFL10 , USERNAME =  tmian , my code is : Ground Force my vend id 107ONT01 Thank you</t>
+  </si>
+  <si>
+    <t>hello ; I privation status of my invoice . Inv_Num is R03870 ; ven id = 107ONT01 enity name: GFL10 ,</t>
+  </si>
+  <si>
+    <t>What's up I privation status of my invoice I have the following information. number of my invoice is: R03990 my code is : Ground Force Vendor_Id: 107ONT01 , invoice was created on: 2020-07-08 04:00:00.0000000 my entity name is GFL10 created by jberisha Thank you</t>
+  </si>
+  <si>
+    <t>Hey , details. i have the follwoing Invoice Number: R03962 dates - 2020-06-18 04:00:00.0000000 Unit ID: Ground Force entity name -  GFL10 my VENDOR_ID is 107ONT01</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice . My details are - ven id 107ONT01 ; and the BI_CODE = Ground Force dates is2020-06-18 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey , date: 2021-02-01 05:00:00.0000000 the username of the person who created invoice : sreilly InvoiceNum = 13 my vend id 107BCX01</t>
+  </si>
+  <si>
+    <t>Hey . I have the following information. id of my Vendor : 107ONT01 and the time when my invoice was created is: 2020-06-18 04:00:00.0000000 InvoiceNum = R03961 ; person who created my invoice: jberisha also enity name: GFL10 the BI_CODE = Ground Force Thank you</t>
+  </si>
+  <si>
+    <t>invoice status , My data is: InvoiceNum is 11 and the BI_CODE = First Class ; and Thank you</t>
+  </si>
+  <si>
+    <t>Hey what is my invoice status My details are - the time when my invoice was created is: 2021-04-13 04:00:00.0000000 the name of an enity is GFL10 inv num: 2103 created by sreilly bi code = First Class Vendor_Id is115BCL01 Thank you</t>
+  </si>
+  <si>
+    <t>give me invoice . Details: USERNAME =  sreilly and number of my invoice = 2108 and Vendor_Id is115BCL01 ; ENTITY_ID is : GFL10</t>
+  </si>
+  <si>
+    <t>Hey give me my Invoice . details. the username of the person who created invoice : sreilly , also code is: First Class number of my invoice 12 ; Vendor ID 107BCX01</t>
+  </si>
+  <si>
+    <t>hello invoice status I have the following information. enity name: GFL10 and BUID = First Class also VENDOR_ID = 107BCX01 ; Date when invoice was created: 2020-08-01 04:00:00.0000000 also and Thank you</t>
+  </si>
+  <si>
+    <t>Hey get me my Invoice . I have the following information. business code is something like this: First Class INVOICE Num: 9 id of my Vendor : 107BCX01 also dates = 2020-10-01 04:00:00.0000000 , entity name -  GFL10</t>
+  </si>
+  <si>
+    <t>What's up I privation to get my Invoice status. ENTITY_ID is : GFL10 also created by sreilly number of my invoice 10 and the BI_CODE = First Class also ven id = 107BCX01 Thank you</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status . username = sreilly , ent id = GFL10 also my business code is First Class my inv num is 8 Thank you</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice information. InvoiceNum: 0242 person who created my invoice: dlavoie my BICODE is : BDF and ; Thank you</t>
+  </si>
+  <si>
+    <t>I privation to get my Invoice status ; Here's my information: dates - 2020-06-01 04:00:00.0000000 ; and Inv_Num is 5 , i have the follwoing Vendor ID: 107BCX01 Thank you</t>
+  </si>
+  <si>
+    <t>hello give me my Invoice ; Here's my information: my entity name is GFL10 code is: First Class and id of my Vendor = 107BCX01 , date of the invoice creation is: 2020-07-01 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up , get me my Invoice Here's my information: date of the invoice creation is: 2022-07-18 04:00:00.0000000 INVOICE Num: 0371 my entity name is GP108 my BICODE is : Recyclex Thank you</t>
+  </si>
+  <si>
+    <t>hello ; get me my Invoice My details are - person who created my invoice: kyuen enity name: GFL10 invoice Number = 10922 , dates = 2022-07-31 04:00:00.0000000 the BI_CODE = Grand Prairie Thank you</t>
+  </si>
+  <si>
+    <t>Hey , invoice status My data is: created by mrodriguez num of my inv - 0183 ; enity name: GP108 also Thank you</t>
+  </si>
+  <si>
+    <t>hello , invoice status My data is: dates is2022-04-30 04:00:00.0000000 the username of the person who created invoice : kyuen Vendor_Id: 105ALB03 also number of my invoice 10637 my BICODE is : Grand Prairie and the name of an enity is GFL10</t>
+  </si>
+  <si>
+    <t>get me my Invoice My details are - i have the follwoing Vendor ID: 106CAN02 dates - 2020-08-21 04:00:00.0000000 invoice Number = 0176 I have the following name of invoice enntity: GP108 ; code is: Enviro BP</t>
+  </si>
+  <si>
+    <t>invoice status . Details: my business code is Edmonton SW , the time when my invoice was created is: 2023-03-07 05:00:00.0000000 , person who created my invoice: svc_UiPath ; vendor id - 102SAS03</t>
+  </si>
+  <si>
+    <t>What's up give me invoice , information. Business Unit ID is Saskatoon and</t>
+  </si>
+  <si>
+    <t>Hey . I privation to get my Invoice status. bi code = Grand Prairie and USERNAME is kyuen , inv num: 10632 I have the following name of invoice enntity: GFL10</t>
+  </si>
+  <si>
+    <t>hello ; give me invoice Here's my information: person who created my invoice: rpolichuk Unit ID: Saskatoon dates is2022-09-16 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello , what is my invoice status. my inv num is 2107468 USERNAME: csperling ; Vendor_Id: 102SAS03 and my business code is Saskatoon</t>
+  </si>
+  <si>
+    <t>hello ; give me invoice , My details are - created by csperling InvoiceNum is 2105985</t>
+  </si>
+  <si>
+    <t>hello , I privation to get my Invoice status . information. vendor id: 102SAS03 my entity name is GP108 Date when invoice was created: 2022-06-08 04:00:00.0000000 code is: Saskatoon and USERNAME is csperling Thank you</t>
+  </si>
+  <si>
+    <t>hello , what is my invoice status , business code is something like this: Saskatoon ; , dates is2022-06-20 04:00:00.0000000 also InvoiceNum = 2106985</t>
+  </si>
+  <si>
+    <t>What's up get me my Invoice , Details: my BICODE is : Saskatoon and date: 2022-03-15 04:00:00.0000000 also Inv_Num: 2105090 and my vend id 102SAS03 and the name of an enity is GP108 ; userNAME - csperling Thank you</t>
+  </si>
+  <si>
+    <t>Hey , what is my invoice status . Inv_Num is 2105360 userNAME - jsiemens dates is2022-03-29 04:00:00.0000000 my vendor id is 102SAS03</t>
+  </si>
+  <si>
+    <t>give me invoice information. InvoiceNum is 2105372 id of my Vendor = 102SAS03 I have the following name of invoice enntity: GP108 ; my code is : Saskatoon USERNAME: csperling date: 2022-03-30 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status . the time when my invoice was created is: 2022-04-04 04:00:00.0000000 also my entity name is GP108 Unit ID: Saskatoon ; InvoiceNum: 2105467 my vendor id is 102SAS03</t>
+  </si>
+  <si>
+    <t>Hey I would like to have the invoice . InvNum = 2103972 and the username of the person who created invoice : rpolichuk dates - 2022-01-11 05:00:00.0000000 ent id = GP108</t>
+  </si>
+  <si>
+    <t>hello , I would like to have the invoice . id of my Vendor : 102SAS03 also ENTITY_ID is : GP108 , invoice was created on: 2021-12-24 05:00:00.0000000 ; number of my invoice 2103683 Thank you</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice My data is: person who created my invoice: rpolichuk ; date of the invoice creation is: 2022-02-18 05:00:00.0000000 id of my Vendor : 102SAS03 Thank you</t>
+  </si>
+  <si>
+    <t>Hey get me my Invoice , My data is: my BICODE is : First Class my vendor id is 115BCL01 enity id = GFL10 the username of the person who created invoice : tlanyon , InvoiceNum is 2067 ; date of the invoice creation is: 2020-12-29 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello get me my Invoice , created by csperling vendor id: 102SAS03 ent id = GP108 dates is2021-11-01 04:00:00.0000000 ; INVOICE Num: 2102665</t>
+  </si>
+  <si>
+    <t>hello , what is my invoice status My data is: Business Unit ID is Saskatoon ; id of my Vendor = 102SAS03 , also created by csperling</t>
+  </si>
+  <si>
+    <t>Hey , give me invoice Details: ven id 102SAS03 also date: 2021-10-29 04:00:00.0000000 code is: Saskatoon also name = jsiemens also my entity name is GP108 Thank you</t>
+  </si>
+  <si>
+    <t>What's up , give me invoice I have the following information. date: 2021-10-14 04:00:00.0000000 num of my inv - 2102274 and USERNAME =  csperling , my BICODE is : Saskatoon I have the following name of invoice enntity: GP108 also</t>
+  </si>
+  <si>
+    <t>What's up , I would like to have the invoice I have the following information. dates = 2021-09-14 04:00:00.0000000 , invoice Number = 2101689 enity id = GP108 USERNAME is jsiemens and BI CODE is - Saskatoon ven id = 102SAS03</t>
+  </si>
+  <si>
+    <t>hello . give me my Invoice . Details: my BICODE is : Saskatoon also ; InvoiceNum is 2101682 VENDORID is102SAS03</t>
+  </si>
+  <si>
+    <t>Hey I privation to get my Invoice status details. dates = 2021-08-04 04:00:00.0000000 , I have the following name of invoice enntity: GP108 ; Inv_Num is 2100821 BUID = Saskatoon , ven id 102SAS03 Thank you</t>
+  </si>
+  <si>
+    <t>What's up give me my Invoice ; INVOICE Num: 2100825 enity name: GP108 and dates - 2021-08-04 04:00:00.0000000 ; BUID = jsiemens VENDORID is102SAS03</t>
+  </si>
+  <si>
+    <t>What's up get me my Invoice My details are - my business code is Saskatoon I have the following name of invoice enntity: GP108 userNAME - rpolichuk dates is2021-06-29 04:00:00.0000000 ;</t>
+  </si>
+  <si>
+    <t>What's up invoice status My details are - I have the following name of invoice enntity: GP108 and also the time when my invoice was created is: 2021-05-07 04:00:00.0000000 ; code is: Saskatoon and Inv_Num is 2099009</t>
+  </si>
+  <si>
+    <t>Hey give me invoice My details are - created by csperling business code is something like this: Saskatoon</t>
+  </si>
+  <si>
+    <t>details. name = rpolichuk I have the following name of invoice enntity: GP108 and inv num: 2100723 , date of the invoice creation is: 2021-07-29 04:00:00.0000000 also my business code is Saskatoon Thank you</t>
+  </si>
+  <si>
+    <t>hello . invoice status I have the following information. my entity name is GP108 my inv num is 2098411 date: 2021-04-05 04:00:00.0000000 ; person who created my invoice: jsiemens , Thank you</t>
+  </si>
+  <si>
+    <t>hello ; I have the following information. invoice Number = 2098733 Business Unit ID is Saskatoon invoice was created on: 2021-04-20 04:00:00.0000000 ; my entity name is GP108 my vend id 102SAS03 Thank you</t>
+  </si>
+  <si>
+    <t>hello give me invoice. date: 2021-05-17 04:00:00.0000000 my code is : Saskatoon entity name -  GP108 invoice was created by jsiemens id of my Vendor = 102SAS03</t>
+  </si>
+  <si>
+    <t>Hey ; get me my Invoice Details: Unit ID: Saskatoon , created by rpolichuk my vendor id is 102SAS03 also dates - 2021-05-13 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey , give me invoice ; Here's my information: I have the following name of invoice enntity: GFL10 ; BI CODE is - First Class and and id of my Vendor : 115BCL01</t>
+  </si>
+  <si>
+    <t>hello give me invoice Details: InvoiceNum = 2031 ; dates - 2020-04-30 04:00:00.0000000 VENDORID is115BCL01 and BI CODE is - First Class enity id = GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>Hey I privation to get my Invoice status. Unit ID: First Class created by bbarnes InvoiceNum = 2029 and date of the invoice creation is: 2020-04-30 04:00:00.0000000 also VENDORID is115BCL01 entity name -  GFL10</t>
+  </si>
+  <si>
+    <t>give me invoice Here's my information: id of my Vendor = 115BCL01 I have the following name of invoice enntity: GFL10 number of my invoice is: 2032 , invoice was created on: 2020-04-30 04:00:00.0000000 Unit ID: First Class</t>
+  </si>
+  <si>
+    <t>Hey give me my Invoice , ENTITY_ID is : GFL10 bi code = Whitecourt also my vendor id is 115ALB02 USERNAME is jflint Thank you</t>
+  </si>
+  <si>
+    <t>hello ; get me my Invoice. my VENDOR_ID is 102SAS03 and USERNAME =  csperling ; my BICODE is : Saskatoon ,</t>
+  </si>
+  <si>
+    <t>get me my Invoice ; Inv_Num is 2097682 and my entity name is GP108 my code is : Saskatoon and BUID = jsiemens Thank you</t>
+  </si>
+  <si>
+    <t>Hey , I privation to get my Invoice status My data is: my BICODE is : Saskatoon , dates = 2021-02-04 05:00:00.0000000 , Vendor_Id is102SAS03 Thank you</t>
+  </si>
+  <si>
+    <t>Hey invoice status . my entity name is GP108 my BICODE is : Saskatoon VENDORID is102SAS03 num of my inv is2097151 , the time when my invoice was created is: 2021-01-25 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up ; what is my invoice status information. Inv_Num is 2096410 , i have the follwoing Vendor ID: 102SAS03 business code is something like this: Saskatoon enity id = GP108 Thank you</t>
+  </si>
+  <si>
+    <t>hello invoice status My data is: dates = 2021-01-07 05:00:00.0000000 USERNAME: csperling code is: Saskatoon enity name: GP108 ; Thank you</t>
+  </si>
+  <si>
+    <t>hello give me invoice information. Date when invoice was created: 2020-12-15 05:00:00.0000000 BI CODE is - Saskatoon ven id = 102SAS03 USERNAME =  jsiemens also enity name: GP108</t>
+  </si>
+  <si>
+    <t>hello get me my Invoice My details are - my BICODE is : Saskatoon , entity name -  GP108 created by jsiemens and dates = 2020-10-14 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up I privation status of my invoice Details: bi code = Saskatoon USERNAME is lstriemer , dates - 2020-11-04 05:00:00.0000000 i have the follwoing Invoice Number: 2095838 the name of an enity is GP108</t>
+  </si>
+  <si>
+    <t>hello , code is: Edmonton SW my vend id 115ALB01 and the time when my invoice was created is: 2023-02-27 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up get me my Invoice ; Business Unit ID is Edmonton SW Inv_Num: A12 , dates - 2023-03-03 05:00:00.0000000 the username of the person who created invoice : svc_UiPath Thank you</t>
+  </si>
+  <si>
+    <t>Hey what is my invoice status . Here's my information: the BI_CODE = Saskatoon , ;</t>
+  </si>
+  <si>
+    <t>What's up get me my Invoice , created by kbruce , , ENTITY_ID is : GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello , get me my Invoice. username = csperling INVOICE Num: 2094978 ; Business Unit ID is Saskatoon VENDOR_ID = 102SAS03 , my entity name is GP108 dates = 2020-09-24 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello . get me my Invoice . my BICODE is : Saskatoon also my entity name is GP108 , person who created my invoice: tbreckner inv num: 2092055 Thank you</t>
+  </si>
+  <si>
+    <t>Hey , InvNum = 2093971 ; the BI_CODE = Saskatoon VENDOR_ID = 102SAS03 Date when invoice was created: 2020-08-07 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey invoice status , USERNAME is jsiemens ; date: 2020-08-06 04:00:00.0000000 VENDOR_ID = 102SAS03</t>
+  </si>
+  <si>
+    <t>Hey give me my Invoice. ent id = GFL10 , ven id 102SAS01 number of my invoice 1075 the BI_CODE = Regina , USERNAME: cyunick ; date of the invoice creation is: 2020-10-15 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up I privation to get my Invoice status ; I have the following information. the time when my invoice was created is: 2020-06-25 04:00:00.0000000 , BI CODE is - Saskatoon entity name -  GP108 , username = rpolichuk</t>
+  </si>
+  <si>
+    <t>What's up , what is my invoice status Details: my VENDOR_ID is 102SAS01 person who created my invoice: cyunick , dates is2020-07-16 04:00:00.0000000 , Thank you</t>
+  </si>
+  <si>
+    <t>Hey , invoice status . Details: the BI_CODE = Regina , id of my Vendor = 102SAS01 and dates is2020-08-17 04:00:00.0000000 ; username = cyunick Thank you</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice My details are - i have the follwoing Vendor ID: 102SAS01 also Date when invoice was created: 2020-09-17 04:00:00.0000000 , USERNAME =  cyunick</t>
+  </si>
+  <si>
+    <t>hello My details are - entity name -  GFL10 , vendor id: 102SAS01 Thank you</t>
+  </si>
+  <si>
+    <t>hello . information. VENDORID is102ALB02 , USERNAME =  bjaindl also my business code is ABN enity id = GP108 Thank you</t>
+  </si>
+  <si>
+    <t>hello , give me invoice My details are - my VENDOR_ID is 102SAS01 also my business code is Regina USERNAME is cyunick and , the name of an enity is GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello . give me invoice ; information. USERNAME is twelsh the name of an enity is GFL10 and VENDOR_ID = 095BCL01 Unit ID: Chemainus</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice . Here's my information: USERNAME: twelsh , business code is something like this: Chemainus ent id = GFL10 also Thank you</t>
+  </si>
+  <si>
+    <t>Hey give me my Invoice details. entity name -  GFL10 and also the time when my invoice was created is: 2022-05-06 04:00:00.0000000 VENDOR_ID = 095BCL01 Thank you</t>
+  </si>
+  <si>
+    <t>hello , get me my Invoice. BUID = joyce.berg bi code = Medicine Hat ; Date when invoice was created: 2021-05-03 04:00:00.0000000 and my vend id 112ALB01</t>
+  </si>
+  <si>
+    <t>Hey , what is my invoice status , Here's my information: created by twelsh , my business code is Chemainus the name of an enity is GFL10 invoice was created on: 2022-05-01 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello Details: bi code = Chemainus enity id = GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice Here's my information: BI CODE is - Chemainus ; InvNum = 1645 and I have the following name of invoice enntity: GFL10 date of the invoice creation is: 2022-04-10 04:00:00.0000000 and name = amy.steele</t>
+  </si>
+  <si>
+    <t>hello . get me my Invoice . My data is: id of my Vendor = 095BCL01 ent id = GFL10 also BUID = Chemainus Date when invoice was created: 2022-04-25 04:00:00.0000000 ; number of my invoice is: 1674 ; BUID = twelsh</t>
+  </si>
+  <si>
+    <t>Hey ; give me invoice . details. the name of an enity is GFL10 InvoiceNum: 1661 vendor id - 095BCL01 username = twelsh Thank you</t>
+  </si>
+  <si>
+    <t>hello ; invoice status ; details. code is: Chemainus ; enity id = GFL10 and i have the follwoing Invoice Number: 1675 dates = 2022-04-25 04:00:00.0000000 my vendor id is 095BCL01 username = twelsh</t>
+  </si>
+  <si>
+    <t>Hey give me invoice ; enity id = GFL10 and dates - 2022-04-10 04:00:00.0000000 , my BICODE is : Chemainus ; invoice Number = 1659 and i have the follwoing Vendor ID: 095BCL01</t>
+  </si>
+  <si>
+    <t>Hey give me invoice. my vend id 095BCL01 ; my BICODE is : Chemainus InvNum = 1654 , dates is2022-04-10 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello , get me my Invoice . username = twelsh dates is2022-04-10 04:00:00.0000000 ; invoice Number = 1656 and I have the following name of invoice enntity: GFL10</t>
+  </si>
+  <si>
+    <t>What's up , I privation to get my Invoice status , My details are - INVOICE Num: 1657 ; ENTITY_ID is : GFL10 invoice was created by twelsh also dates - 2022-04-10 04:00:00.0000000 ,</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice information. id of my Vendor = 095BCL01 also ; ENTITY_ID is : GFL10 and username = twelsh</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice , created by twelsh vendor id - 095BCL01 date: 2022-03-31 04:00:00.0000000 , the name of an enity is GFL10 and InvNum = 1653</t>
+  </si>
+  <si>
+    <t>hello , I would like to have the invoice I have the following information. BUID = Medicine Hat ; dates = 2019-12-01 05:00:00.0000000 and num of my inv - 0000000537 ven id 112ALB01</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice . details. enity name: GFL10 BI CODE is - Medicine Hat my VENDOR_ID is 112ALB01 Thank you</t>
+  </si>
+  <si>
+    <t>hello . invoice status information. BUID = jherriman number of my invoice is: 0000000562 also my vendor id is 112ALB01 and BI CODE is - Medicine Hat also dates is2020-01-16 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up ; give me invoice ; My details are - dates is2020-04-07 04:00:00.0000000 the BI_CODE = Medicine Hat , my vend id 112ALB01 number of my invoice is: 0000000621 Thank you</t>
+  </si>
+  <si>
+    <t>What's up . I would like to have the invoice My details are - my VENDOR_ID is 112ALB01 number of my invoice is: 0000000643 also the name of an enity is GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice , information. ent id = GFL10 InvNum = INV-562 , person who created my invoice: nbrown also and ven id = 112ALB01</t>
+  </si>
+  <si>
+    <t>What's up . I would like to have the invoice ; details. ven id = 095BCL01 the BI_CODE = Chemainus ENTITY_ID is : GFL10 , i have the follwoing Invoice Number: 1651 dates is2022-04-10 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello invoice status. ENTITY_ID is : GFL10 username = twelsh and Business Unit ID is Chemainus ; also and Date when invoice was created: 2022-04-14 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello ; I would like to have the invoice ; My details are - my business code is Timmins date of the invoice creation is: 2020-05-20 04:00:00.0000000 ; my vendor id is 109ONT02 ,</t>
+  </si>
+  <si>
+    <t>hello invoice status . details. VENDORID is109ONT01 also date: 2023-03-03 05:00:00.0000000 enity id = GFL10 and my BICODE is : Edmonton SW Thank you</t>
+  </si>
+  <si>
+    <t>invoice status. my vend id 109ONT01 code is: Edmonton SW enity id = GFL10 Inv_Num: TEST005 created by svc_UiPath</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice . code is: Edmonton SW INVOICE Num: TEST006 I have the following name of invoice enntity: GFL10 date: 2023-03-02 05:00:00.0000000 and ,</t>
+  </si>
+  <si>
+    <t>hello ; I privation to get my Invoice status. vendor id: 109ONT01 the BI_CODE = Edmonton SW number of my invoice is: TEST 1B dates - 2023-02-23 05:00:00.0000000 created by svc_UiPath and Thank you</t>
+  </si>
+  <si>
+    <t>What's up invoice status My data is: the name of an enity is GFL10 InvNum = EXTRA11WE3 and USERNAME =  svc_UiPath also my business code is Edmonton SW ; Vendor_Id is109ONT01</t>
+  </si>
+  <si>
+    <t>What's up , what is my invoice status . Details: USERNAME is twelsh also business code is something like this: Chemainus my VENDOR_ID is 095BCL01 and</t>
+  </si>
+  <si>
+    <t>What's up , what is my invoice status Here's my information: BUID = Edmonton SW , VENDORID is109ONT01 and invoice Number = 12&amp; the time when my invoice was created is: 2022-12-03 05:00:00.0000000 ; the name of an enity is GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello ; give me invoice ; I have the following name of invoice enntity: GFL10 number of my invoice D3 ; date of the invoice creation is: 2022-12-02 05:00:00.0000000 business code is something like this: Edmonton SW Thank you</t>
+  </si>
+  <si>
+    <t>What's up give me my Invoice , my inv num is EXTRA11WE2 date: 2023-02-15 05:00:00.0000000 and the BI_CODE = Edmonton SW , username = svc_UiPath also Vendor ID 109ONT01 ENTITY_ID is : GFL10</t>
+  </si>
+  <si>
+    <t>Hey ; I privation status of my invoice ; enity id = GFL10 also created by twelsh , dates = 2022-03-17 04:00:00.0000000 my code is : Henry Eng Sort Yard Thank you</t>
+  </si>
+  <si>
+    <t>what is my invoice status. ven id = 095BCL01 also Inv_Num: 1635 also also entity name -  GFL10</t>
+  </si>
+  <si>
+    <t>My data is: number of my invoice 1643 my entity name is GFL10 ; VENDORID is095BCL01 ;</t>
+  </si>
+  <si>
+    <t>hello . what is my invoice status. date: 2022-03-14 04:00:00.0000000 vendor id: 095BCL01 also ; userNAME - amy.steele I have the following name of invoice enntity: GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello ; I would like to have the invoice ; information. InvoiceNum: 1727 dates = 2021-05-10 04:00:00.0000000 Vendor_Id: 101SAS06 USERNAME is tgore my business code is Saskatoon ;</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice My details are - InvoiceNum: 19-1108 , entity name -  GFL10 and business code is something like this: Hamilton ven id 109ONT01 USERNAME is lspencer Thank you</t>
+  </si>
+  <si>
+    <t>hello give me invoice information. the time when my invoice was created is: 2021-07-13 04:00:00.0000000 vendor id: 101SAS06 ; i have the follwoing Invoice Number: 1833 name = rpolichuk also my BICODE is : Saskatoon</t>
+  </si>
+  <si>
+    <t>hello . invoice status Here's my information: USERNAME: amy.steele enity id = GFL10 dates - 2022-03-10 05:00:00.0000000 id of my Vendor = 095BCL01 number of my invoice = 1631 ;</t>
+  </si>
+  <si>
+    <t>What's up invoice status , username = tgore ; InvoiceNum is 1727 ; also dates - 2021-05-10 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up I would like to have the invoice My details are - Date when invoice was created: 2022-08-17 04:00:00.0000000 ENTITY_ID is : GP108 my VENDOR_ID is 101SAS04 number of my invoice 220731-05 ,</t>
+  </si>
+  <si>
+    <t>hello ; what is my invoice status , BUID = BJ Bear i have the follwoing Invoice Number: 107580 also username = dtaylor enity id = GFL10 invoice was created on: 2021-12-31 05:00:00.0000000 Vendor ID 108CAN01 Thank you</t>
+  </si>
+  <si>
+    <t>hello invoice status , ENTITY_ID is : GP108 BI CODE is - Saskatoon ; Date when invoice was created: 2020-09-22 04:00:00.0000000 and person who created my invoice: szeleny ,</t>
+  </si>
+  <si>
+    <t>Hey , give me invoice ; Here's my information: number of my invoice = 220331-06 date: 2022-03-31 04:00:00.0000000 my business code is Saskatoon VENDOR_ID = 101SAS04 Thank you</t>
+  </si>
+  <si>
+    <t>Hey ; I privation status of my invoice information. ven id 101SAS04 also ; name = zmerilees ent id = GP108 my business code is Saskatoon</t>
+  </si>
+  <si>
+    <t>Hey ; I would like to have the invoice . My data is: business code is something like this: Regina also I have the following name of invoice enntity: GP108 created by tbricsak InvoiceNum is 220630-06</t>
+  </si>
+  <si>
+    <t>What's up invoice status ; Here's my information: my vend id 101SAS04 , also num of my inv - 220430-06 bi code = Saskatoon ,</t>
+  </si>
+  <si>
+    <t>hello . I privation status of my invoice , name = zmerilees , InvoiceNum is 220228-06 BI CODE is - Saskatoon , id of my Vendor = 101SAS04 ENTITY_ID is : GP108 invoice was created on: 2022-02-28 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up ; I privation to get my Invoice status . Here's my information: USERNAME is tbreckner and enity name: GP108 , date of the invoice creation is: 2022-01-31 05:00:00.0000000 my vendor id is 101SAS04</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice . My details are - username = zmerilees ; number of my invoice = 211231-05 my BICODE is : Saskatoon dates is2021-12-31 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello get me my Invoice . Here's my information: i have the follwoing Invoice Number: 211130-05 ENTITY_ID is : GP108 ; , BUID = jharms and my VENDOR_ID is 101SAS04</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice ; My details are - the username of the person who created invoice : jharms also enity name: GP108 InvoiceNum: 210831-01 date: 2021-08-31 04:00:00.0000000 id of my Vendor = 101SAS04 Thank you</t>
+  </si>
+  <si>
+    <t>Hey I would like to have the invoice information. username = bjaindl invoice Number = 210930-05 bi code = Saskatoon</t>
+  </si>
+  <si>
+    <t>Hey , details. dates = 2021-07-31 04:00:00.0000000 i have the follwoing Invoice Number: 210731-05 VENDORID is101SAS04 ; the username of the person who created invoice : jharms and I have the following name of invoice enntity: GP108 Thank you</t>
+  </si>
+  <si>
+    <t>Hey what is my invoice status Here's my information: date of the invoice creation is: 2021-10-31 04:00:00.0000000 BUID = Saskatoon , invoice was created by jharms also inv num: 211031-05 Thank you</t>
+  </si>
+  <si>
+    <t>What's up ; I privation to get my Invoice status ; id of my Vendor = 101SAS04 also ; inv num: 210630-05 enity id = GP108 Thank you</t>
+  </si>
+  <si>
+    <t>hello ; get me my Invoice My data is: date: 2021-05-31 04:00:00.0000000 my vendor id is 101SAS04 ; ent id = GP108 Unit ID: Saskatoon num of my inv - 210531-05</t>
+  </si>
+  <si>
+    <t>hello . I privation to get my Invoice status , Here's my information: USERNAME is tbreckner also dates - 2021-04-30 04:00:00.0000000 the BI_CODE = Saskatoon InvoiceNum = 210430-05</t>
+  </si>
+  <si>
+    <t>hello Details: my entity name is GP108 the BI_CODE = Saskatoon name = tbreckner invoice was created on: 2021-04-30 04:00:00.0000000 , and my vend id 101SAS04</t>
+  </si>
+  <si>
+    <t>hello get me my Invoice My data is: I have the following name of invoice enntity: GP108 created by tbreckner , date of the invoice creation is: 2021-03-31 04:00:00.0000000 my BICODE is : Saskatoon also number of my invoice 210331-05</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice ; vendor id: 101SAS04 USERNAME: tbreckner also I have the following name of invoice enntity: GP108 and number of my invoice 20210228-05 , also</t>
+  </si>
+  <si>
+    <t>hello , details. InvoiceNum = 210331-05 ; entity name -  GP108 ; and the BI_CODE = Saskatoon</t>
+  </si>
+  <si>
+    <t>What's up , My data is: USERNAME is tbreckner dates is2021-02-28 05:00:00.0000000 ; business code is something like this: Saskatoon Thank you</t>
+  </si>
+  <si>
+    <t>What's up ; I privation status of my invoice , ent id = GP108 , bi code = Saskatoon , username = tbreckner and date: 2020-12-31 05:00:00.0000000 and ven id = 101SAS04</t>
+  </si>
+  <si>
+    <t>hello , I privation status of my invoice . I have the following information. ven id = 101SAS04 , invoice was created by tbreckner , the name of an enity is GP108 and my code is : Saskatoon Date when invoice was created: 2021-01-31 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hey . Details: vendor id: 101SAS04 BI CODE is - Saskatoon , USERNAME =  tbreckner date of the invoice creation is: 2020-11-30 05:00:00.0000000 , Inv_Num is 201130-04 Thank you</t>
+  </si>
+  <si>
+    <t>hello , invoice status . My details are - Date when invoice was created: 2020-05-01 04:00:00.0000000 Vendor_Id is101SAS04 business code is something like this: Saskatoon also created by tbreckner my entity name is GP108 Inv_Num is 200531-04</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice , id of my Vendor = 101SAS04 and invoice was created by jharms I have the following name of invoice enntity: GP108 ; date: 2020-10-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up . Here's my information: the time when my invoice was created is: 2020-08-31 04:00:00.0000000 and USERNAME: tbreckner VENDOR_ID = 101SAS04 Business Unit ID is Saskatoon I have the following name of invoice enntity: GP108 and number of my invoice is: 200831-04</t>
+  </si>
+  <si>
+    <t>Hey , I privation status of my invoice . Here's my information: Inv_Num is 06-05 and userNAME - jharms ven id 101SAS04 also enity id = GP108 Thank you</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice I have the following information. person who created my invoice: tbreckner dates is2020-07-31 04:00:00.0000000 Inv_Num: 20-0704 and enity name: GP108 Thank you</t>
+  </si>
+  <si>
+    <t>hello what is my invoice status , My details are - I have the following name of invoice enntity: GFL10 code is: BJ Bear ; , my vend id 108CAN01 , username = shenrich</t>
+  </si>
+  <si>
+    <t>hello invoice status , inv num: 210120 ENTITY_ID is : GFL10 ; , the time when my invoice was created is: 2020-12-20 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up what is my invoice status My data is: dates - 2020-06-01 04:00:00.0000000 ; person who created my invoice: cyunick the BI_CODE = Estevan and INVOICE Num: 200601 ent id = GFL10</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice , details. BI CODE is - Vancouver Fleet ; person who created my invoice: spiscitelli , InvoiceNum = 67949 and</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status . details. business code is something like this: TLRegional Vendor_Id is100CAN01 and and name = bhennig date of the invoice creation is: 2022-10-03 04:00:00.0000000 number of my invoice is: 19977374 100322 Thank you</t>
+  </si>
+  <si>
+    <t>hello , I privation status of my invoice , Here's my information: invoice was created by spiscitelli the time when my invoice was created is: 2020-10-20 04:00:00.0000000 also and Thank you</t>
+  </si>
+  <si>
+    <t>I privation to get my Invoice status ; I have the following information. ent id = GP806 and my BICODE is : Vancouver Fleet and and Vendor_Id: 100CAN02 and Inv_Num: 67916 Thank you</t>
+  </si>
+  <si>
+    <t>What's up . give me invoice My details are - invoice Number = 103314 the time when my invoice was created is: 2020-05-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey , I privation to get my Invoice status . My data is: InvoiceNum: 102957 ; Vendor_Id: 108CAN01 ; ENTITY_ID is : GFL10 and USERNAME =  shenrich Thank you</t>
+  </si>
+  <si>
+    <t>hello invoice status My details are - invoice Number = 103209 Date when invoice was created: 2020-05-15 04:00:00.0000000 also enity id = GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>What's up ; what is my invoice status . Details: my BICODE is : BJ Bear also Vendor_Id: 108CAN01 dates is2020-03-31 04:00:00.0000000 invoice was created by shenrich ENTITY_ID is : GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello ; Details: vendor id - 108CAN01 , ; USERNAME =  shenrich dates - 2020-04-30 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello what is my invoice status. i have the follwoing Vendor ID: 100CAN01 also Business Unit ID is TLRegional Inv_Num: 19977374090522 ; I have the following name of invoice enntity: GFL10 , username = bhennig</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice My details are - i have the follwoing Vendor ID: 100CAN01 Business Unit ID is TLRegional BUID = bhennig my entity name is GFL10 also date of the invoice creation is: 2022-08-08 04:00:00.0000000 also number of my invoice 19977374 080822 Thank you</t>
+  </si>
+  <si>
+    <t>Hey ; get me my Invoice Details: ent id = GFL10 my VENDOR_ID is 108CAN01 also USERNAME: rwilk also my code is : BJ Bear</t>
+  </si>
+  <si>
+    <t>What's up I privation to get my Invoice status My details are - the username of the person who created invoice : ethomson , ENTITY_ID is : GFL10 Vendor ID 100CAN01 also BUID = TLRegional Thank you</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status information. inv num: 19977374113020 I have the following name of invoice enntity: GFL10 and invoice was created by ethomson Vendor_Id is100CAN01 Date when invoice was created: 2020-11-30 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up give me invoice . information. Unit ID: TLRegional my entity name is GFL10 ; VENDORID is100CAN01 Date when invoice was created: 2020-12-28 05:00:00.0000000 , name = ethomson</t>
+  </si>
+  <si>
+    <t>hello invoice status . My data is: the username of the person who created invoice : ethomson date: 2019-12-30 05:00:00.0000000 bi code = TLRegional</t>
+  </si>
+  <si>
+    <t>Hey ; I privation to get my Invoice status. invoice was created on: 2021-01-25 05:00:00.0000000 my entity name is GFL10 ; Thank you</t>
+  </si>
+  <si>
+    <t>Hey give me invoice . My data is: my BICODE is : Ground Force id of my Vendor = 107ONT01 dates - 2020-12-30 05:00:00.0000000 USERNAME =  mfarkouh enity id = GFL10</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status My details are - VENDOR_ID = 100CAN01 and number of my invoice is: 19977374110220 also dates = 2020-11-02 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up give me my Invoice , My details are - enity name: GFL10 dates is2020-10-05 04:00:00.0000000 name = ethomson my BICODE is : TLRegional and Vendor_Id: 100CAN01 Thank you</t>
+  </si>
+  <si>
+    <t>Hey give me my Invoice , My data is: InvoiceNum: 19977374081020 also the username of the person who created invoice : ethomson also id of my Vendor : 100CAN01 I have the following name of invoice enntity: GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>What's up . get me my Invoice Details: Vendor_Id is100CAN01 enity id = GFL10 created by ethomson Inv_Num: 19977374071320</t>
+  </si>
+  <si>
+    <t>Hey invoice status ; information. person who created my invoice: ethomson number of my invoice is: 19977374051820 my VENDOR_ID is 100CAN01 Date when invoice was created: 2020-05-18 04:00:00.0000000 enity name: GFL10 bi code = TLRegional</t>
+  </si>
+  <si>
+    <t>hello invoice status information. my VENDOR_ID is 100CAN01 enity id = GP108 and the BI_CODE = ABN and date: 2020-08-11 04:00:00.0000000 ; num of my inv is19977915 081120 Thank you</t>
+  </si>
+  <si>
+    <t>What's up I would like to have the invoice , the time when my invoice was created is: 2020-06-15 04:00:00.0000000 and the BI_CODE = TLRegional entity name -  GFL10 , Inv_Num: 19977374061520 , my VENDOR_ID is 100CAN01 person who created my invoice: ethomson Thank you</t>
+  </si>
+  <si>
+    <t>hello , Here's my information: invoice was created on: 2020-07-14 04:00:00.0000000 also also my code is : ABN and my entity name is GP108 also Thank you</t>
+  </si>
+  <si>
+    <t>hello , get me my Invoice , details. dates is2020-09-07 04:00:00.0000000 number of my invoice 19977374 090720 also , I have the following name of invoice enntity: GFL10</t>
+  </si>
+  <si>
+    <t>hello , give me my Invoice ; Here's my information: the time when my invoice was created is: 2020-11-23 05:00:00.0000000 and Unit ID: Ground Force BUID = tmian number of my invoice = W03044 Thank you</t>
+  </si>
+  <si>
+    <t>What's up give me my Invoice . id of my Vendor : 100CAN01 ; BUID = Jamie.Johnson</t>
+  </si>
+  <si>
+    <t>Hey I would like to have the invoice My data is: entity name -  GP108 invoice was created on: 2020-04-21 04:00:00.0000000 , the username of the person who created invoice : Jamie.Johnson , my VENDOR_ID is 100CAN01 Thank you</t>
+  </si>
+  <si>
+    <t>I privation to get my Invoice status , dates - 2020-03-24 04:00:00.0000000 BUID = Jamie.Johnson also VENDOR_ID = 100CAN01 and my code is : ABN , my entity name is GP108 Thank you</t>
+  </si>
+  <si>
+    <t>hello . invoice status Details: VENDORID is100CAN01 my business code is ABN and and Inv_Num is 19977915 022520</t>
+  </si>
+  <si>
+    <t>hello , I privation to get my Invoice status ; Details: my code is : ABN also dates is2019-12-31 05:00:00.0000000 num of my inv is19977915 123119 ;</t>
+  </si>
+  <si>
+    <t>hello ; I privation to get my Invoice status Here's my information: username = Jamie.Johnson dates = 2019-12-29 05:00:00.0000000 my vend id 100CAN01 bi code = ABN</t>
+  </si>
+  <si>
+    <t>give me my Invoice My details are - ENTITY_ID is : GP108 id of my Vendor : 100CAN01 inv num: 19974690 061420 invoice was created on: 2020-06-14 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello . information. Vendor_Id is100CAN01 entity name -  GP108 InvoiceNum: 19977915 012820 dates - 2020-01-28 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello give me my Invoice Here's my information: username = Jamie.Johnson ; my vend id 100CAN01 also and business code is something like this: ABN date of the invoice creation is: 2020-07-12 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up Here's my information: invoice was created by Jamie.Johnson InvNum = 19974690 041920 my entity name is GP108 and</t>
+  </si>
+  <si>
+    <t>hello , give me invoice. my vendor id is 100CAN01 and ; Date when invoice was created: 2020-02-23 05:00:00.0000000 Business Unit ID is ABN ; ent id = GP108</t>
+  </si>
+  <si>
+    <t>hello give me my Invoice I have the following information. my VENDOR_ID is 100CAN01 BUID = Jamie.Johnson and InvNum = 19974690 032220 , invoice was created on: 2020-03-22 04:00:00.0000000 enity name: GP108 and my code is : ABN</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice . My details are - dates = 2020-05-17 04:00:00.0000000 my vendor id is 100CAN01 , invoice was created by Jamie.Johnson and my BICODE is : ABN , ENTITY_ID is : GP108 num of my inv is19974690 051720 Thank you</t>
+  </si>
+  <si>
+    <t>What's up I would like to have the invoice , information. Date when invoice was created: 2020-05-19 04:00:00.0000000 , and USERNAME =  cvorra and enity id = GP108 InvoiceNum: 19977915 051920 Thank you</t>
+  </si>
+  <si>
+    <t>hello give me my Invoice ; My data is: ent id = GFL10 Vendor_Id: 100BCL01 dates - 2023-02-23 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello invoice status information. Date when invoice was created: 2020-01-26 05:00:00.0000000 ; BUID = Jamie.Johnson ENTITY_ID is : GP108 Thank you</t>
+  </si>
+  <si>
+    <t>hello ; I privation to get my Invoice status My details are - the BI_CODE = ABN VENDOR_ID = 100CAN01 enity id = GP108 InvoiceNum is 19977915 051920 and USERNAME =  joan.marshall and dates - 2020-05-19 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hey I would like to have the invoice , dates is2022-05-09 04:00:00.0000000 the username of the person who created invoice : amy.steele , ent id = GFL10 the BI_CODE = Chemainus i have the follwoing Invoice Number: 2026 Thank you</t>
+  </si>
+  <si>
+    <t>hello . I would like to have the invoice ; My details are - date: 2020-09-06 04:00:00.0000000 also inv num: R04106 entity name -  GFL10 also my business code is Ground Force USERNAME =  tmian</t>
+  </si>
+  <si>
+    <t>Hey . give me my Invoice ; information. ENTITY_ID is : GFL10 also invoice was created by amy.steele id of my Vendor = 100BCL01 also Date when invoice was created: 2022-07-05 04:00:00.0000000 code is: Chemainus , number of my invoice 2073 Thank you</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice , enity name: GP108 code is: VTF Date when invoice was created: 2022-04-24 04:00:00.0000000 also name = sdavies Thank you</t>
+  </si>
+  <si>
+    <t>hello give me invoice. I have the following name of invoice enntity: GFL10 USERNAME is bstauffer Business Unit ID is Victoria Coast and inv num: 1959 dates - 2022-02-06 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up give me invoice details. VENDORID is100BCL01 , invoice was created on: 2022-04-24 04:00:00.0000000 BUID = sdavies ; my business code is Nanaimo my entity name is GP108</t>
+  </si>
+  <si>
+    <t>hello give me my Invoice , My details are - BUID = Chemainus dates = 2022-03-28 04:00:00.0000000 userNAME - bstauffer VENDOR_ID = 100BCL01 , and InvoiceNum = 1981</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status Here's my information: Date when invoice was created: 2022-01-15 05:00:00.0000000 , i have the follwoing Invoice Number: 1930 my code is : SPL , ; Vendor_Id is100BCL01</t>
+  </si>
+  <si>
+    <t>What's up I would like to have the invoice information. I have the following name of invoice enntity: GFL10 and bi code = Victoria Coast , dates is2021-10-31 04:00:00.0000000 ; Thank you</t>
+  </si>
+  <si>
+    <t>What's up ; I privation status of my invoice Here's my information: vendor id - 100BCL01 also date of the invoice creation is: 2021-12-08 05:00:00.0000000 also the BI_CODE = Victoria Coast number of my invoice is: 1906 , my entity name is GFL10</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice. Unit ID: Victoria Coast BUID = bstauffer and i have the follwoing Invoice Number: 1815 ent id = GFL10 and invoice was created on: 2021-08-16 04:00:00.0000000 , my vend id 100BCL01</t>
+  </si>
+  <si>
+    <t>What's up get me my Invoice . Here's my information: bi code = Victoria Coast also Inv_Num: 1864 dates = 2021-10-20 04:00:00.0000000 ; enity name: GFL10 userNAME - bstauffer</t>
+  </si>
+  <si>
+    <t>Hey what is my invoice status . Here's my information: Unit ID: Victoria Coast date of the invoice creation is: 2021-03-29 04:00:00.0000000 USERNAME is bstauffer my entity name is GFL10 ven id 100BCL01 ; num of my inv is1693 Thank you</t>
+  </si>
+  <si>
+    <t>What's up . I privation to get my Invoice status information. BUID = Victoria Coast , USERNAME: bstauffer dates = 2021-07-29 04:00:00.0000000 ven id 100BCL01</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status ; Details: id of my Vendor = 100BCL01 ; business code is something like this: Victoria Coast , number of my invoice = 1748 username = bstauffer , dates = 2021-05-27 04:00:00.0000000 and Thank you</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice . My data is: BUID = Victoria Coast also also enity id = GFL10 the time when my invoice was created is: 2021-04-25 04:00:00.0000000 USERNAME is bstauffer also VENDOR_ID = 100BCL01</t>
+  </si>
+  <si>
+    <t>What's up I privation status of my invoice I have the following information. bi code = Cranbrook Hauling TS LF inv num: 9741 vendor id: 096BCX01 also entity name -  GFL10 ; dates - 2021-08-31 04:00:00.0000000 USERNAME =  etanner Thank you</t>
+  </si>
+  <si>
+    <t>Hey . give me my Invoice , Here's my information: InvoiceNum: 1505 I have the following name of invoice enntity: GFL10 Date when invoice was created: 2020-07-25 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello get me my Invoice. ENTITY_ID is : GFL10 INVOICE Num: 9856 and also id of my Vendor = 096BCX01 dates is2021-09-29 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hey ; what is my invoice status information. num of my inv is10183 USERNAME =  etanner ; VENDOR_ID = 096BCX01 enity name: GFL10 bi code = Cranbrook Hauling TS LF Thank you</t>
+  </si>
+  <si>
+    <t>information. enity id = GP108 also my business code is Levis InvoiceNum = ACCRUALS AVRILMAI-JU also person who created my invoice: julie.girard ; VENDOR_ID = 096BCX01</t>
+  </si>
+  <si>
+    <t>hello give me invoice. Vendor_Id is096BCX01 ; the time when my invoice was created is: 2021-06-30 04:00:00.0000000 and Unit ID: Cranbrook Hauling TS LF ; InvoiceNum is 9509 invoice was created by etanner</t>
+  </si>
+  <si>
+    <t>hello ; give me my Invoice ; Details: Vendor ID 096BCX01 InvoiceNum: 10399 , BI CODE is - Cranbrook Hauling TS LF and my entity name is GFL10</t>
+  </si>
+  <si>
+    <t>What's up . give me my Invoice . information. enity name: GFL10 VENDOR_ID = 107ONT01 invoice was created on: 2020-05-29 04:00:00.0000000 ; the BI_CODE = Ground Force Thank you</t>
+  </si>
+  <si>
+    <t>Hey . give me invoice . I have the following information. the name of an enity is GFL10 and Business Unit ID is Ground Force VENDORID is107ONT01 name = jberisha and date: 2020-05-29 04:00:00.0000000 InvNum = R03922</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice I have the following information. VENDOR_ID = 107ONT01 , the username of the person who created invoice : jasinas date of the invoice creation is: 2020-05-25 04:00:00.0000000 , ENTITY_ID is : GP804 Inv_Num: AR14304 Thank you</t>
+  </si>
+  <si>
+    <t>Hey get me my Invoice Details: num of my inv - 0 and code is: Accuworx ; VENDORID is107ONT01 the username of the person who created invoice : jasinas enity id = GP804 and dates - 2020-05-28 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey ; get me my Invoice My details are - my VENDOR_ID is 107ONT01 enity name: GFL10 also my business code is Ground Force and USERNAME =  jberisha i have the follwoing Invoice Number: R03914 also Date when invoice was created: 2020-05-29 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status . details. my inv num is R03889 , code is: Ground Force also the username of the person who created invoice : jberisha , enity name: GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>Hey I would like to have the invoice , details. business code is something like this: Ground Force , Date when invoice was created: 2020-04-24 04:00:00.0000000 InvoiceNum is R03890 userNAME - jberisha Thank you</t>
+  </si>
+  <si>
+    <t>Hey , I privation to get my Invoice status. InvoiceNum: R03901 BI CODE is - Ground Force and USERNAME is jberisha also VENDOR_ID = 107ONT01</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status . My details are - vendor id - 107ONT01 ; entity name -  GFL10 date: 2020-04-24 04:00:00.0000000 BI CODE is - Ground Force also InvoiceNum = R03891</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice details. USERNAME: jberisha ; , Vendor_Id: 107ONT01 ;</t>
+  </si>
+  <si>
+    <t>hello , invoice status details. my code is : Ground Force , Date when invoice was created: 2020-04-14 04:00:00.0000000 my vendor id is 107ONT01 and Thank you</t>
+  </si>
+  <si>
+    <t>give me invoice Details: Date when invoice was created: 2020-01-16 05:00:00.0000000 number of my invoice is: 14095061 and Business Unit ID is Windsor Disposal</t>
+  </si>
+  <si>
+    <t>hello , Details: dates is2020-03-25 04:00:00.0000000 and id of my Vendor : 107ONT01 also i have the follwoing Invoice Number: R03852 also person who created my invoice: jberisha and my entity name is GFL10</t>
+  </si>
+  <si>
+    <t>What's up give me invoice , Details: Date when invoice was created: 2021-03-31 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello give me my Invoice Details: BUID = Cranbrook Hauling TS LF Vendor_Id is096BCX01 also date of the invoice creation is: 2021-05-31 04:00:00.0000000 , name = etanner my entity name is GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello give me invoice My data is: i have the follwoing Vendor ID: 096BCX01 also number of my invoice is: 8381 ENTITY_ID is : GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status , My data is: num of my inv is9259 code is: Cranbrook Hauling TS LF and my VENDOR_ID is 096BCX01</t>
+  </si>
+  <si>
+    <t>What's up . invoice status My data is: dates = 2020-12-28 05:00:00.0000000 userNAME - etanner also number of my invoice is: 8354 bi code = Cranbrook Hauling TS LF enity id = GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>I privation status of my invoice ; information. USERNAME: etanner ; BUID = Cranbrook Hauling TS LF ENTITY_ID is : GFL10 VENDOR_ID = 096BCX01 InvoiceNum is 8976</t>
+  </si>
+  <si>
+    <t>get me my Invoice Here's my information: ven id = 096BCX01 also BUID = etanner ; , Thank you</t>
+  </si>
+  <si>
+    <t>hello ; I privation to get my Invoice status information. ENTITY_ID is : GFL10 INVOICE Num: 7609 my BICODE is : Cranbrook Hauling TS LF ; USERNAME =  etanner</t>
+  </si>
+  <si>
+    <t>What's up get me my Invoice . details. BUID = Cranbrook Hauling TS LF date of the invoice creation is: 2020-06-30 04:00:00.0000000 VENDOR_ID = 096BCX01 ; InvNum = 7486 enity id = GFL10</t>
+  </si>
+  <si>
+    <t>Hey ; give me my Invoice. Date when invoice was created: 2020-05-01 04:00:00.0000000 ; Vendor_Id: 107BCX01 ; bi code = First Class ; ENTITY_ID is : GFL10 ; USERNAME =  cdickinson</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status ; Details: my vendor id is 096BCX01 also my inv num is 7502 ENTITY_ID is : GFL10 and USERNAME is etanner BUID = Cranbrook Hauling TS LF Thank you</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice details. vendor id: 107BCX01 num of my inv is4 created by cdickinson and business code is something like this: Vancouver Hauling , ENTITY_ID is : GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>What's up I would like to have the invoice ; information. the username of the person who created invoice : twelsh i have the follwoing Invoice Number: 1743 Unit ID: Chemainus , Date when invoice was created: 2022-06-29 04:00:00.0000000 ven id 095BCL01 Thank you</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice . I have the following information. my entity name is GFL10 number of my invoice is: 1757 also Vendor_Id: 095BCL01 ; date of the invoice creation is: 2022-06-30 04:00:00.0000000 ;</t>
+  </si>
+  <si>
+    <t>Hey give me my Invoice ; information. Unit ID: Chemainus ; USERNAME is twelsh and ven id 095BCL01 enity name: GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice. ent id = GFL10 number of my invoice is: 1795 USERNAME: twelsh and Thank you</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice ; Details: VENDOR_ID = 102SAS03 InvoiceNum: EXTRAWE5 dates - 2023-02-15 05:00:00.0000000 and userNAME - svc_UiPath also I have the following name of invoice enntity: GFL10</t>
+  </si>
+  <si>
+    <t>Hey , I would like to have the invoice . My data is: code is: Chemainus , ENTITY_ID is : GFL10 , date: 2022-07-15 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello . give me my Invoice Here's my information: USERNAME is twelsh , num of my inv - 1793 Thank you</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice Details: BI CODE is - Chemainus also username = twelsh and my entity name is GFL10 vendor id: 095BCL01 ; number of my invoice is: 1791 Thank you</t>
+  </si>
+  <si>
+    <t>Hey I privation to get my Invoice status My details are - dates is2023-02-15 05:00:00.0000000 Inv_Num is EXTRAWE3 ; entity name -  GFL10</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status ; My data is: my BICODE is : Edmonton SW and Vendor ID 102SAS03 also enity name: GFL10</t>
+  </si>
+  <si>
+    <t>hello . get me my Invoice. number of my invoice SATD BI CODE is - Edmonton SW the username of the person who created invoice : svc_UiPath , invoice was created on: 2023-02-04 05:00:00.0000000 also ENTITY_ID is : GFL10 id of my Vendor = 102SAS03</t>
+  </si>
+  <si>
+    <t>hello give me my Invoice Details: Inv_Num is SAT34 , code is: Edmonton SW ; and Date when invoice was created: 2023-02-04 05:00:00.0000000 VENDORID is102SAS03</t>
+  </si>
+  <si>
+    <t>hello . give me invoice ; My details are - date: 2022-11-30 05:00:00.0000000 , userNAME - svc_UiPath InvoiceNum = RG4 my entity name is GFL10</t>
+  </si>
+  <si>
+    <t>hello , get me my Invoice Here's my information: dates = 2022-08-12 04:00:00.0000000 name = twelsh also Inv_Num is 1790 , Business Unit ID is Chemainus enity name: GFL10</t>
+  </si>
+  <si>
+    <t>give me my Invoice. USERNAME: svc_UiPath BUID = Edmonton SW VENDORID is102SAS03</t>
+  </si>
+  <si>
+    <t>hello ; give me my Invoice Details: VENDORID is102SAS03 , BI CODE is - Edmonton SW</t>
+  </si>
+  <si>
+    <t>Hey , what is my invoice status . information. entity name -  GFL10 USERNAME =  twelsh InvNum = 1786 ven id = 095BCL01 Thank you</t>
+  </si>
+  <si>
+    <t>hello give me my Invoice , Unit ID: Chemainus and my vend id 095BCL01 userNAME - twelsh ;</t>
+  </si>
+  <si>
+    <t>What's up what is my invoice status ; ent id = GFL10 and bi code = Chemainus ; id of my Vendor = 095BCL01</t>
+  </si>
+  <si>
+    <t>give me my Invoice . My data is: USERNAME =  twelsh and number of my invoice 1789 ,</t>
+  </si>
+  <si>
+    <t>hello . give me invoice . information. BI CODE is - Chemainus also number of my invoice = 1783 also entity name -  GFL10 the username of the person who created invoice : twelsh</t>
+  </si>
+  <si>
+    <t>get me my Invoice , USERNAME is twelsh ; my entity name is GFL10 dates is2022-08-12 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey . what is my invoice status , My details are - ent id = GFL10 dates = 2022-08-12 04:00:00.0000000 also</t>
+  </si>
+  <si>
+    <t>invoice status ; Details: dates - 2022-08-12 04:00:00.0000000 and my entity name is GFL10 code is: Chemainus the username of the person who created invoice : twelsh i have the follwoing Invoice Number: 1782 Vendor ID 095BCL01</t>
+  </si>
+  <si>
+    <t>hello ; I would like to have the invoice , my inv num is 1778 date of the invoice creation is: 2022-08-12 04:00:00.0000000 id of my Vendor : 095BCL01 entity name -  GFL10 BI CODE is - Chemainus also</t>
+  </si>
+  <si>
+    <t>hello ; Here's my information: Inv_Num: 1777 USERNAME: twelsh BUID = Chemainus ENTITY_ID is : GFL10 ; dates = 2022-07-15 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up give me my Invoice , Details: bi code = Chemainus inv num: 1779 ven id = 095BCL01 also dates = 2022-07-15 04:00:00.0000000 , BUID = twelsh Thank you</t>
+  </si>
+  <si>
+    <t>What's up give me invoice . I have the following information. number of my invoice is: 1781 and ; Thank you</t>
+  </si>
+  <si>
+    <t>hello ; I would like to have the invoice My data is: Vendor ID 095BCL01 and i have the follwoing Invoice Number: 1767 also code is: Chemainus the name of an enity is GFL10 also USERNAME is twelsh</t>
+  </si>
+  <si>
+    <t>hello give me invoice details. enity name: GFL10 Inv_Num: 1776 , USERNAME is twelsh and Thank you</t>
+  </si>
+  <si>
+    <t>hello , what is my invoice status. date: 2022-07-31 04:00:00.0000000 my vendor id is 095BCL01 also number of my invoice is: 1766 the name of an enity is GFL10 and USERNAME =  twelsh</t>
+  </si>
+  <si>
+    <t>hello give me my Invoice Here's my information: Vendor_Id is095BCL01 , dates is2022-07-31 04:00:00.0000000 , username = twelsh INVOICE Num: 1765 Thank you</t>
+  </si>
+  <si>
+    <t>What's up . invoice status , Here's my information: number of my invoice = 2101302 my BICODE is : Saskatoon USERNAME =  csperling Date when invoice was created: 2021-08-25 04:00:00.0000000 ;</t>
+  </si>
+  <si>
+    <t>What's up ; what is my invoice status Here's my information: Vendor_Id is095BCL01 Unit ID: Chemainus</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice Here's my information: number of my invoice 1754 , my entity name is GFL10 also ven id 095BCL01 BI CODE is - Chemainus date of the invoice creation is: 2022-07-04 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>get me my Invoice , My data is: created by twelsh ent id = GFL10 , dates = 2022-07-15 04:00:00.0000000 , id of my Vendor = 095BCL01</t>
+  </si>
+  <si>
+    <t>Hey ; give me invoice , I have the following information. i have the follwoing Invoice Number: 1750 ven id 095BCL01 , my business code is Chemainus and I have the following name of invoice enntity: GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello what is my invoice status . information. dates - 2022-07-04 04:00:00.0000000 invoice Number = 1751 also userNAME - twelsh , BUID = Chemainus</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice details. vendor id: 095BCL01 the name of an enity is GFL10 ; Inv_Num: 1749</t>
+  </si>
+  <si>
+    <t>hello , invoice status . My details are - my business code is Chemainus dates = 2022-07-04 04:00:00.0000000 num of my inv - 1752 my VENDOR_ID is 095BCL01 also also Thank you</t>
+  </si>
+  <si>
+    <t>Hey give me invoice ; Here's my information: entity name -  GFL10 , my vendor id is 095BCL01 person who created my invoice: twelsh date of the invoice creation is: 2022-07-04 04:00:00.0000000 my inv num is 1748</t>
+  </si>
+  <si>
+    <t>hello , I privation status of my invoice ; My data is: vendor id: 095BCL01 , person who created my invoice: twelsh Thank you</t>
+  </si>
+  <si>
+    <t>hello ; give me my Invoice , details. invoice Number = 1747 ; code is: Chemainus , USERNAME =  twelsh</t>
+  </si>
+  <si>
+    <t>hello . I privation to get my Invoice status , My details are - the time when my invoice was created is: 2022-07-04 04:00:00.0000000 VENDORID is095BCL01 and InvoiceNum is 1746 BUID = Chemainus and ENTITY_ID is : GFL10</t>
+  </si>
+  <si>
+    <t>Hey I privation to get my Invoice status . I have the following information. USERNAME is twelsh also BI CODE is - Chemainus the name of an enity is GFL10 dates - 2022-05-16 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status information. name = twelsh , number of my invoice is: 1707 , the time when my invoice was created is: 2022-05-23 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hey ; entity name -  GFL10 Business Unit ID is Chemainus also created by twelsh also date of the invoice creation is: 2022-06-29 04:00:00.0000000 ; id of my Vendor : 095BCL01 InvNum = 1744 Thank you</t>
+  </si>
+  <si>
+    <t>hello . I privation to get my Invoice status . details. enity name: GFL10 person who created my invoice: twelsh BI CODE is - Chemainus Thank you</t>
+  </si>
+  <si>
+    <t>hello ; give me my Invoice , I have the following information. USERNAME: twelsh Inv_Num is 1717 ven id 095BCL01 bi code = Chemainus ; ENTITY_ID is : GFL10 , invoice was created on: 2022-06-03 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello , I privation status of my invoice. date of the invoice creation is: 2022-06-03 04:00:00.0000000 ent id = GFL10 business code is something like this: Chemainus number of my invoice 1716 USERNAME =  twelsh Thank you</t>
+  </si>
+  <si>
+    <t>hello give me my Invoice , I have the following information. ven id = 095BCL01 I have the following name of invoice enntity: GFL10 , created by twelsh also inv num: 1719 , Date when invoice was created: 2022-05-16 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello ; I privation status of my invoice ; Details: ent id = GFL10 and Thank you</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice . person who created my invoice: twelsh ; Inv_Num: 1711 enity id = GFL10 Vendor ID 095BCL01 and</t>
+  </si>
+  <si>
+    <t>hello ; I privation to get my Invoice status I have the following information. name = twelsh also my VENDOR_ID is 095BCL01 , number of my invoice is: 1715 also ent id = GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello give me invoice. invoice was created on: 2022-05-06 04:00:00.0000000 also i have the follwoing Invoice Number: 1712 also business code is something like this: Chemainus also I have the following name of invoice enntity: GFL10 and my VENDOR_ID is 095BCL01</t>
+  </si>
+  <si>
+    <t>hello My details are - the name of an enity is GFL10 also InvoiceNum = 1713 USERNAME is twelsh and Unit ID: Chemainus , invoice was created on: 2022-05-16 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up ; give me invoice Details: BI CODE is - Chemainus , also ENTITY_ID is : GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>What's up ; invoice status details. dates - 2022-05-31 04:00:00.0000000 Unit ID: Chemainus Vendor_Id: 095BCL01 my inv num is 1710 USERNAME =  twelsh</t>
+  </si>
+  <si>
+    <t>Hey ; invoice status , Here's my information: vendor id: 095BCL01 my business code is Chemainus ; number of my invoice = 1706 ENTITY_ID is : GFL10</t>
+  </si>
+  <si>
+    <t>What's up what is my invoice status My details are - my business code is Saskatoon Vendor_Id: 102SAS03 number of my invoice = 2092643 my entity name is GP108 also username = tbreckner , invoice was created on: 2020-06-02 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello , I privation status of my invoice , I have the following name of invoice enntity: GFL10 my vend id 095BCL01 USERNAME =  twelsh and date: 2022-06-01 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey , I privation status of my invoice ; Details: ven id = 102SAS03 and Business Unit ID is Saskatoon and i have the follwoing Invoice Number: 2091076 userNAME - jsiemens I have the following name of invoice enntity: GP108 Thank you</t>
+  </si>
+  <si>
+    <t>What's up ; what is my invoice status details. USERNAME: jsiemens and and inv num: 2092752 VENDORID is102SAS03 Thank you</t>
+  </si>
+  <si>
+    <t>hello invoice status ; I have the following information. USERNAME =  jsiemens Date when invoice was created: 2020-05-29 04:00:00.0000000 the name of an enity is GP108 ; BUID = Saskatoon also also ven id = 102SAS03 Thank you</t>
+  </si>
+  <si>
+    <t>hello . I privation to get my Invoice status ; I have the following information. date: 2020-03-12 04:00:00.0000000 and num of my inv - 2091394 , VENDORID is102SAS03 ; also the BI_CODE = Saskatoon username = jsiemens</t>
+  </si>
+  <si>
+    <t>invoice status Here's my information: I have the following name of invoice enntity: GFL10 , inv num: 1693 ; USERNAME =  twelsh Thank you</t>
+  </si>
+  <si>
+    <t>Hey invoice status information. i have the follwoing Invoice Number: 1691 the name of an enity is GFL10 also my VENDOR_ID is 095BCL01 Unit ID: Chemainus</t>
+  </si>
+  <si>
+    <t>hello I privation status of my invoice ; details. USERNAME =  twelsh I have the following name of invoice enntity: GFL10 vendor id - 095BCL01 ; date of the invoice creation is: 2022-04-15 04:00:00.0000000 the BI_CODE = Chemainus</t>
+  </si>
+  <si>
+    <t>hello give me invoice. BUID = Chemainus InvoiceNum = 1662 person who created my invoice: twelsh ; my entity name is GFL10 also Date when invoice was created: 2022-04-30 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello I privation to get my Invoice status ; Details: ent id = GFL10 Date when invoice was created: 2022-04-15 04:00:00.0000000 business code is something like this: Chemainus ven id 095BCL01 and number of my invoice is: 1682</t>
+  </si>
+  <si>
+    <t>hello ; I would like to have the invoice. the BI_CODE = Chemainus enity name: GFL10 dates = 2022-04-25 04:00:00.0000000 Vendor_Id is095BCL01 username = twelsh ; InvoiceNum is 1683</t>
+  </si>
+  <si>
+    <t>Hey get me my Invoice ; information. created by twelsh , also bi code = Chemainus entity name -  GFL10 dates is2022-05-06 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hey I privation status of my invoice. BI CODE is - Edmonton SW ENTITY_ID is : GFL10 also number of my invoice A13 name = svc_UiPath , dates = 2023-03-03 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello get me my Invoice ; I have the following information. Business Unit ID is Chemainus , the username of the person who created invoice : twelsh also dates - 2022-04-15 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello , I privation to get my Invoice status I have the following information. username = svc_UiPath also Date when invoice was created: 2023-03-03 05:00:00.0000000 , , i have the follwoing Invoice Number: A15 business code is something like this: Edmonton SW Thank you</t>
+  </si>
+  <si>
+    <t>hello give me invoice. the time when my invoice was created is: 2022-02-28 05:00:00.0000000 name = amy.steele also ; number of my invoice = 1628 BUID = Cumberland</t>
+  </si>
+  <si>
+    <t>What's up ; get me my Invoice . Here's my information: InvoiceNum: A27F223 Unit ID: Edmonton SW , BUID = svc_UiPath also ENTITY_ID is : GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>Hey invoice status ; Details: num of my inv isA14 enity id = GFL10 , ; id of my Vendor = 101SAS06 also</t>
+  </si>
+  <si>
+    <t>hello invoice status. VENDORID is101SAS06 I have the following name of invoice enntity: GFL10 Unit ID: Edmonton SW date: 2023-03-02 05:00:00.0000000 and created by svc_UiPath inv num: TEST002</t>
+  </si>
+  <si>
+    <t>hello give me invoice , date: 2023-03-02 05:00:00.0000000 ENTITY_ID is : GFL10 inv num: TEST003 also name = svc_UiPath also Thank you</t>
+  </si>
+  <si>
+    <t>hello ; invoice status information. my business code is Edmonton SW and entity name -  GFL10 number of my invoice is: NEW112N username = svc_UiPath</t>
+  </si>
+  <si>
+    <t>What's up give me invoice , My details are - number of my invoice = LAA123 , BUID = Edmonton SW , person who created my invoice: svc_UiPath ,</t>
+  </si>
+  <si>
+    <t>What's up get me my Invoice ; details. USERNAME: svc_UiPath num of my inv - LAA1231 , date: 2023-02-15 05:00:00.0000000 ;</t>
+  </si>
+  <si>
+    <t>hello get me my Invoice . My details are - Vendor_Id: 101SAS06 and BUID = svc_UiPath , dates = 2023-02-27 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey give me invoice ; name = svc_UiPath also ; Unit ID: Edmonton SW</t>
+  </si>
+  <si>
+    <t>What's up ; get me my Invoice . Here's my information: InvNum = XA11 date: 2023-02-01 05:00:00.0000000 and I have the following name of invoice enntity: GFL10 ; i have the follwoing Vendor ID: 101SAS06 also person who created my invoice: svc_UiPath ,</t>
+  </si>
+  <si>
+    <t>What's up I would like to have the invoice information. the name of an enity is GP108 number of my invoice is: 2701 ; my VENDOR_ID is 101SAS06 , userNAME - kguenther Thank you</t>
+  </si>
+  <si>
+    <t>Hey . get me my Invoice . information. Date when invoice was created: 2023-02-15 05:00:00.0000000 ; invoice was created by svc_UiPath and i have the follwoing Invoice Number: NEW112N12 bi code = Edmonton SW ; my vend id 101SAS06</t>
+  </si>
+  <si>
+    <t>Hey give me my Invoice , Details: Vendor_Id is095BCL01 num of my inv - 1630 , BI CODE is - Cumberland Date when invoice was created: 2022-03-11 05:00:00.0000000 ENTITY_ID is : GFL10 and the username of the person who created invoice : sdavies Thank you</t>
+  </si>
+  <si>
+    <t>Hey what is my invoice status Here's my information: bi code = Cumberland my vend id 095BCL01 Date when invoice was created: 2022-02-28 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hey . give me invoice. my vend id 095BCL01 person who created my invoice: amy.steele Business Unit ID is Cumberland , my entity name is GFL10 number of my invoice is: 1625</t>
+  </si>
+  <si>
+    <t>Hey . give me my Invoice . details. date of the invoice creation is: 2022-03-10 05:00:00.0000000 also BUID = Cumberland person who created my invoice: amy.steele Thank you</t>
+  </si>
+  <si>
+    <t>hello My data is: number of my invoice is: 1619 ; entity name -  GFL10 Business Unit ID is Cumberland date of the invoice creation is: 2022-02-25 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up I would like to have the invoice I have the following information. username = sdavies dates - 2022-02-21 05:00:00.0000000 ; bi code = Cumberland</t>
+  </si>
+  <si>
+    <t>hello , give me invoice. Unit ID: Saskatoon my VENDOR_ID is 101SAS06 ; enity id = GP108 ; date of the invoice creation is: 2021-01-08 05:00:00.0000000 also number of my invoice 1586 username = tgore Thank you</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice Here's my information: USERNAME =  sdavies , ent id = GFL10 also vendor id - 095BCL01 also my code is : Cumberland and InvoiceNum is 1610</t>
+  </si>
+  <si>
+    <t>invoice status I have the following information. Date when invoice was created: 2022-02-21 05:00:00.0000000 my entity name is GFL10 ; the username of the person who created invoice : sdavies ; i have the follwoing Vendor ID: 095BCL01</t>
+  </si>
+  <si>
+    <t>What's up get me my Invoice , InvoiceNum: 1603 and ent id = GFL10 also name = sdavies also i have the follwoing Vendor ID: 095BCL01 , the BI_CODE = Cumberland date: 2022-02-21 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>hello . My data is: ent id = GFL10 and VENDOR_ID = 095BCL01 also the username of the person who created invoice : sdavies</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice My details are - the username of the person who created invoice : sdavies also Vendor ID 095BCL01 dates - 2022-02-21 05:00:00.0000000 my code is : Cumberland , enity name: GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>Hey what is my invoice status ; Details: date: 2022-02-21 05:00:00.0000000 , enity name: GFL10 , BUID = sdavies also</t>
+  </si>
+  <si>
+    <t>What's up what is my invoice status Details: date of the invoice creation is: 2022-02-21 05:00:00.0000000 ; my entity name is GFL10 , business code is something like this: Cumberland also</t>
+  </si>
+  <si>
+    <t>I privation to get my Invoice status . Details: my entity name is GFL10 invoice Number = 1618 also userNAME - sdavies date: 2022-02-25 05:00:00.0000000 my VENDOR_ID is 095BCL01 , Business Unit ID is Chemainus</t>
+  </si>
+  <si>
+    <t>Hey I privation to get my Invoice status . details. Vendor ID 095BCL01 Inv_Num: 1602 BUID = Cumberland date of the invoice creation is: 2022-02-21 05:00:00.0000000 invoice was created by sdavies Thank you</t>
+  </si>
+  <si>
+    <t>hello . give me my Invoice , information. my business code is Chemainus the time when my invoice was created is: 2022-01-30 05:00:00.0000000 id of my Vendor = 095BCL01 userNAME - sdavies entity name -  GFL10</t>
+  </si>
+  <si>
+    <t>What's up . what is my invoice status Details: username = sdavies also enity name: GFL10 and dates is2022-01-30 05:00:00.0000000 id of my Vendor : 095BCL01 i have the follwoing Invoice Number: 1595</t>
+  </si>
+  <si>
+    <t>I privation status of my invoice ; details. my BICODE is : Cumberland Thank you</t>
+  </si>
+  <si>
+    <t>hello , get me my Invoice My data is: Business Unit ID is Cumberland enity id = GFL10 invoice Number = 1594 Vendor_Id is095BCL01 and invoice was created by sdavies</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice Here's my information: Vendor_Id: 095BCL01 and number of my invoice is: 1579 enity id = GFL10 also the time when my invoice was created is: 2022-01-30 05:00:00.0000000 name = sdavies Thank you</t>
+  </si>
+  <si>
+    <t>hello give me invoice details. my BICODE is : Cumberland also I have the following name of invoice enntity: GFL10 and date: 2022-01-30 05:00:00.0000000 my vendor id is 095BCL01</t>
+  </si>
+  <si>
+    <t>What's up ; give me my Invoice Here's my information: BUID = Cumberland inv num: 1590 , vendor id: 095BCL01 invoice was created by sdavies my entity name is GFL10 Thank you</t>
+  </si>
+  <si>
+    <t>hello I would like to have the invoice Details: enity id = GFL10 bi code = Cumberland USERNAME is sdavies and ven id = 095BCL01 dates is2022-01-30 05:00:00.0000000 my inv num is 1591</t>
+  </si>
+  <si>
+    <t>What's up give me my Invoice . Here's my information: Date when invoice was created: 2022-01-30 05:00:00.0000000 the username of the person who created invoice : sdavies InvoiceNum = 1584 id of my Vendor = 095BCL01 ;</t>
+  </si>
+  <si>
+    <t>hello get me my Invoice ; BI CODE is - Cumberland and ; date: 2022-01-30 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>hello . invoice status . number of my invoice = 1582 , invoice was created on: 2022-01-31 05:00:00.0000000 also Business Unit ID is Chemainus VENDOR_ID = 095BCL01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,17 +1308,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1030,9 +1364,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1064,9 +1398,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1098,9 +1433,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1273,19 +1609,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="239.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1293,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1301,7 +1642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1309,7 +1650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1317,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1325,7 +1666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1333,7 +1674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1341,7 +1682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1349,7 +1690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1357,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1365,7 +1706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1373,7 +1714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1381,7 +1722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1389,7 +1730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1397,7 +1738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1405,7 +1746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1413,7 +1754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1421,7 +1762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1429,7 +1770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1437,7 +1778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1445,7 +1786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1453,7 +1794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1461,7 +1802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1469,7 +1810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1477,7 +1818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1485,7 +1826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1493,7 +1834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1501,7 +1842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1509,7 +1850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1517,7 +1858,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1525,7 +1866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1533,7 +1874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1541,7 +1882,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1549,7 +1890,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1557,7 +1898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1565,7 +1906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1573,7 +1914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1581,7 +1922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1589,7 +1930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1597,7 +1938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1605,7 +1946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1613,7 +1954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1621,7 +1962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1629,7 +1970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1637,7 +1978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1645,7 +1986,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1653,7 +1994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1661,7 +2002,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1669,7 +2010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1677,7 +2018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1685,7 +2026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1693,7 +2034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1701,7 +2042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1709,7 +2050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1717,7 +2058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1725,7 +2066,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1733,7 +2074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1741,7 +2082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1749,7 +2090,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1757,7 +2098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1765,7 +2106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1773,7 +2114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1781,7 +2122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1789,7 +2130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1797,7 +2138,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1805,7 +2146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1813,7 +2154,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1821,7 +2162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1829,7 +2170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1837,7 +2178,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1845,7 +2186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1853,7 +2194,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1861,7 +2202,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1869,7 +2210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1877,7 +2218,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1885,7 +2226,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1893,7 +2234,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1901,7 +2242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1909,7 +2250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1917,7 +2258,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1925,7 +2266,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1933,7 +2274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1941,7 +2282,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1949,7 +2290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1957,7 +2298,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1965,7 +2306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1973,7 +2314,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1981,7 +2322,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1989,7 +2330,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1997,7 +2338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2005,7 +2346,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2013,7 +2354,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2021,7 +2362,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2029,7 +2370,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2037,7 +2378,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2045,7 +2386,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2053,7 +2394,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2061,7 +2402,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2069,7 +2410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2077,7 +2418,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2085,7 +2426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2093,7 +2434,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2101,7 +2442,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2109,7 +2450,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2117,7 +2458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2125,7 +2466,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2133,7 +2474,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2141,7 +2482,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2149,7 +2490,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2157,7 +2498,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2165,7 +2506,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2173,7 +2514,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2181,7 +2522,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2189,7 +2530,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2197,7 +2538,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2205,7 +2546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2213,7 +2554,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2221,7 +2562,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2229,7 +2570,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2237,7 +2578,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2245,7 +2586,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2253,7 +2594,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2261,7 +2602,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2269,7 +2610,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2277,7 +2618,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2285,7 +2626,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2293,7 +2634,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2301,7 +2642,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2309,7 +2650,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2317,7 +2658,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -2325,7 +2666,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2333,7 +2674,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -2341,7 +2682,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -2349,7 +2690,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -2357,7 +2698,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -2365,7 +2706,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -2373,7 +2714,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -2381,7 +2722,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -2389,7 +2730,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -2397,7 +2738,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2405,7 +2746,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2413,7 +2754,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2421,7 +2762,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2429,7 +2770,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2437,7 +2778,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2445,7 +2786,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2453,7 +2794,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2461,7 +2802,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2469,7 +2810,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2477,7 +2818,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2485,7 +2826,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2493,7 +2834,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2501,7 +2842,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2509,7 +2850,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2517,7 +2858,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2525,7 +2866,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2533,7 +2874,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2541,7 +2882,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2549,7 +2890,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2557,7 +2898,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2565,7 +2906,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2573,7 +2914,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2581,7 +2922,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2589,7 +2930,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2597,7 +2938,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2605,7 +2946,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2613,7 +2954,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2621,7 +2962,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2629,7 +2970,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2637,7 +2978,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2645,7 +2986,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2653,7 +2994,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2661,7 +3002,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2669,7 +3010,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2677,7 +3018,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2685,7 +3026,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2693,7 +3034,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2701,7 +3042,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2709,7 +3050,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2717,7 +3058,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2725,7 +3066,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2733,7 +3074,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -2741,7 +3082,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -2749,7 +3090,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -2757,7 +3098,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -2765,7 +3106,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -2773,7 +3114,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -2781,7 +3122,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -2789,7 +3130,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -2797,7 +3138,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -2805,7 +3146,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -2813,7 +3154,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -2821,7 +3162,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -2829,7 +3170,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -2837,7 +3178,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -2845,7 +3186,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -2853,7 +3194,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -2861,7 +3202,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -2869,7 +3210,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -2877,7 +3218,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -2885,7 +3226,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -2893,7 +3234,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -2901,7 +3242,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -2909,7 +3250,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -2917,7 +3258,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -2925,7 +3266,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -2933,7 +3274,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -2941,7 +3282,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -2949,7 +3290,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -2957,7 +3298,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -2965,7 +3306,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -2973,7 +3314,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -2981,7 +3322,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -2989,7 +3330,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -2997,7 +3338,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -3005,7 +3346,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -3013,7 +3354,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -3021,7 +3362,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -3029,7 +3370,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -3037,7 +3378,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -3045,7 +3386,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -3053,7 +3394,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -3061,7 +3402,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -3069,7 +3410,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -3077,7 +3418,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -3085,7 +3426,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -3093,7 +3434,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -3101,7 +3442,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -3109,7 +3450,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -3117,7 +3458,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -3125,7 +3466,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -3133,7 +3474,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -3141,7 +3482,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -3149,7 +3490,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -3157,7 +3498,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -3165,7 +3506,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -3173,7 +3514,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -3181,7 +3522,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -3189,7 +3530,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -3197,7 +3538,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -3205,7 +3546,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -3213,7 +3554,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -3221,7 +3562,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -3229,7 +3570,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -3237,7 +3578,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -3245,7 +3586,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -3253,7 +3594,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -3261,7 +3602,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -3269,7 +3610,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -3277,7 +3618,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -3285,7 +3626,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -3293,7 +3634,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -3301,7 +3642,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -3309,7 +3650,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -3317,7 +3658,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -3325,7 +3666,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -3333,7 +3674,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -3341,7 +3682,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -3349,7 +3690,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -3357,7 +3698,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -3365,7 +3706,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -3373,7 +3714,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -3381,7 +3722,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -3389,7 +3730,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -3397,7 +3738,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -3405,7 +3746,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -3413,7 +3754,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -3421,7 +3762,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -3429,7 +3770,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -3437,7 +3778,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -3445,7 +3786,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -3453,7 +3794,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -3461,7 +3802,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -3469,7 +3810,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -3477,7 +3818,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -3485,7 +3826,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -3493,7 +3834,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -3501,7 +3842,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -3509,7 +3850,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -3517,7 +3858,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -3525,7 +3866,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -3533,7 +3874,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -3541,7 +3882,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -3549,7 +3890,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -3557,7 +3898,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -3565,7 +3906,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -3573,7 +3914,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -3581,7 +3922,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -3589,7 +3930,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -3597,7 +3938,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -3605,7 +3946,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -3613,7 +3954,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -3621,7 +3962,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -3629,7 +3970,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -3637,7 +3978,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -3645,7 +3986,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -3653,7 +3994,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -3661,7 +4002,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -3669,7 +4010,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -3677,12 +4018,868 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/sentences_train.xlsx
+++ b/sentences_train.xlsx
@@ -19,1230 +19,1809 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
   <si>
     <t>Sentence</t>
   </si>
   <si>
-    <t>I privation status of my invoice . inv num: W02997 also created by pmisener invoice was created on: 2020-10-27 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello , give me my Invoice ; I have the following information. num of my inv - R04209 code is: Ground Force ; Vendor ID 107ONT01 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; get me my Invoice , Details: my business code is Ground Force ; Vendor_Id: 107ONT01 the name of an enity is GFL10 also Thank you</t>
-  </si>
-  <si>
-    <t>What's up I privation status of my invoice . I have the following information. number of my invoice = R04214 also USERNAME is tmian ; vendor id - 107ONT01 , invoice was created on: 2020-10-29 04:00:00.0000000 my code is : Ground Force Thank you</t>
-  </si>
-  <si>
-    <t>get me my Invoice , details. invoice Number = R04196 ; my entity name is GFL10 also vendor id: 107ONT01 BUID = Ground Force , name = tmian also Thank you</t>
-  </si>
-  <si>
-    <t>hello ; give me my Invoice Details: my BICODE is : Ground Force dates = 2020-10-27 04:00:00.0000000 BUID = tmian</t>
-  </si>
-  <si>
-    <t>Hey ; invoice status. inv num: R04157 BUID = mhorlings ;</t>
-  </si>
-  <si>
-    <t>Hey , give me invoice . My data is: invoice was created on: 2020-09-30 04:00:00.0000000 ent id = GFL10 ven id = 107ONT01 person who created my invoice: mhorlings ; also my code is : Ground Force</t>
-  </si>
-  <si>
-    <t>What's up . I privation to get my Invoice status details. ENTITY_ID is : GFL10 InvoiceNum: R04160 dates is2020-09-30 04:00:00.0000000 the BI_CODE = Ground Force id of my Vendor : 107ONT01 and person who created my invoice: pmisener Thank you</t>
-  </si>
-  <si>
-    <t>What's up I privation to get my Invoice status , My details are - business code is something like this: First Class also USERNAME: sknezetic , and i have the follwoing Vendor ID: 115BCL01 and enity id = GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice I have the following information. my VENDOR_ID is 115BCL01 , also USERNAME: sknezetic dates is2021-09-17 04:00:00.0000000 Business Unit ID is First Class</t>
-  </si>
-  <si>
-    <t>What's up what is my invoice status My details are - created by pmisener ENTITY_ID is : GFL10 and Vendor_Id: 107ONT01 also dates = 2020-09-30 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice Here's my information: InvNum = R04158 also created by tmian ; my vendor id is 107ONT01 Thank you</t>
-  </si>
-  <si>
-    <t>What's up , , information. business code is something like this: Ground Force and date of the invoice creation is: 2020-09-15 04:00:00.0000000 , vendor id: 107ONT01 also the username of the person who created invoice : tmian</t>
-  </si>
-  <si>
-    <t>hello . get me my Invoice I have the following information. InvNum = R04105 created by hzhang Date when invoice was created: 2020-09-06 04:00:00.0000000 vendor id: 107ONT01 also I have the following name of invoice enntity: GFL10</t>
-  </si>
-  <si>
-    <t>Hey ; get me my Invoice My details are - dates = 2020-09-25 04:00:00.0000000 , username = tmian and num of my inv - R04137 and also my business code is Ground Force</t>
-  </si>
-  <si>
-    <t>What's up I privation status of my invoice , My data is: I have the following name of invoice enntity: GFL10 ; Vendor ID 107ONT01 Thank you</t>
-  </si>
-  <si>
-    <t>hello , details. Inv_Num: R04087 also and Date when invoice was created: 2020-08-31 04:00:00.0000000 , Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me invoice , BUID = Ground Force and ent id = GFL10 , ven id 107ONT01 and Date when invoice was created: 2020-09-10 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up invoice status ; information. BUID = hzhang BUID = Ground Force i have the follwoing Invoice Number: W02872 ; enity id = GFL10 dates = 2020-07-31 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello , give me my Invoice Details: username = tmian and dates = 2020-08-24 04:00:00.0000000 also my BICODE is : Ground Force ent id = GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice Details: USERNAME: tmian Thank you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  USERNAME is jberisha ; INVOICE Num: R04062 the name of an enity is GFL10 dates = 2020-08-18 04:00:00.0000000 vendor id - 107ONT01</t>
-  </si>
-  <si>
-    <t>hello , I would like to have the invoice details. Vendor ID 107ONT01 ; also INVOICE Num: R04050 ent id = GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>Hey . invoice status I have the following information. entity name -  GFL10 Unit ID: Ground Force , Thank you</t>
-  </si>
-  <si>
-    <t>hello , I have the following information. invoice Number = R04051 username = jberisha dates is2020-08-13 04:00:00.0000000 and my code is : Ground Force and also</t>
-  </si>
-  <si>
-    <t>What's up ; I privation to get my Invoice status. my inv num is R04045 and the BI_CODE = Ground Force Vendor ID 107ONT01 and Thank you</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice My details are - Date when invoice was created: 2020-07-27 04:00:00.0000000 number of my invoice = R04019</t>
-  </si>
-  <si>
-    <t>hello . date of the invoice creation is: 2020-07-28 04:00:00.0000000 also id of my Vendor : 107ONT01 ; the BI_CODE = Ground Force INVOICE Num: nan my entity name is GFL10</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice ; My details are - number of my invoice is: R04008 invoice was created by jberisha , dates is2020-07-21 04:00:00.0000000 and i have the follwoing Vendor ID: 107ONT01</t>
-  </si>
-  <si>
-    <t>I privation status of my invoice , VENDOR_ID = 107ONT01 and InvoiceNum: R04002 and enity id = GFL10 ; USERNAME: jberisha and dates is2020-07-16 04:00:00.0000000 my code is : Ground Force Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice ; information. the BI_CODE = Ground Force my vendor id is 107ONT01 inv num: R04003 the time when my invoice was created is: 2020-07-16 04:00:00.0000000 invoice was created by jberisha</t>
-  </si>
-  <si>
-    <t>Hey . get me my Invoice . I have the following information. id of my Vendor = 107ONT01 the time when my invoice was created is: 2020-07-08 04:00:00.0000000 BUID = Ground Force the name of an enity is GFL10 created by jberisha</t>
-  </si>
-  <si>
-    <t>hello . give me invoice. id of my Vendor : 115BCL01 , invoice was created by tlanyon date of the invoice creation is: 2021-07-08 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey invoice status My data is: ENTITY_ID is : GFL10 id of my Vendor : 115BCL01 dates - 2021-07-08 04:00:00.0000000 BUID = tlanyon and</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice My data is: dates = 2021-07-08 04:00:00.0000000 ; BUID = tlanyon and VENDOR_ID = 115BCL01 ; ; Unit ID: First Class Thank you</t>
-  </si>
-  <si>
-    <t>Hey , I would like to have the invoice Here's my information: date of the invoice creation is: 2020-06-30 04:00:00.0000000 ; Business Unit ID is Ground Force enity id = GFL10 , also</t>
-  </si>
-  <si>
-    <t>Hey ; My details are - InvoiceNum = R03871 , entity name -  GFL10 , USERNAME =  tmian , my code is : Ground Force my vend id 107ONT01 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I privation status of my invoice . Inv_Num is R03870 ; ven id = 107ONT01 enity name: GFL10 ,</t>
-  </si>
-  <si>
-    <t>What's up I privation status of my invoice I have the following information. number of my invoice is: R03990 my code is : Ground Force Vendor_Id: 107ONT01 , invoice was created on: 2020-07-08 04:00:00.0000000 my entity name is GFL10 created by jberisha Thank you</t>
-  </si>
-  <si>
-    <t>Hey , details. i have the follwoing Invoice Number: R03962 dates - 2020-06-18 04:00:00.0000000 Unit ID: Ground Force entity name -  GFL10 my VENDOR_ID is 107ONT01</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice . My details are - ven id 107ONT01 ; and the BI_CODE = Ground Force dates is2020-06-18 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey , date: 2021-02-01 05:00:00.0000000 the username of the person who created invoice : sreilly InvoiceNum = 13 my vend id 107BCX01</t>
-  </si>
-  <si>
-    <t>Hey . I have the following information. id of my Vendor : 107ONT01 and the time when my invoice was created is: 2020-06-18 04:00:00.0000000 InvoiceNum = R03961 ; person who created my invoice: jberisha also enity name: GFL10 the BI_CODE = Ground Force Thank you</t>
-  </si>
-  <si>
-    <t>invoice status , My data is: InvoiceNum is 11 and the BI_CODE = First Class ; and Thank you</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status My details are - the time when my invoice was created is: 2021-04-13 04:00:00.0000000 the name of an enity is GFL10 inv num: 2103 created by sreilly bi code = First Class Vendor_Id is115BCL01 Thank you</t>
-  </si>
-  <si>
-    <t>give me invoice . Details: USERNAME =  sreilly and number of my invoice = 2108 and Vendor_Id is115BCL01 ; ENTITY_ID is : GFL10</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice . details. the username of the person who created invoice : sreilly , also code is: First Class number of my invoice 12 ; Vendor ID 107BCX01</t>
-  </si>
-  <si>
-    <t>hello invoice status I have the following information. enity name: GFL10 and BUID = First Class also VENDOR_ID = 107BCX01 ; Date when invoice was created: 2020-08-01 04:00:00.0000000 also and Thank you</t>
-  </si>
-  <si>
-    <t>Hey get me my Invoice . I have the following information. business code is something like this: First Class INVOICE Num: 9 id of my Vendor : 107BCX01 also dates = 2020-10-01 04:00:00.0000000 , entity name -  GFL10</t>
-  </si>
-  <si>
-    <t>What's up I privation to get my Invoice status. ENTITY_ID is : GFL10 also created by sreilly number of my invoice 10 and the BI_CODE = First Class also ven id = 107BCX01 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status . username = sreilly , ent id = GFL10 also my business code is First Class my inv num is 8 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice information. InvoiceNum: 0242 person who created my invoice: dlavoie my BICODE is : BDF and ; Thank you</t>
-  </si>
-  <si>
-    <t>I privation to get my Invoice status ; Here's my information: dates - 2020-06-01 04:00:00.0000000 ; and Inv_Num is 5 , i have the follwoing Vendor ID: 107BCX01 Thank you</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice ; Here's my information: my entity name is GFL10 code is: First Class and id of my Vendor = 107BCX01 , date of the invoice creation is: 2020-07-01 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up , get me my Invoice Here's my information: date of the invoice creation is: 2022-07-18 04:00:00.0000000 INVOICE Num: 0371 my entity name is GP108 my BICODE is : Recyclex Thank you</t>
-  </si>
-  <si>
-    <t>hello ; get me my Invoice My details are - person who created my invoice: kyuen enity name: GFL10 invoice Number = 10922 , dates = 2022-07-31 04:00:00.0000000 the BI_CODE = Grand Prairie Thank you</t>
-  </si>
-  <si>
-    <t>Hey , invoice status My data is: created by mrodriguez num of my inv - 0183 ; enity name: GP108 also Thank you</t>
-  </si>
-  <si>
-    <t>hello , invoice status My data is: dates is2022-04-30 04:00:00.0000000 the username of the person who created invoice : kyuen Vendor_Id: 105ALB03 also number of my invoice 10637 my BICODE is : Grand Prairie and the name of an enity is GFL10</t>
-  </si>
-  <si>
-    <t>get me my Invoice My details are - i have the follwoing Vendor ID: 106CAN02 dates - 2020-08-21 04:00:00.0000000 invoice Number = 0176 I have the following name of invoice enntity: GP108 ; code is: Enviro BP</t>
-  </si>
-  <si>
-    <t>invoice status . Details: my business code is Edmonton SW , the time when my invoice was created is: 2023-03-07 05:00:00.0000000 , person who created my invoice: svc_UiPath ; vendor id - 102SAS03</t>
-  </si>
-  <si>
-    <t>What's up give me invoice , information. Business Unit ID is Saskatoon and</t>
-  </si>
-  <si>
-    <t>Hey . I privation to get my Invoice status. bi code = Grand Prairie and USERNAME is kyuen , inv num: 10632 I have the following name of invoice enntity: GFL10</t>
-  </si>
-  <si>
-    <t>hello ; give me invoice Here's my information: person who created my invoice: rpolichuk Unit ID: Saskatoon dates is2022-09-16 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello , what is my invoice status. my inv num is 2107468 USERNAME: csperling ; Vendor_Id: 102SAS03 and my business code is Saskatoon</t>
-  </si>
-  <si>
-    <t>hello ; give me invoice , My details are - created by csperling InvoiceNum is 2105985</t>
-  </si>
-  <si>
-    <t>hello , I privation to get my Invoice status . information. vendor id: 102SAS03 my entity name is GP108 Date when invoice was created: 2022-06-08 04:00:00.0000000 code is: Saskatoon and USERNAME is csperling Thank you</t>
-  </si>
-  <si>
-    <t>hello , what is my invoice status , business code is something like this: Saskatoon ; , dates is2022-06-20 04:00:00.0000000 also InvoiceNum = 2106985</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice , Details: my BICODE is : Saskatoon and date: 2022-03-15 04:00:00.0000000 also Inv_Num: 2105090 and my vend id 102SAS03 and the name of an enity is GP108 ; userNAME - csperling Thank you</t>
-  </si>
-  <si>
-    <t>Hey , what is my invoice status . Inv_Num is 2105360 userNAME - jsiemens dates is2022-03-29 04:00:00.0000000 my vendor id is 102SAS03</t>
-  </si>
-  <si>
-    <t>give me invoice information. InvoiceNum is 2105372 id of my Vendor = 102SAS03 I have the following name of invoice enntity: GP108 ; my code is : Saskatoon USERNAME: csperling date: 2022-03-30 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status . the time when my invoice was created is: 2022-04-04 04:00:00.0000000 also my entity name is GP108 Unit ID: Saskatoon ; InvoiceNum: 2105467 my vendor id is 102SAS03</t>
-  </si>
-  <si>
-    <t>Hey I would like to have the invoice . InvNum = 2103972 and the username of the person who created invoice : rpolichuk dates - 2022-01-11 05:00:00.0000000 ent id = GP108</t>
-  </si>
-  <si>
-    <t>hello , I would like to have the invoice . id of my Vendor : 102SAS03 also ENTITY_ID is : GP108 , invoice was created on: 2021-12-24 05:00:00.0000000 ; number of my invoice 2103683 Thank you</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice My data is: person who created my invoice: rpolichuk ; date of the invoice creation is: 2022-02-18 05:00:00.0000000 id of my Vendor : 102SAS03 Thank you</t>
-  </si>
-  <si>
-    <t>Hey get me my Invoice , My data is: my BICODE is : First Class my vendor id is 115BCL01 enity id = GFL10 the username of the person who created invoice : tlanyon , InvoiceNum is 2067 ; date of the invoice creation is: 2020-12-29 05:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice , created by csperling vendor id: 102SAS03 ent id = GP108 dates is2021-11-01 04:00:00.0000000 ; INVOICE Num: 2102665</t>
-  </si>
-  <si>
-    <t>hello , what is my invoice status My data is: Business Unit ID is Saskatoon ; id of my Vendor = 102SAS03 , also created by csperling</t>
-  </si>
-  <si>
-    <t>Hey , give me invoice Details: ven id 102SAS03 also date: 2021-10-29 04:00:00.0000000 code is: Saskatoon also name = jsiemens also my entity name is GP108 Thank you</t>
-  </si>
-  <si>
-    <t>What's up , give me invoice I have the following information. date: 2021-10-14 04:00:00.0000000 num of my inv - 2102274 and USERNAME =  csperling , my BICODE is : Saskatoon I have the following name of invoice enntity: GP108 also</t>
-  </si>
-  <si>
-    <t>What's up , I would like to have the invoice I have the following information. dates = 2021-09-14 04:00:00.0000000 , invoice Number = 2101689 enity id = GP108 USERNAME is jsiemens and BI CODE is - Saskatoon ven id = 102SAS03</t>
-  </si>
-  <si>
-    <t>hello . give me my Invoice . Details: my BICODE is : Saskatoon also ; InvoiceNum is 2101682 VENDORID is102SAS03</t>
-  </si>
-  <si>
-    <t>Hey I privation to get my Invoice status details. dates = 2021-08-04 04:00:00.0000000 , I have the following name of invoice enntity: GP108 ; Inv_Num is 2100821 BUID = Saskatoon , ven id 102SAS03 Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me my Invoice ; INVOICE Num: 2100825 enity name: GP108 and dates - 2021-08-04 04:00:00.0000000 ; BUID = jsiemens VENDORID is102SAS03</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice My details are - my business code is Saskatoon I have the following name of invoice enntity: GP108 userNAME - rpolichuk dates is2021-06-29 04:00:00.0000000 ;</t>
-  </si>
-  <si>
-    <t>What's up invoice status My details are - I have the following name of invoice enntity: GP108 and also the time when my invoice was created is: 2021-05-07 04:00:00.0000000 ; code is: Saskatoon and Inv_Num is 2099009</t>
-  </si>
-  <si>
-    <t>Hey give me invoice My details are - created by csperling business code is something like this: Saskatoon</t>
-  </si>
-  <si>
-    <t>details. name = rpolichuk I have the following name of invoice enntity: GP108 and inv num: 2100723 , date of the invoice creation is: 2021-07-29 04:00:00.0000000 also my business code is Saskatoon Thank you</t>
-  </si>
-  <si>
-    <t>hello . invoice status I have the following information. my entity name is GP108 my inv num is 2098411 date: 2021-04-05 04:00:00.0000000 ; person who created my invoice: jsiemens , Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I have the following information. invoice Number = 2098733 Business Unit ID is Saskatoon invoice was created on: 2021-04-20 04:00:00.0000000 ; my entity name is GP108 my vend id 102SAS03 Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice. date: 2021-05-17 04:00:00.0000000 my code is : Saskatoon entity name -  GP108 invoice was created by jsiemens id of my Vendor = 102SAS03</t>
-  </si>
-  <si>
-    <t>Hey ; get me my Invoice Details: Unit ID: Saskatoon , created by rpolichuk my vendor id is 102SAS03 also dates - 2021-05-13 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey , give me invoice ; Here's my information: I have the following name of invoice enntity: GFL10 ; BI CODE is - First Class and and id of my Vendor : 115BCL01</t>
-  </si>
-  <si>
-    <t>hello give me invoice Details: InvoiceNum = 2031 ; dates - 2020-04-30 04:00:00.0000000 VENDORID is115BCL01 and BI CODE is - First Class enity id = GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>Hey I privation to get my Invoice status. Unit ID: First Class created by bbarnes InvoiceNum = 2029 and date of the invoice creation is: 2020-04-30 04:00:00.0000000 also VENDORID is115BCL01 entity name -  GFL10</t>
-  </si>
-  <si>
-    <t>give me invoice Here's my information: id of my Vendor = 115BCL01 I have the following name of invoice enntity: GFL10 number of my invoice is: 2032 , invoice was created on: 2020-04-30 04:00:00.0000000 Unit ID: First Class</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice , ENTITY_ID is : GFL10 bi code = Whitecourt also my vendor id is 115ALB02 USERNAME is jflint Thank you</t>
-  </si>
-  <si>
-    <t>hello ; get me my Invoice. my VENDOR_ID is 102SAS03 and USERNAME =  csperling ; my BICODE is : Saskatoon ,</t>
-  </si>
-  <si>
-    <t>get me my Invoice ; Inv_Num is 2097682 and my entity name is GP108 my code is : Saskatoon and BUID = jsiemens Thank you</t>
-  </si>
-  <si>
-    <t>Hey , I privation to get my Invoice status My data is: my BICODE is : Saskatoon , dates = 2021-02-04 05:00:00.0000000 , Vendor_Id is102SAS03 Thank you</t>
-  </si>
-  <si>
-    <t>Hey invoice status . my entity name is GP108 my BICODE is : Saskatoon VENDORID is102SAS03 num of my inv is2097151 , the time when my invoice was created is: 2021-01-25 05:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; what is my invoice status information. Inv_Num is 2096410 , i have the follwoing Vendor ID: 102SAS03 business code is something like this: Saskatoon enity id = GP108 Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status My data is: dates = 2021-01-07 05:00:00.0000000 USERNAME: csperling code is: Saskatoon enity name: GP108 ; Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice information. Date when invoice was created: 2020-12-15 05:00:00.0000000 BI CODE is - Saskatoon ven id = 102SAS03 USERNAME =  jsiemens also enity name: GP108</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice My details are - my BICODE is : Saskatoon , entity name -  GP108 created by jsiemens and dates = 2020-10-14 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up I privation status of my invoice Details: bi code = Saskatoon USERNAME is lstriemer , dates - 2020-11-04 05:00:00.0000000 i have the follwoing Invoice Number: 2095838 the name of an enity is GP108</t>
-  </si>
-  <si>
-    <t>hello , code is: Edmonton SW my vend id 115ALB01 and the time when my invoice was created is: 2023-02-27 05:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice ; Business Unit ID is Edmonton SW Inv_Num: A12 , dates - 2023-03-03 05:00:00.0000000 the username of the person who created invoice : svc_UiPath Thank you</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status . Here's my information: the BI_CODE = Saskatoon , ;</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice , created by kbruce , , ENTITY_ID is : GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello , get me my Invoice. username = csperling INVOICE Num: 2094978 ; Business Unit ID is Saskatoon VENDOR_ID = 102SAS03 , my entity name is GP108 dates = 2020-09-24 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello . get me my Invoice . my BICODE is : Saskatoon also my entity name is GP108 , person who created my invoice: tbreckner inv num: 2092055 Thank you</t>
-  </si>
-  <si>
-    <t>Hey , InvNum = 2093971 ; the BI_CODE = Saskatoon VENDOR_ID = 102SAS03 Date when invoice was created: 2020-08-07 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey invoice status , USERNAME is jsiemens ; date: 2020-08-06 04:00:00.0000000 VENDOR_ID = 102SAS03</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice. ent id = GFL10 , ven id 102SAS01 number of my invoice 1075 the BI_CODE = Regina , USERNAME: cyunick ; date of the invoice creation is: 2020-10-15 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up I privation to get my Invoice status ; I have the following information. the time when my invoice was created is: 2020-06-25 04:00:00.0000000 , BI CODE is - Saskatoon entity name -  GP108 , username = rpolichuk</t>
-  </si>
-  <si>
-    <t>What's up , what is my invoice status Details: my VENDOR_ID is 102SAS01 person who created my invoice: cyunick , dates is2020-07-16 04:00:00.0000000 , Thank you</t>
-  </si>
-  <si>
-    <t>Hey , invoice status . Details: the BI_CODE = Regina , id of my Vendor = 102SAS01 and dates is2020-08-17 04:00:00.0000000 ; username = cyunick Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice My details are - i have the follwoing Vendor ID: 102SAS01 also Date when invoice was created: 2020-09-17 04:00:00.0000000 , USERNAME =  cyunick</t>
-  </si>
-  <si>
-    <t>hello My details are - entity name -  GFL10 , vendor id: 102SAS01 Thank you</t>
-  </si>
-  <si>
-    <t>hello . information. VENDORID is102ALB02 , USERNAME =  bjaindl also my business code is ABN enity id = GP108 Thank you</t>
-  </si>
-  <si>
-    <t>hello , give me invoice My details are - my VENDOR_ID is 102SAS01 also my business code is Regina USERNAME is cyunick and , the name of an enity is GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello . give me invoice ; information. USERNAME is twelsh the name of an enity is GFL10 and VENDOR_ID = 095BCL01 Unit ID: Chemainus</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice . Here's my information: USERNAME: twelsh , business code is something like this: Chemainus ent id = GFL10 also Thank you</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice details. entity name -  GFL10 and also the time when my invoice was created is: 2022-05-06 04:00:00.0000000 VENDOR_ID = 095BCL01 Thank you</t>
-  </si>
-  <si>
-    <t>hello , get me my Invoice. BUID = joyce.berg bi code = Medicine Hat ; Date when invoice was created: 2021-05-03 04:00:00.0000000 and my vend id 112ALB01</t>
-  </si>
-  <si>
-    <t>Hey , what is my invoice status , Here's my information: created by twelsh , my business code is Chemainus the name of an enity is GFL10 invoice was created on: 2022-05-01 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello Details: bi code = Chemainus enity id = GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice Here's my information: BI CODE is - Chemainus ; InvNum = 1645 and I have the following name of invoice enntity: GFL10 date of the invoice creation is: 2022-04-10 04:00:00.0000000 and name = amy.steele</t>
-  </si>
-  <si>
-    <t>hello . get me my Invoice . My data is: id of my Vendor = 095BCL01 ent id = GFL10 also BUID = Chemainus Date when invoice was created: 2022-04-25 04:00:00.0000000 ; number of my invoice is: 1674 ; BUID = twelsh</t>
-  </si>
-  <si>
-    <t>Hey ; give me invoice . details. the name of an enity is GFL10 InvoiceNum: 1661 vendor id - 095BCL01 username = twelsh Thank you</t>
-  </si>
-  <si>
-    <t>hello ; invoice status ; details. code is: Chemainus ; enity id = GFL10 and i have the follwoing Invoice Number: 1675 dates = 2022-04-25 04:00:00.0000000 my vendor id is 095BCL01 username = twelsh</t>
-  </si>
-  <si>
-    <t>Hey give me invoice ; enity id = GFL10 and dates - 2022-04-10 04:00:00.0000000 , my BICODE is : Chemainus ; invoice Number = 1659 and i have the follwoing Vendor ID: 095BCL01</t>
-  </si>
-  <si>
-    <t>Hey give me invoice. my vend id 095BCL01 ; my BICODE is : Chemainus InvNum = 1654 , dates is2022-04-10 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello , get me my Invoice . username = twelsh dates is2022-04-10 04:00:00.0000000 ; invoice Number = 1656 and I have the following name of invoice enntity: GFL10</t>
-  </si>
-  <si>
-    <t>What's up , I privation to get my Invoice status , My details are - INVOICE Num: 1657 ; ENTITY_ID is : GFL10 invoice was created by twelsh also dates - 2022-04-10 04:00:00.0000000 ,</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice information. id of my Vendor = 095BCL01 also ; ENTITY_ID is : GFL10 and username = twelsh</t>
-  </si>
-  <si>
-    <t>I would like to have the invoice , created by twelsh vendor id - 095BCL01 date: 2022-03-31 04:00:00.0000000 , the name of an enity is GFL10 and InvNum = 1653</t>
-  </si>
-  <si>
-    <t>hello , I would like to have the invoice I have the following information. BUID = Medicine Hat ; dates = 2019-12-01 05:00:00.0000000 and num of my inv - 0000000537 ven id 112ALB01</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice . details. enity name: GFL10 BI CODE is - Medicine Hat my VENDOR_ID is 112ALB01 Thank you</t>
-  </si>
-  <si>
-    <t>hello . invoice status information. BUID = jherriman number of my invoice is: 0000000562 also my vendor id is 112ALB01 and BI CODE is - Medicine Hat also dates is2020-01-16 05:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up ; give me invoice ; My details are - dates is2020-04-07 04:00:00.0000000 the BI_CODE = Medicine Hat , my vend id 112ALB01 number of my invoice is: 0000000621 Thank you</t>
-  </si>
-  <si>
-    <t>What's up . I would like to have the invoice My details are - my VENDOR_ID is 112ALB01 number of my invoice is: 0000000643 also the name of an enity is GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice , information. ent id = GFL10 InvNum = INV-562 , person who created my invoice: nbrown also and ven id = 112ALB01</t>
-  </si>
-  <si>
-    <t>What's up . I would like to have the invoice ; details. ven id = 095BCL01 the BI_CODE = Chemainus ENTITY_ID is : GFL10 , i have the follwoing Invoice Number: 1651 dates is2022-04-10 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status. ENTITY_ID is : GFL10 username = twelsh and Business Unit ID is Chemainus ; also and Date when invoice was created: 2022-04-14 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello ; I would like to have the invoice ; My details are - my business code is Timmins date of the invoice creation is: 2020-05-20 04:00:00.0000000 ; my vendor id is 109ONT02 ,</t>
-  </si>
-  <si>
-    <t>hello invoice status . details. VENDORID is109ONT01 also date: 2023-03-03 05:00:00.0000000 enity id = GFL10 and my BICODE is : Edmonton SW Thank you</t>
-  </si>
-  <si>
-    <t>invoice status. my vend id 109ONT01 code is: Edmonton SW enity id = GFL10 Inv_Num: TEST005 created by svc_UiPath</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice . code is: Edmonton SW INVOICE Num: TEST006 I have the following name of invoice enntity: GFL10 date: 2023-03-02 05:00:00.0000000 and ,</t>
-  </si>
-  <si>
-    <t>hello ; I privation to get my Invoice status. vendor id: 109ONT01 the BI_CODE = Edmonton SW number of my invoice is: TEST 1B dates - 2023-02-23 05:00:00.0000000 created by svc_UiPath and Thank you</t>
-  </si>
-  <si>
-    <t>What's up invoice status My data is: the name of an enity is GFL10 InvNum = EXTRA11WE3 and USERNAME =  svc_UiPath also my business code is Edmonton SW ; Vendor_Id is109ONT01</t>
-  </si>
-  <si>
-    <t>What's up , what is my invoice status . Details: USERNAME is twelsh also business code is something like this: Chemainus my VENDOR_ID is 095BCL01 and</t>
-  </si>
-  <si>
-    <t>What's up , what is my invoice status Here's my information: BUID = Edmonton SW , VENDORID is109ONT01 and invoice Number = 12&amp; the time when my invoice was created is: 2022-12-03 05:00:00.0000000 ; the name of an enity is GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; give me invoice ; I have the following name of invoice enntity: GFL10 number of my invoice D3 ; date of the invoice creation is: 2022-12-02 05:00:00.0000000 business code is something like this: Edmonton SW Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me my Invoice , my inv num is EXTRA11WE2 date: 2023-02-15 05:00:00.0000000 and the BI_CODE = Edmonton SW , username = svc_UiPath also Vendor ID 109ONT01 ENTITY_ID is : GFL10</t>
-  </si>
-  <si>
-    <t>Hey ; I privation status of my invoice ; enity id = GFL10 also created by twelsh , dates = 2022-03-17 04:00:00.0000000 my code is : Henry Eng Sort Yard Thank you</t>
-  </si>
-  <si>
-    <t>what is my invoice status. ven id = 095BCL01 also Inv_Num: 1635 also also entity name -  GFL10</t>
-  </si>
-  <si>
-    <t>My data is: number of my invoice 1643 my entity name is GFL10 ; VENDORID is095BCL01 ;</t>
-  </si>
-  <si>
-    <t>hello . what is my invoice status. date: 2022-03-14 04:00:00.0000000 vendor id: 095BCL01 also ; userNAME - amy.steele I have the following name of invoice enntity: GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I would like to have the invoice ; information. InvoiceNum: 1727 dates = 2021-05-10 04:00:00.0000000 Vendor_Id: 101SAS06 USERNAME is tgore my business code is Saskatoon ;</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice My details are - InvoiceNum: 19-1108 , entity name -  GFL10 and business code is something like this: Hamilton ven id 109ONT01 USERNAME is lspencer Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice information. the time when my invoice was created is: 2021-07-13 04:00:00.0000000 vendor id: 101SAS06 ; i have the follwoing Invoice Number: 1833 name = rpolichuk also my BICODE is : Saskatoon</t>
-  </si>
-  <si>
-    <t>hello . invoice status Here's my information: USERNAME: amy.steele enity id = GFL10 dates - 2022-03-10 05:00:00.0000000 id of my Vendor = 095BCL01 number of my invoice = 1631 ;</t>
-  </si>
-  <si>
-    <t>What's up invoice status , username = tgore ; InvoiceNum is 1727 ; also dates - 2021-05-10 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up I would like to have the invoice My details are - Date when invoice was created: 2022-08-17 04:00:00.0000000 ENTITY_ID is : GP108 my VENDOR_ID is 101SAS04 number of my invoice 220731-05 ,</t>
-  </si>
-  <si>
-    <t>hello ; what is my invoice status , BUID = BJ Bear i have the follwoing Invoice Number: 107580 also username = dtaylor enity id = GFL10 invoice was created on: 2021-12-31 05:00:00.0000000 Vendor ID 108CAN01 Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status , ENTITY_ID is : GP108 BI CODE is - Saskatoon ; Date when invoice was created: 2020-09-22 04:00:00.0000000 and person who created my invoice: szeleny ,</t>
-  </si>
-  <si>
-    <t>Hey , give me invoice ; Here's my information: number of my invoice = 220331-06 date: 2022-03-31 04:00:00.0000000 my business code is Saskatoon VENDOR_ID = 101SAS04 Thank you</t>
-  </si>
-  <si>
-    <t>Hey ; I privation status of my invoice information. ven id 101SAS04 also ; name = zmerilees ent id = GP108 my business code is Saskatoon</t>
-  </si>
-  <si>
-    <t>Hey ; I would like to have the invoice . My data is: business code is something like this: Regina also I have the following name of invoice enntity: GP108 created by tbricsak InvoiceNum is 220630-06</t>
-  </si>
-  <si>
-    <t>What's up invoice status ; Here's my information: my vend id 101SAS04 , also num of my inv - 220430-06 bi code = Saskatoon ,</t>
-  </si>
-  <si>
-    <t>hello . I privation status of my invoice , name = zmerilees , InvoiceNum is 220228-06 BI CODE is - Saskatoon , id of my Vendor = 101SAS04 ENTITY_ID is : GP108 invoice was created on: 2022-02-28 05:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up ; I privation to get my Invoice status . Here's my information: USERNAME is tbreckner and enity name: GP108 , date of the invoice creation is: 2022-01-31 05:00:00.0000000 my vendor id is 101SAS04</t>
-  </si>
-  <si>
-    <t>I would like to have the invoice . My details are - username = zmerilees ; number of my invoice = 211231-05 my BICODE is : Saskatoon dates is2021-12-31 05:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice . Here's my information: i have the follwoing Invoice Number: 211130-05 ENTITY_ID is : GP108 ; , BUID = jharms and my VENDOR_ID is 101SAS04</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice ; My details are - the username of the person who created invoice : jharms also enity name: GP108 InvoiceNum: 210831-01 date: 2021-08-31 04:00:00.0000000 id of my Vendor = 101SAS04 Thank you</t>
-  </si>
-  <si>
-    <t>Hey I would like to have the invoice information. username = bjaindl invoice Number = 210930-05 bi code = Saskatoon</t>
-  </si>
-  <si>
-    <t>Hey , details. dates = 2021-07-31 04:00:00.0000000 i have the follwoing Invoice Number: 210731-05 VENDORID is101SAS04 ; the username of the person who created invoice : jharms and I have the following name of invoice enntity: GP108 Thank you</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status Here's my information: date of the invoice creation is: 2021-10-31 04:00:00.0000000 BUID = Saskatoon , invoice was created by jharms also inv num: 211031-05 Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; I privation to get my Invoice status ; id of my Vendor = 101SAS04 also ; inv num: 210630-05 enity id = GP108 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; get me my Invoice My data is: date: 2021-05-31 04:00:00.0000000 my vendor id is 101SAS04 ; ent id = GP108 Unit ID: Saskatoon num of my inv - 210531-05</t>
-  </si>
-  <si>
-    <t>hello . I privation to get my Invoice status , Here's my information: USERNAME is tbreckner also dates - 2021-04-30 04:00:00.0000000 the BI_CODE = Saskatoon InvoiceNum = 210430-05</t>
-  </si>
-  <si>
-    <t>hello Details: my entity name is GP108 the BI_CODE = Saskatoon name = tbreckner invoice was created on: 2021-04-30 04:00:00.0000000 , and my vend id 101SAS04</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice My data is: I have the following name of invoice enntity: GP108 created by tbreckner , date of the invoice creation is: 2021-03-31 04:00:00.0000000 my BICODE is : Saskatoon also number of my invoice 210331-05</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice ; vendor id: 101SAS04 USERNAME: tbreckner also I have the following name of invoice enntity: GP108 and number of my invoice 20210228-05 , also</t>
-  </si>
-  <si>
-    <t>hello , details. InvoiceNum = 210331-05 ; entity name -  GP108 ; and the BI_CODE = Saskatoon</t>
-  </si>
-  <si>
-    <t>What's up , My data is: USERNAME is tbreckner dates is2021-02-28 05:00:00.0000000 ; business code is something like this: Saskatoon Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; I privation status of my invoice , ent id = GP108 , bi code = Saskatoon , username = tbreckner and date: 2020-12-31 05:00:00.0000000 and ven id = 101SAS04</t>
-  </si>
-  <si>
-    <t>hello , I privation status of my invoice . I have the following information. ven id = 101SAS04 , invoice was created by tbreckner , the name of an enity is GP108 and my code is : Saskatoon Date when invoice was created: 2021-01-31 05:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>Hey . Details: vendor id: 101SAS04 BI CODE is - Saskatoon , USERNAME =  tbreckner date of the invoice creation is: 2020-11-30 05:00:00.0000000 , Inv_Num is 201130-04 Thank you</t>
-  </si>
-  <si>
-    <t>hello , invoice status . My details are - Date when invoice was created: 2020-05-01 04:00:00.0000000 Vendor_Id is101SAS04 business code is something like this: Saskatoon also created by tbreckner my entity name is GP108 Inv_Num is 200531-04</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice , id of my Vendor = 101SAS04 and invoice was created by jharms I have the following name of invoice enntity: GP108 ; date: 2020-10-31 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up . Here's my information: the time when my invoice was created is: 2020-08-31 04:00:00.0000000 and USERNAME: tbreckner VENDOR_ID = 101SAS04 Business Unit ID is Saskatoon I have the following name of invoice enntity: GP108 and number of my invoice is: 200831-04</t>
-  </si>
-  <si>
-    <t>Hey , I privation status of my invoice . Here's my information: Inv_Num is 06-05 and userNAME - jharms ven id 101SAS04 also enity id = GP108 Thank you</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice I have the following information. person who created my invoice: tbreckner dates is2020-07-31 04:00:00.0000000 Inv_Num: 20-0704 and enity name: GP108 Thank you</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status , My details are - I have the following name of invoice enntity: GFL10 code is: BJ Bear ; , my vend id 108CAN01 , username = shenrich</t>
-  </si>
-  <si>
-    <t>hello invoice status , inv num: 210120 ENTITY_ID is : GFL10 ; , the time when my invoice was created is: 2020-12-20 05:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up what is my invoice status My data is: dates - 2020-06-01 04:00:00.0000000 ; person who created my invoice: cyunick the BI_CODE = Estevan and INVOICE Num: 200601 ent id = GFL10</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice , details. BI CODE is - Vancouver Fleet ; person who created my invoice: spiscitelli , InvoiceNum = 67949 and</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status . details. business code is something like this: TLRegional Vendor_Id is100CAN01 and and name = bhennig date of the invoice creation is: 2022-10-03 04:00:00.0000000 number of my invoice is: 19977374 100322 Thank you</t>
-  </si>
-  <si>
-    <t>hello , I privation status of my invoice , Here's my information: invoice was created by spiscitelli the time when my invoice was created is: 2020-10-20 04:00:00.0000000 also and Thank you</t>
-  </si>
-  <si>
-    <t>I privation to get my Invoice status ; I have the following information. ent id = GP806 and my BICODE is : Vancouver Fleet and and Vendor_Id: 100CAN02 and Inv_Num: 67916 Thank you</t>
-  </si>
-  <si>
-    <t>What's up . give me invoice My details are - invoice Number = 103314 the time when my invoice was created is: 2020-05-31 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey , I privation to get my Invoice status . My data is: InvoiceNum: 102957 ; Vendor_Id: 108CAN01 ; ENTITY_ID is : GFL10 and USERNAME =  shenrich Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status My details are - invoice Number = 103209 Date when invoice was created: 2020-05-15 04:00:00.0000000 also enity id = GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; what is my invoice status . Details: my BICODE is : BJ Bear also Vendor_Id: 108CAN01 dates is2020-03-31 04:00:00.0000000 invoice was created by shenrich ENTITY_ID is : GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; Details: vendor id - 108CAN01 , ; USERNAME =  shenrich dates - 2020-04-30 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status. i have the follwoing Vendor ID: 100CAN01 also Business Unit ID is TLRegional Inv_Num: 19977374090522 ; I have the following name of invoice enntity: GFL10 , username = bhennig</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice My details are - i have the follwoing Vendor ID: 100CAN01 Business Unit ID is TLRegional BUID = bhennig my entity name is GFL10 also date of the invoice creation is: 2022-08-08 04:00:00.0000000 also number of my invoice 19977374 080822 Thank you</t>
-  </si>
-  <si>
-    <t>Hey ; get me my Invoice Details: ent id = GFL10 my VENDOR_ID is 108CAN01 also USERNAME: rwilk also my code is : BJ Bear</t>
-  </si>
-  <si>
-    <t>What's up I privation to get my Invoice status My details are - the username of the person who created invoice : ethomson , ENTITY_ID is : GFL10 Vendor ID 100CAN01 also BUID = TLRegional Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status information. inv num: 19977374113020 I have the following name of invoice enntity: GFL10 and invoice was created by ethomson Vendor_Id is100CAN01 Date when invoice was created: 2020-11-30 05:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up give me invoice . information. Unit ID: TLRegional my entity name is GFL10 ; VENDORID is100CAN01 Date when invoice was created: 2020-12-28 05:00:00.0000000 , name = ethomson</t>
-  </si>
-  <si>
-    <t>hello invoice status . My data is: the username of the person who created invoice : ethomson date: 2019-12-30 05:00:00.0000000 bi code = TLRegional</t>
-  </si>
-  <si>
-    <t>Hey ; I privation to get my Invoice status. invoice was created on: 2021-01-25 05:00:00.0000000 my entity name is GFL10 ; Thank you</t>
-  </si>
-  <si>
-    <t>Hey give me invoice . My data is: my BICODE is : Ground Force id of my Vendor = 107ONT01 dates - 2020-12-30 05:00:00.0000000 USERNAME =  mfarkouh enity id = GFL10</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status My details are - VENDOR_ID = 100CAN01 and number of my invoice is: 19977374110220 also dates = 2020-11-02 05:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me my Invoice , My details are - enity name: GFL10 dates is2020-10-05 04:00:00.0000000 name = ethomson my BICODE is : TLRegional and Vendor_Id: 100CAN01 Thank you</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice , My data is: InvoiceNum: 19977374081020 also the username of the person who created invoice : ethomson also id of my Vendor : 100CAN01 I have the following name of invoice enntity: GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>What's up . get me my Invoice Details: Vendor_Id is100CAN01 enity id = GFL10 created by ethomson Inv_Num: 19977374071320</t>
-  </si>
-  <si>
-    <t>Hey invoice status ; information. person who created my invoice: ethomson number of my invoice is: 19977374051820 my VENDOR_ID is 100CAN01 Date when invoice was created: 2020-05-18 04:00:00.0000000 enity name: GFL10 bi code = TLRegional</t>
-  </si>
-  <si>
-    <t>hello invoice status information. my VENDOR_ID is 100CAN01 enity id = GP108 and the BI_CODE = ABN and date: 2020-08-11 04:00:00.0000000 ; num of my inv is19977915 081120 Thank you</t>
-  </si>
-  <si>
-    <t>What's up I would like to have the invoice , the time when my invoice was created is: 2020-06-15 04:00:00.0000000 and the BI_CODE = TLRegional entity name -  GFL10 , Inv_Num: 19977374061520 , my VENDOR_ID is 100CAN01 person who created my invoice: ethomson Thank you</t>
-  </si>
-  <si>
-    <t>hello , Here's my information: invoice was created on: 2020-07-14 04:00:00.0000000 also also my code is : ABN and my entity name is GP108 also Thank you</t>
-  </si>
-  <si>
-    <t>hello , get me my Invoice , details. dates is2020-09-07 04:00:00.0000000 number of my invoice 19977374 090720 also , I have the following name of invoice enntity: GFL10</t>
-  </si>
-  <si>
-    <t>hello , give me my Invoice ; Here's my information: the time when my invoice was created is: 2020-11-23 05:00:00.0000000 and Unit ID: Ground Force BUID = tmian number of my invoice = W03044 Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me my Invoice . id of my Vendor : 100CAN01 ; BUID = Jamie.Johnson</t>
-  </si>
-  <si>
-    <t>Hey I would like to have the invoice My data is: entity name -  GP108 invoice was created on: 2020-04-21 04:00:00.0000000 , the username of the person who created invoice : Jamie.Johnson , my VENDOR_ID is 100CAN01 Thank you</t>
-  </si>
-  <si>
-    <t>I privation to get my Invoice status , dates - 2020-03-24 04:00:00.0000000 BUID = Jamie.Johnson also VENDOR_ID = 100CAN01 and my code is : ABN , my entity name is GP108 Thank you</t>
-  </si>
-  <si>
-    <t>hello . invoice status Details: VENDORID is100CAN01 my business code is ABN and and Inv_Num is 19977915 022520</t>
-  </si>
-  <si>
-    <t>hello , I privation to get my Invoice status ; Details: my code is : ABN also dates is2019-12-31 05:00:00.0000000 num of my inv is19977915 123119 ;</t>
-  </si>
-  <si>
-    <t>hello ; I privation to get my Invoice status Here's my information: username = Jamie.Johnson dates = 2019-12-29 05:00:00.0000000 my vend id 100CAN01 bi code = ABN</t>
-  </si>
-  <si>
-    <t>give me my Invoice My details are - ENTITY_ID is : GP108 id of my Vendor : 100CAN01 inv num: 19974690 061420 invoice was created on: 2020-06-14 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello . information. Vendor_Id is100CAN01 entity name -  GP108 InvoiceNum: 19977915 012820 dates - 2020-01-28 05:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice Here's my information: username = Jamie.Johnson ; my vend id 100CAN01 also and business code is something like this: ABN date of the invoice creation is: 2020-07-12 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up Here's my information: invoice was created by Jamie.Johnson InvNum = 19974690 041920 my entity name is GP108 and</t>
-  </si>
-  <si>
-    <t>hello , give me invoice. my vendor id is 100CAN01 and ; Date when invoice was created: 2020-02-23 05:00:00.0000000 Business Unit ID is ABN ; ent id = GP108</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice I have the following information. my VENDOR_ID is 100CAN01 BUID = Jamie.Johnson and InvNum = 19974690 032220 , invoice was created on: 2020-03-22 04:00:00.0000000 enity name: GP108 and my code is : ABN</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice . My details are - dates = 2020-05-17 04:00:00.0000000 my vendor id is 100CAN01 , invoice was created by Jamie.Johnson and my BICODE is : ABN , ENTITY_ID is : GP108 num of my inv is19974690 051720 Thank you</t>
-  </si>
-  <si>
-    <t>What's up I would like to have the invoice , information. Date when invoice was created: 2020-05-19 04:00:00.0000000 , and USERNAME =  cvorra and enity id = GP108 InvoiceNum: 19977915 051920 Thank you</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice ; My data is: ent id = GFL10 Vendor_Id: 100BCL01 dates - 2023-02-23 05:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status information. Date when invoice was created: 2020-01-26 05:00:00.0000000 ; BUID = Jamie.Johnson ENTITY_ID is : GP108 Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I privation to get my Invoice status My details are - the BI_CODE = ABN VENDOR_ID = 100CAN01 enity id = GP108 InvoiceNum is 19977915 051920 and USERNAME =  joan.marshall and dates - 2020-05-19 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>Hey I would like to have the invoice , dates is2022-05-09 04:00:00.0000000 the username of the person who created invoice : amy.steele , ent id = GFL10 the BI_CODE = Chemainus i have the follwoing Invoice Number: 2026 Thank you</t>
-  </si>
-  <si>
-    <t>hello . I would like to have the invoice ; My details are - date: 2020-09-06 04:00:00.0000000 also inv num: R04106 entity name -  GFL10 also my business code is Ground Force USERNAME =  tmian</t>
-  </si>
-  <si>
-    <t>Hey . give me my Invoice ; information. ENTITY_ID is : GFL10 also invoice was created by amy.steele id of my Vendor = 100BCL01 also Date when invoice was created: 2022-07-05 04:00:00.0000000 code is: Chemainus , number of my invoice 2073 Thank you</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice , enity name: GP108 code is: VTF Date when invoice was created: 2022-04-24 04:00:00.0000000 also name = sdavies Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice. I have the following name of invoice enntity: GFL10 USERNAME is bstauffer Business Unit ID is Victoria Coast and inv num: 1959 dates - 2022-02-06 05:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up give me invoice details. VENDORID is100BCL01 , invoice was created on: 2022-04-24 04:00:00.0000000 BUID = sdavies ; my business code is Nanaimo my entity name is GP108</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice , My details are - BUID = Chemainus dates = 2022-03-28 04:00:00.0000000 userNAME - bstauffer VENDOR_ID = 100BCL01 , and InvoiceNum = 1981</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status Here's my information: Date when invoice was created: 2022-01-15 05:00:00.0000000 , i have the follwoing Invoice Number: 1930 my code is : SPL , ; Vendor_Id is100BCL01</t>
-  </si>
-  <si>
-    <t>What's up I would like to have the invoice information. I have the following name of invoice enntity: GFL10 and bi code = Victoria Coast , dates is2021-10-31 04:00:00.0000000 ; Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; I privation status of my invoice Here's my information: vendor id - 100BCL01 also date of the invoice creation is: 2021-12-08 05:00:00.0000000 also the BI_CODE = Victoria Coast number of my invoice is: 1906 , my entity name is GFL10</t>
-  </si>
-  <si>
-    <t>I would like to have the invoice. Unit ID: Victoria Coast BUID = bstauffer and i have the follwoing Invoice Number: 1815 ent id = GFL10 and invoice was created on: 2021-08-16 04:00:00.0000000 , my vend id 100BCL01</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice . Here's my information: bi code = Victoria Coast also Inv_Num: 1864 dates = 2021-10-20 04:00:00.0000000 ; enity name: GFL10 userNAME - bstauffer</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status . Here's my information: Unit ID: Victoria Coast date of the invoice creation is: 2021-03-29 04:00:00.0000000 USERNAME is bstauffer my entity name is GFL10 ven id 100BCL01 ; num of my inv is1693 Thank you</t>
-  </si>
-  <si>
-    <t>What's up . I privation to get my Invoice status information. BUID = Victoria Coast , USERNAME: bstauffer dates = 2021-07-29 04:00:00.0000000 ven id 100BCL01</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status ; Details: id of my Vendor = 100BCL01 ; business code is something like this: Victoria Coast , number of my invoice = 1748 username = bstauffer , dates = 2021-05-27 04:00:00.0000000 and Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice . My data is: BUID = Victoria Coast also also enity id = GFL10 the time when my invoice was created is: 2021-04-25 04:00:00.0000000 USERNAME is bstauffer also VENDOR_ID = 100BCL01</t>
-  </si>
-  <si>
-    <t>What's up I privation status of my invoice I have the following information. bi code = Cranbrook Hauling TS LF inv num: 9741 vendor id: 096BCX01 also entity name -  GFL10 ; dates - 2021-08-31 04:00:00.0000000 USERNAME =  etanner Thank you</t>
-  </si>
-  <si>
-    <t>Hey . give me my Invoice , Here's my information: InvoiceNum: 1505 I have the following name of invoice enntity: GFL10 Date when invoice was created: 2020-07-25 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice. ENTITY_ID is : GFL10 INVOICE Num: 9856 and also id of my Vendor = 096BCX01 dates is2021-09-29 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>Hey ; what is my invoice status information. num of my inv is10183 USERNAME =  etanner ; VENDOR_ID = 096BCX01 enity name: GFL10 bi code = Cranbrook Hauling TS LF Thank you</t>
-  </si>
-  <si>
-    <t>information. enity id = GP108 also my business code is Levis InvoiceNum = ACCRUALS AVRILMAI-JU also person who created my invoice: julie.girard ; VENDOR_ID = 096BCX01</t>
-  </si>
-  <si>
-    <t>hello give me invoice. Vendor_Id is096BCX01 ; the time when my invoice was created is: 2021-06-30 04:00:00.0000000 and Unit ID: Cranbrook Hauling TS LF ; InvoiceNum is 9509 invoice was created by etanner</t>
-  </si>
-  <si>
-    <t>hello ; give me my Invoice ; Details: Vendor ID 096BCX01 InvoiceNum: 10399 , BI CODE is - Cranbrook Hauling TS LF and my entity name is GFL10</t>
-  </si>
-  <si>
-    <t>What's up . give me my Invoice . information. enity name: GFL10 VENDOR_ID = 107ONT01 invoice was created on: 2020-05-29 04:00:00.0000000 ; the BI_CODE = Ground Force Thank you</t>
-  </si>
-  <si>
-    <t>Hey . give me invoice . I have the following information. the name of an enity is GFL10 and Business Unit ID is Ground Force VENDORID is107ONT01 name = jberisha and date: 2020-05-29 04:00:00.0000000 InvNum = R03922</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice I have the following information. VENDOR_ID = 107ONT01 , the username of the person who created invoice : jasinas date of the invoice creation is: 2020-05-25 04:00:00.0000000 , ENTITY_ID is : GP804 Inv_Num: AR14304 Thank you</t>
-  </si>
-  <si>
-    <t>Hey get me my Invoice Details: num of my inv - 0 and code is: Accuworx ; VENDORID is107ONT01 the username of the person who created invoice : jasinas enity id = GP804 and dates - 2020-05-28 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey ; get me my Invoice My details are - my VENDOR_ID is 107ONT01 enity name: GFL10 also my business code is Ground Force and USERNAME =  jberisha i have the follwoing Invoice Number: R03914 also Date when invoice was created: 2020-05-29 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status . details. my inv num is R03889 , code is: Ground Force also the username of the person who created invoice : jberisha , enity name: GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>Hey I would like to have the invoice , details. business code is something like this: Ground Force , Date when invoice was created: 2020-04-24 04:00:00.0000000 InvoiceNum is R03890 userNAME - jberisha Thank you</t>
-  </si>
-  <si>
-    <t>Hey , I privation to get my Invoice status. InvoiceNum: R03901 BI CODE is - Ground Force and USERNAME is jberisha also VENDOR_ID = 107ONT01</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status . My details are - vendor id - 107ONT01 ; entity name -  GFL10 date: 2020-04-24 04:00:00.0000000 BI CODE is - Ground Force also InvoiceNum = R03891</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice details. USERNAME: jberisha ; , Vendor_Id: 107ONT01 ;</t>
-  </si>
-  <si>
-    <t>hello , invoice status details. my code is : Ground Force , Date when invoice was created: 2020-04-14 04:00:00.0000000 my vendor id is 107ONT01 and Thank you</t>
-  </si>
-  <si>
-    <t>give me invoice Details: Date when invoice was created: 2020-01-16 05:00:00.0000000 number of my invoice is: 14095061 and Business Unit ID is Windsor Disposal</t>
-  </si>
-  <si>
-    <t>hello , Details: dates is2020-03-25 04:00:00.0000000 and id of my Vendor : 107ONT01 also i have the follwoing Invoice Number: R03852 also person who created my invoice: jberisha and my entity name is GFL10</t>
-  </si>
-  <si>
-    <t>What's up give me invoice , Details: Date when invoice was created: 2021-03-31 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice Details: BUID = Cranbrook Hauling TS LF Vendor_Id is096BCX01 also date of the invoice creation is: 2021-05-31 04:00:00.0000000 , name = etanner my entity name is GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice My data is: i have the follwoing Vendor ID: 096BCX01 also number of my invoice is: 8381 ENTITY_ID is : GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status , My data is: num of my inv is9259 code is: Cranbrook Hauling TS LF and my VENDOR_ID is 096BCX01</t>
-  </si>
-  <si>
-    <t>What's up . invoice status My data is: dates = 2020-12-28 05:00:00.0000000 userNAME - etanner also number of my invoice is: 8354 bi code = Cranbrook Hauling TS LF enity id = GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>I privation status of my invoice ; information. USERNAME: etanner ; BUID = Cranbrook Hauling TS LF ENTITY_ID is : GFL10 VENDOR_ID = 096BCX01 InvoiceNum is 8976</t>
-  </si>
-  <si>
-    <t>get me my Invoice Here's my information: ven id = 096BCX01 also BUID = etanner ; , Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I privation to get my Invoice status information. ENTITY_ID is : GFL10 INVOICE Num: 7609 my BICODE is : Cranbrook Hauling TS LF ; USERNAME =  etanner</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice . details. BUID = Cranbrook Hauling TS LF date of the invoice creation is: 2020-06-30 04:00:00.0000000 VENDOR_ID = 096BCX01 ; InvNum = 7486 enity id = GFL10</t>
-  </si>
-  <si>
-    <t>Hey ; give me my Invoice. Date when invoice was created: 2020-05-01 04:00:00.0000000 ; Vendor_Id: 107BCX01 ; bi code = First Class ; ENTITY_ID is : GFL10 ; USERNAME =  cdickinson</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status ; Details: my vendor id is 096BCX01 also my inv num is 7502 ENTITY_ID is : GFL10 and USERNAME is etanner BUID = Cranbrook Hauling TS LF Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice details. vendor id: 107BCX01 num of my inv is4 created by cdickinson and business code is something like this: Vancouver Hauling , ENTITY_ID is : GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>What's up I would like to have the invoice ; information. the username of the person who created invoice : twelsh i have the follwoing Invoice Number: 1743 Unit ID: Chemainus , Date when invoice was created: 2022-06-29 04:00:00.0000000 ven id 095BCL01 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice . I have the following information. my entity name is GFL10 number of my invoice is: 1757 also Vendor_Id: 095BCL01 ; date of the invoice creation is: 2022-06-30 04:00:00.0000000 ;</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice ; information. Unit ID: Chemainus ; USERNAME is twelsh and ven id 095BCL01 enity name: GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>I would like to have the invoice. ent id = GFL10 number of my invoice is: 1795 USERNAME: twelsh and Thank you</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice ; Details: VENDOR_ID = 102SAS03 InvoiceNum: EXTRAWE5 dates - 2023-02-15 05:00:00.0000000 and userNAME - svc_UiPath also I have the following name of invoice enntity: GFL10</t>
-  </si>
-  <si>
-    <t>Hey , I would like to have the invoice . My data is: code is: Chemainus , ENTITY_ID is : GFL10 , date: 2022-07-15 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello . give me my Invoice Here's my information: USERNAME is twelsh , num of my inv - 1793 Thank you</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice Details: BI CODE is - Chemainus also username = twelsh and my entity name is GFL10 vendor id: 095BCL01 ; number of my invoice is: 1791 Thank you</t>
-  </si>
-  <si>
-    <t>Hey I privation to get my Invoice status My details are - dates is2023-02-15 05:00:00.0000000 Inv_Num is EXTRAWE3 ; entity name -  GFL10</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status ; My data is: my BICODE is : Edmonton SW and Vendor ID 102SAS03 also enity name: GFL10</t>
-  </si>
-  <si>
-    <t>hello . get me my Invoice. number of my invoice SATD BI CODE is - Edmonton SW the username of the person who created invoice : svc_UiPath , invoice was created on: 2023-02-04 05:00:00.0000000 also ENTITY_ID is : GFL10 id of my Vendor = 102SAS03</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice Details: Inv_Num is SAT34 , code is: Edmonton SW ; and Date when invoice was created: 2023-02-04 05:00:00.0000000 VENDORID is102SAS03</t>
-  </si>
-  <si>
-    <t>hello . give me invoice ; My details are - date: 2022-11-30 05:00:00.0000000 , userNAME - svc_UiPath InvoiceNum = RG4 my entity name is GFL10</t>
-  </si>
-  <si>
-    <t>hello , get me my Invoice Here's my information: dates = 2022-08-12 04:00:00.0000000 name = twelsh also Inv_Num is 1790 , Business Unit ID is Chemainus enity name: GFL10</t>
-  </si>
-  <si>
-    <t>give me my Invoice. USERNAME: svc_UiPath BUID = Edmonton SW VENDORID is102SAS03</t>
-  </si>
-  <si>
-    <t>hello ; give me my Invoice Details: VENDORID is102SAS03 , BI CODE is - Edmonton SW</t>
-  </si>
-  <si>
-    <t>Hey , what is my invoice status . information. entity name -  GFL10 USERNAME =  twelsh InvNum = 1786 ven id = 095BCL01 Thank you</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice , Unit ID: Chemainus and my vend id 095BCL01 userNAME - twelsh ;</t>
-  </si>
-  <si>
-    <t>What's up what is my invoice status ; ent id = GFL10 and bi code = Chemainus ; id of my Vendor = 095BCL01</t>
-  </si>
-  <si>
-    <t>give me my Invoice . My data is: USERNAME =  twelsh and number of my invoice 1789 ,</t>
-  </si>
-  <si>
-    <t>hello . give me invoice . information. BI CODE is - Chemainus also number of my invoice = 1783 also entity name -  GFL10 the username of the person who created invoice : twelsh</t>
-  </si>
-  <si>
-    <t>get me my Invoice , USERNAME is twelsh ; my entity name is GFL10 dates is2022-08-12 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey . what is my invoice status , My details are - ent id = GFL10 dates = 2022-08-12 04:00:00.0000000 also</t>
-  </si>
-  <si>
-    <t>invoice status ; Details: dates - 2022-08-12 04:00:00.0000000 and my entity name is GFL10 code is: Chemainus the username of the person who created invoice : twelsh i have the follwoing Invoice Number: 1782 Vendor ID 095BCL01</t>
-  </si>
-  <si>
-    <t>hello ; I would like to have the invoice , my inv num is 1778 date of the invoice creation is: 2022-08-12 04:00:00.0000000 id of my Vendor : 095BCL01 entity name -  GFL10 BI CODE is - Chemainus also</t>
-  </si>
-  <si>
-    <t>hello ; Here's my information: Inv_Num: 1777 USERNAME: twelsh BUID = Chemainus ENTITY_ID is : GFL10 ; dates = 2022-07-15 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me my Invoice , Details: bi code = Chemainus inv num: 1779 ven id = 095BCL01 also dates = 2022-07-15 04:00:00.0000000 , BUID = twelsh Thank you</t>
-  </si>
-  <si>
-    <t>What's up give me invoice . I have the following information. number of my invoice is: 1781 and ; Thank you</t>
-  </si>
-  <si>
-    <t>hello ; I would like to have the invoice My data is: Vendor ID 095BCL01 and i have the follwoing Invoice Number: 1767 also code is: Chemainus the name of an enity is GFL10 also USERNAME is twelsh</t>
-  </si>
-  <si>
-    <t>hello give me invoice details. enity name: GFL10 Inv_Num: 1776 , USERNAME is twelsh and Thank you</t>
-  </si>
-  <si>
-    <t>hello , what is my invoice status. date: 2022-07-31 04:00:00.0000000 my vendor id is 095BCL01 also number of my invoice is: 1766 the name of an enity is GFL10 and USERNAME =  twelsh</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice Here's my information: Vendor_Id is095BCL01 , dates is2022-07-31 04:00:00.0000000 , username = twelsh INVOICE Num: 1765 Thank you</t>
-  </si>
-  <si>
-    <t>What's up . invoice status , Here's my information: number of my invoice = 2101302 my BICODE is : Saskatoon USERNAME =  csperling Date when invoice was created: 2021-08-25 04:00:00.0000000 ;</t>
-  </si>
-  <si>
-    <t>What's up ; what is my invoice status Here's my information: Vendor_Id is095BCL01 Unit ID: Chemainus</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice Here's my information: number of my invoice 1754 , my entity name is GFL10 also ven id 095BCL01 BI CODE is - Chemainus date of the invoice creation is: 2022-07-04 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>get me my Invoice , My data is: created by twelsh ent id = GFL10 , dates = 2022-07-15 04:00:00.0000000 , id of my Vendor = 095BCL01</t>
-  </si>
-  <si>
-    <t>Hey ; give me invoice , I have the following information. i have the follwoing Invoice Number: 1750 ven id 095BCL01 , my business code is Chemainus and I have the following name of invoice enntity: GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello what is my invoice status . information. dates - 2022-07-04 04:00:00.0000000 invoice Number = 1751 also userNAME - twelsh , BUID = Chemainus</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice details. vendor id: 095BCL01 the name of an enity is GFL10 ; Inv_Num: 1749</t>
-  </si>
-  <si>
-    <t>hello , invoice status . My details are - my business code is Chemainus dates = 2022-07-04 04:00:00.0000000 num of my inv - 1752 my VENDOR_ID is 095BCL01 also also Thank you</t>
-  </si>
-  <si>
-    <t>Hey give me invoice ; Here's my information: entity name -  GFL10 , my vendor id is 095BCL01 person who created my invoice: twelsh date of the invoice creation is: 2022-07-04 04:00:00.0000000 my inv num is 1748</t>
-  </si>
-  <si>
-    <t>hello , I privation status of my invoice ; My data is: vendor id: 095BCL01 , person who created my invoice: twelsh Thank you</t>
-  </si>
-  <si>
-    <t>hello ; give me my Invoice , details. invoice Number = 1747 ; code is: Chemainus , USERNAME =  twelsh</t>
-  </si>
-  <si>
-    <t>hello . I privation to get my Invoice status , My details are - the time when my invoice was created is: 2022-07-04 04:00:00.0000000 VENDORID is095BCL01 and InvoiceNum is 1746 BUID = Chemainus and ENTITY_ID is : GFL10</t>
-  </si>
-  <si>
-    <t>Hey I privation to get my Invoice status . I have the following information. USERNAME is twelsh also BI CODE is - Chemainus the name of an enity is GFL10 dates - 2022-05-16 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status information. name = twelsh , number of my invoice is: 1707 , the time when my invoice was created is: 2022-05-23 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>Hey ; entity name -  GFL10 Business Unit ID is Chemainus also created by twelsh also date of the invoice creation is: 2022-06-29 04:00:00.0000000 ; id of my Vendor : 095BCL01 InvNum = 1744 Thank you</t>
-  </si>
-  <si>
-    <t>hello . I privation to get my Invoice status . details. enity name: GFL10 person who created my invoice: twelsh BI CODE is - Chemainus Thank you</t>
-  </si>
-  <si>
-    <t>hello ; give me my Invoice , I have the following information. USERNAME: twelsh Inv_Num is 1717 ven id 095BCL01 bi code = Chemainus ; ENTITY_ID is : GFL10 , invoice was created on: 2022-06-03 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello , I privation status of my invoice. date of the invoice creation is: 2022-06-03 04:00:00.0000000 ent id = GFL10 business code is something like this: Chemainus number of my invoice 1716 USERNAME =  twelsh Thank you</t>
-  </si>
-  <si>
-    <t>hello give me my Invoice , I have the following information. ven id = 095BCL01 I have the following name of invoice enntity: GFL10 , created by twelsh also inv num: 1719 , Date when invoice was created: 2022-05-16 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello ; I privation status of my invoice ; Details: ent id = GFL10 and Thank you</t>
-  </si>
-  <si>
-    <t>I would like to have the invoice . person who created my invoice: twelsh ; Inv_Num: 1711 enity id = GFL10 Vendor ID 095BCL01 and</t>
-  </si>
-  <si>
-    <t>hello ; I privation to get my Invoice status I have the following information. name = twelsh also my VENDOR_ID is 095BCL01 , number of my invoice is: 1715 also ent id = GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice. invoice was created on: 2022-05-06 04:00:00.0000000 also i have the follwoing Invoice Number: 1712 also business code is something like this: Chemainus also I have the following name of invoice enntity: GFL10 and my VENDOR_ID is 095BCL01</t>
-  </si>
-  <si>
-    <t>hello My details are - the name of an enity is GFL10 also InvoiceNum = 1713 USERNAME is twelsh and Unit ID: Chemainus , invoice was created on: 2022-05-16 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up ; give me invoice Details: BI CODE is - Chemainus , also ENTITY_ID is : GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; invoice status details. dates - 2022-05-31 04:00:00.0000000 Unit ID: Chemainus Vendor_Id: 095BCL01 my inv num is 1710 USERNAME =  twelsh</t>
-  </si>
-  <si>
-    <t>Hey ; invoice status , Here's my information: vendor id: 095BCL01 my business code is Chemainus ; number of my invoice = 1706 ENTITY_ID is : GFL10</t>
-  </si>
-  <si>
-    <t>What's up what is my invoice status My details are - my business code is Saskatoon Vendor_Id: 102SAS03 number of my invoice = 2092643 my entity name is GP108 also username = tbreckner , invoice was created on: 2020-06-02 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello , I privation status of my invoice , I have the following name of invoice enntity: GFL10 my vend id 095BCL01 USERNAME =  twelsh and date: 2022-06-01 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey , I privation status of my invoice ; Details: ven id = 102SAS03 and Business Unit ID is Saskatoon and i have the follwoing Invoice Number: 2091076 userNAME - jsiemens I have the following name of invoice enntity: GP108 Thank you</t>
-  </si>
-  <si>
-    <t>What's up ; what is my invoice status details. USERNAME: jsiemens and and inv num: 2092752 VENDORID is102SAS03 Thank you</t>
-  </si>
-  <si>
-    <t>hello invoice status ; I have the following information. USERNAME =  jsiemens Date when invoice was created: 2020-05-29 04:00:00.0000000 the name of an enity is GP108 ; BUID = Saskatoon also also ven id = 102SAS03 Thank you</t>
-  </si>
-  <si>
-    <t>hello . I privation to get my Invoice status ; I have the following information. date: 2020-03-12 04:00:00.0000000 and num of my inv - 2091394 , VENDORID is102SAS03 ; also the BI_CODE = Saskatoon username = jsiemens</t>
-  </si>
-  <si>
-    <t>invoice status Here's my information: I have the following name of invoice enntity: GFL10 , inv num: 1693 ; USERNAME =  twelsh Thank you</t>
-  </si>
-  <si>
-    <t>Hey invoice status information. i have the follwoing Invoice Number: 1691 the name of an enity is GFL10 also my VENDOR_ID is 095BCL01 Unit ID: Chemainus</t>
-  </si>
-  <si>
-    <t>hello I privation status of my invoice ; details. USERNAME =  twelsh I have the following name of invoice enntity: GFL10 vendor id - 095BCL01 ; date of the invoice creation is: 2022-04-15 04:00:00.0000000 the BI_CODE = Chemainus</t>
-  </si>
-  <si>
-    <t>hello give me invoice. BUID = Chemainus InvoiceNum = 1662 person who created my invoice: twelsh ; my entity name is GFL10 also Date when invoice was created: 2022-04-30 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello I privation to get my Invoice status ; Details: ent id = GFL10 Date when invoice was created: 2022-04-15 04:00:00.0000000 business code is something like this: Chemainus ven id 095BCL01 and number of my invoice is: 1682</t>
-  </si>
-  <si>
-    <t>hello ; I would like to have the invoice. the BI_CODE = Chemainus enity name: GFL10 dates = 2022-04-25 04:00:00.0000000 Vendor_Id is095BCL01 username = twelsh ; InvoiceNum is 1683</t>
-  </si>
-  <si>
-    <t>Hey get me my Invoice ; information. created by twelsh , also bi code = Chemainus entity name -  GFL10 dates is2022-05-06 04:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>Hey I privation status of my invoice. BI CODE is - Edmonton SW ENTITY_ID is : GFL10 also number of my invoice A13 name = svc_UiPath , dates = 2023-03-03 05:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice ; I have the following information. Business Unit ID is Chemainus , the username of the person who created invoice : twelsh also dates - 2022-04-15 04:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello , I privation to get my Invoice status I have the following information. username = svc_UiPath also Date when invoice was created: 2023-03-03 05:00:00.0000000 , , i have the follwoing Invoice Number: A15 business code is something like this: Edmonton SW Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice. the time when my invoice was created is: 2022-02-28 05:00:00.0000000 name = amy.steele also ; number of my invoice = 1628 BUID = Cumberland</t>
-  </si>
-  <si>
-    <t>What's up ; get me my Invoice . Here's my information: InvoiceNum: A27F223 Unit ID: Edmonton SW , BUID = svc_UiPath also ENTITY_ID is : GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>Hey invoice status ; Details: num of my inv isA14 enity id = GFL10 , ; id of my Vendor = 101SAS06 also</t>
-  </si>
-  <si>
-    <t>hello invoice status. VENDORID is101SAS06 I have the following name of invoice enntity: GFL10 Unit ID: Edmonton SW date: 2023-03-02 05:00:00.0000000 and created by svc_UiPath inv num: TEST002</t>
-  </si>
-  <si>
-    <t>hello give me invoice , date: 2023-03-02 05:00:00.0000000 ENTITY_ID is : GFL10 inv num: TEST003 also name = svc_UiPath also Thank you</t>
-  </si>
-  <si>
-    <t>hello ; invoice status information. my business code is Edmonton SW and entity name -  GFL10 number of my invoice is: NEW112N username = svc_UiPath</t>
-  </si>
-  <si>
-    <t>What's up give me invoice , My details are - number of my invoice = LAA123 , BUID = Edmonton SW , person who created my invoice: svc_UiPath ,</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice ; details. USERNAME: svc_UiPath num of my inv - LAA1231 , date: 2023-02-15 05:00:00.0000000 ;</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice . My details are - Vendor_Id: 101SAS06 and BUID = svc_UiPath , dates = 2023-02-27 05:00:00.0000000</t>
-  </si>
-  <si>
-    <t>Hey give me invoice ; name = svc_UiPath also ; Unit ID: Edmonton SW</t>
-  </si>
-  <si>
-    <t>What's up ; get me my Invoice . Here's my information: InvNum = XA11 date: 2023-02-01 05:00:00.0000000 and I have the following name of invoice enntity: GFL10 ; i have the follwoing Vendor ID: 101SAS06 also person who created my invoice: svc_UiPath ,</t>
-  </si>
-  <si>
-    <t>What's up I would like to have the invoice information. the name of an enity is GP108 number of my invoice is: 2701 ; my VENDOR_ID is 101SAS06 , userNAME - kguenther Thank you</t>
-  </si>
-  <si>
-    <t>Hey . get me my Invoice . information. Date when invoice was created: 2023-02-15 05:00:00.0000000 ; invoice was created by svc_UiPath and i have the follwoing Invoice Number: NEW112N12 bi code = Edmonton SW ; my vend id 101SAS06</t>
-  </si>
-  <si>
-    <t>Hey give me my Invoice , Details: Vendor_Id is095BCL01 num of my inv - 1630 , BI CODE is - Cumberland Date when invoice was created: 2022-03-11 05:00:00.0000000 ENTITY_ID is : GFL10 and the username of the person who created invoice : sdavies Thank you</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status Here's my information: bi code = Cumberland my vend id 095BCL01 Date when invoice was created: 2022-02-28 05:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>Hey . give me invoice. my vend id 095BCL01 person who created my invoice: amy.steele Business Unit ID is Cumberland , my entity name is GFL10 number of my invoice is: 1625</t>
-  </si>
-  <si>
-    <t>Hey . give me my Invoice . details. date of the invoice creation is: 2022-03-10 05:00:00.0000000 also BUID = Cumberland person who created my invoice: amy.steele Thank you</t>
-  </si>
-  <si>
-    <t>hello My data is: number of my invoice is: 1619 ; entity name -  GFL10 Business Unit ID is Cumberland date of the invoice creation is: 2022-02-25 05:00:00.0000000</t>
-  </si>
-  <si>
-    <t>What's up I would like to have the invoice I have the following information. username = sdavies dates - 2022-02-21 05:00:00.0000000 ; bi code = Cumberland</t>
-  </si>
-  <si>
-    <t>hello , give me invoice. Unit ID: Saskatoon my VENDOR_ID is 101SAS06 ; enity id = GP108 ; date of the invoice creation is: 2021-01-08 05:00:00.0000000 also number of my invoice 1586 username = tgore Thank you</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice Here's my information: USERNAME =  sdavies , ent id = GFL10 also vendor id - 095BCL01 also my code is : Cumberland and InvoiceNum is 1610</t>
-  </si>
-  <si>
-    <t>invoice status I have the following information. Date when invoice was created: 2022-02-21 05:00:00.0000000 my entity name is GFL10 ; the username of the person who created invoice : sdavies ; i have the follwoing Vendor ID: 095BCL01</t>
-  </si>
-  <si>
-    <t>What's up get me my Invoice , InvoiceNum: 1603 and ent id = GFL10 also name = sdavies also i have the follwoing Vendor ID: 095BCL01 , the BI_CODE = Cumberland date: 2022-02-21 05:00:00.0000000</t>
-  </si>
-  <si>
-    <t>hello . My data is: ent id = GFL10 and VENDOR_ID = 095BCL01 also the username of the person who created invoice : sdavies</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice My details are - the username of the person who created invoice : sdavies also Vendor ID 095BCL01 dates - 2022-02-21 05:00:00.0000000 my code is : Cumberland , enity name: GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>Hey what is my invoice status ; Details: date: 2022-02-21 05:00:00.0000000 , enity name: GFL10 , BUID = sdavies also</t>
-  </si>
-  <si>
-    <t>What's up what is my invoice status Details: date of the invoice creation is: 2022-02-21 05:00:00.0000000 ; my entity name is GFL10 , business code is something like this: Cumberland also</t>
-  </si>
-  <si>
-    <t>I privation to get my Invoice status . Details: my entity name is GFL10 invoice Number = 1618 also userNAME - sdavies date: 2022-02-25 05:00:00.0000000 my VENDOR_ID is 095BCL01 , Business Unit ID is Chemainus</t>
-  </si>
-  <si>
-    <t>Hey I privation to get my Invoice status . details. Vendor ID 095BCL01 Inv_Num: 1602 BUID = Cumberland date of the invoice creation is: 2022-02-21 05:00:00.0000000 invoice was created by sdavies Thank you</t>
-  </si>
-  <si>
-    <t>hello . give me my Invoice , information. my business code is Chemainus the time when my invoice was created is: 2022-01-30 05:00:00.0000000 id of my Vendor = 095BCL01 userNAME - sdavies entity name -  GFL10</t>
-  </si>
-  <si>
-    <t>What's up . what is my invoice status Details: username = sdavies also enity name: GFL10 and dates is2022-01-30 05:00:00.0000000 id of my Vendor : 095BCL01 i have the follwoing Invoice Number: 1595</t>
-  </si>
-  <si>
-    <t>I privation status of my invoice ; details. my BICODE is : Cumberland Thank you</t>
-  </si>
-  <si>
-    <t>hello , get me my Invoice My data is: Business Unit ID is Cumberland enity id = GFL10 invoice Number = 1594 Vendor_Id is095BCL01 and invoice was created by sdavies</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice Here's my information: Vendor_Id: 095BCL01 and number of my invoice is: 1579 enity id = GFL10 also the time when my invoice was created is: 2022-01-30 05:00:00.0000000 name = sdavies Thank you</t>
-  </si>
-  <si>
-    <t>hello give me invoice details. my BICODE is : Cumberland also I have the following name of invoice enntity: GFL10 and date: 2022-01-30 05:00:00.0000000 my vendor id is 095BCL01</t>
-  </si>
-  <si>
-    <t>What's up ; give me my Invoice Here's my information: BUID = Cumberland inv num: 1590 , vendor id: 095BCL01 invoice was created by sdavies my entity name is GFL10 Thank you</t>
-  </si>
-  <si>
-    <t>hello I would like to have the invoice Details: enity id = GFL10 bi code = Cumberland USERNAME is sdavies and ven id = 095BCL01 dates is2022-01-30 05:00:00.0000000 my inv num is 1591</t>
-  </si>
-  <si>
-    <t>What's up give me my Invoice . Here's my information: Date when invoice was created: 2022-01-30 05:00:00.0000000 the username of the person who created invoice : sdavies InvoiceNum = 1584 id of my Vendor = 095BCL01 ;</t>
-  </si>
-  <si>
-    <t>hello get me my Invoice ; BI CODE is - Cumberland and ; date: 2022-01-30 05:00:00.0000000 Thank you</t>
-  </si>
-  <si>
-    <t>hello . invoice status . number of my invoice = 1582 , invoice was created on: 2022-01-31 05:00:00.0000000 also Business Unit ID is Chemainus VENDOR_ID = 095BCL01</t>
+    <t>I want to get an update on my invoice. business code is something like this: 55 Entity identifier reads: GFL49 Vendor ID 2956031 InvoiceNum is 200711094788 invoice was created on: 2019-10-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Here's what you need to know:  BI Number is as follows: Grand Prairie , EntityName goes by: GFL49 Vendor ID mentioned: 2544423 The date of invoice creation is: 2019-11-26 05:00:00.0000000 besides created by maxine.oakley Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the name of an enity is GFL49 also dates = 2019-11-25 05:00:00.0000000 also ven id = 1786341 BI code goes by: Cumberland ; USERNAME =  nicky.williams</t>
+  </si>
+  <si>
+    <t>Greetings ; the creator's username is sarah.hsuneeley , VENDOR_ID = 2307364 ; Invoice Number mentioned: 0378467 2 dates - 2019-12-04 05:00:00.0000000 The entity name is: GFL49</t>
+  </si>
+  <si>
+    <t>Hey . I'd like to check my invoice status. Here's the information I have:  On this date, the invoice was made: 2019-12-01 05:00:00.0000000 invoice Number = 0685-001187124 Entity identifier reads: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Hiya . This is my data:  Entity name mentioned: GFL49 Vendor ID specified as: 1332091 USERNAME is sarah.hsuneeley number of my invoice = INV-15313 also date: 2019-09-02 04:00:00.0000000 consider my bi name BI Identifier: 55</t>
+  </si>
+  <si>
+    <t>What's up ; what is my invoice status My Data is:  Vendor ID mentioned: 1935668 , Business Unit ID is Cumberland also dates = 2019-11-15 05:00:00.0000000 my inv num is 0693-001756909 enity id = GFL49</t>
+  </si>
+  <si>
+    <t>Hey there , I need information about the status of my invoice. My Vendor_Id: 2923010 ; invoice was created on: 2019-10-16 04:00:00.0000000 USERNAME: nicky.williams , code is: Jetco Corp also The entity name is: GFL49</t>
+  </si>
+  <si>
+    <t>Greetings ; Kindly provide me with the status of my invoice. InvoiceNum specified as: 307561977 1119 VendorId goes by: 3038602 and Entity identifier reads: GFL49 , created by alexis.singletary</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status . Sharing my details:  VendorId goes by: WMXCOP01 BI Reference: 55 , The invoice was generated on: 2019-11-01 04:00:00.0000000 name = maxine.oakley besides Invoice Number provided is: AG9017-1085</t>
+  </si>
+  <si>
+    <t>Hi there , InvoiceNum goes by: 56462 9 ENTITY_ID is : GFL49 BI Reference: 85 username = sarah.hsuneeley my vend id 1470506 Thank you</t>
+  </si>
+  <si>
+    <t>Any news on the status of my invoice? The entity name is: GFL49 ; vendor id - NACTRU01 and invoice was created by sarah.hsuneeley InvoiceNum goes by: 36332 Thank you</t>
+  </si>
+  <si>
+    <t>Hi there ; Check out my information:  inv num: GFL-1901 USERNAME is jacky.bonds besides vendor id: 1577231 and enity id = GFL49 , The BI identifier is: Cumberland</t>
+  </si>
+  <si>
+    <t>Here's what I have:  invoice was created on: 2019-10-24 04:00:00.0000000 userNAME - nicky.williams Vendor_Id: 2916813 , code is: 2 Inv_Num: 4474-000004392</t>
+  </si>
+  <si>
+    <t>I'd like to share my details:  entity name -  GFL49 besides Invoice identifier reads: 0062710 8 , userNAME - alexis.singletary Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Vendor ID specified as: 2732598 , invoice was created on: 2019-11-26 05:00:00.0000000 my code is : 55</t>
+  </si>
+  <si>
+    <t>Get me my Invoice . These are my details:  i have the follwoing Invoice Number: 0603-003647141 , Invoice creation date recorded as: 2019-12-01 05:00:00.0000000 ; Vendor ID recorded as: 2399211 Thank you</t>
+  </si>
+  <si>
+    <t>Please inform me about my invoice status. I have the following data:  code is: 55 Invoice Number recorded as: 316124 besides dates - 2019-10-30 04:00:00.0000000 also person who created my invoice: nicky.williams entity name -  GFL49</t>
+  </si>
+  <si>
+    <t>Do you have any information on my invoice status? Sharing my details:  my business code is Saskatoon USERNAME is nicky.williams dates = 2019-11-07 05:00:00.0000000 Vendor_Id: 2459464 number of my invoice 19-11590 Thank you</t>
+  </si>
+  <si>
+    <t>What's happening . Check out my information:  this invoice was authored by: sarah.hsuneeley BI CODE is - Saskatoon ; InvoiceNum goes by: 0685-001182271 and Vendor identifier reads: 2295981 Thank you</t>
+  </si>
+  <si>
+    <t>Please provide me with my invoice status. These are my particulars:  dates - 2019-10-27 04:00:00.0000000 besides The BI identifier is: Cumberland number of my invoice 3274105 , Thank you</t>
+  </si>
+  <si>
+    <t>My details are -  VENDOR_ID = 2410206 userNAME - nicky.williams ; date: 2019-10-31 04:00:00.0000000 also Inv_Num is 270748</t>
+  </si>
+  <si>
+    <t>Hi there , Let me share my info:  from the user named kristin.deluca besides vendor id - 2009412 my business code is 55 and My InvoiceNum: 0373152 5 On this date, the invoice was made: 2019-11-11 05:00:00.0000000 ENTITY_ID is : GFL49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Invoice date specified as: 2019-11-27 05:00:00.0000000 Entity name specified as: GFL49 VENDORID is ULTEDG01 InvoiceNum goes by: 9CC00005 BI Number is as follows: Cumberland name = patricia.moorefield</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice ; My info:  Vendor identifier reads: 2383771 ; num of my inv is32639889005 1219 and On this date, the invoice was made: 2019-10-31 04:00:00.0000000 and Entity name specified as: GFL49 BI code goes by: Cranbrook Hauling TS LF Thank you</t>
+  </si>
+  <si>
+    <t>Hey , May I know the status of my invoice? My info:  Invoice created on: 2019-11-26 05:00:00.0000000 ; Code assigned to this BI: First Class InvoiceNum: 1518 111 and USERNAME =  julie.brookshire also vendor id: 2924266 Thank you</t>
+  </si>
+  <si>
+    <t>Check out my information:  This is the vendor ID: G490022874 ; USERNAME is sarah.hsuneeley ent id = GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Yo , Get me my Invoice i have the follwoing Vendor ID: 2694907 dates = 2019-11-20 05:00:00.0000000 The Business Code reads: 4 and USERNAME created the invoice with details: sarah.hsuneeley inv num: 1159797 Entity name provided is: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . Vendor ID mentioned: 1985278 generated by the user: laura.young , my code is : 55 date of the invoice creation is: 2019-10-31 04:00:00.0000000 also InvoiceNum goes by: 0062709 0 Thank you</t>
+  </si>
+  <si>
+    <t>Get me my Invoice ;   enity name: GFL49 besides date: 2019-11-01 04:00:00.0000000 , BUID = Chemainus userNAME - nicky.williams , This is the vendor ID: 2076148</t>
+  </si>
+  <si>
+    <t>Please check and let me know the invoice status. InvoiceNum is 200440 1019 ; Entity identifier reads: GFL49 VENDOR_ID = 2716053 ; Invoice created on: 2019-11-27 05:00:00.0000000 besides bi code = Jetco Corp</t>
+  </si>
+  <si>
+    <t>What's going on ; Any news on the status of my invoice? VENDOR_ID = 2718032 Entity name provided is: GFL49 , The BI identifier is: Dunford Yard , number of my invoice 59609 Date of origin: 2019-10-31 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  i have the follwoing Vendor ID: 3032155 ; BI code goes by: 55 date: 2019-10-28 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Please inform me about my invoice status. Allow me to provide my information:  name = sarah.hsuneeley also Business Unit ID is Chemainus also Invoice created on: 2019-10-20 04:00:00.0000000 ven id = 2740061 My InvoiceNum: 1158198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Unit ID: Ground Force Invoice created on: 2019-11-04 05:00:00.0000000 , This is the invoice number: AG9014-9388 ent id = GFL49 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The date of invoice creation is: 2019-11-08 05:00:00.0000000 ENTITY_ID is : GFL49</t>
+  </si>
+  <si>
+    <t>Hiya ; Please find my information:  BI code goes by: Cumberland The entity is named: GFL49 also this invoice was authored by: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>What's going on . Please inform me about my invoice status. Below is my data:  my entity name is GFL49 also VENDOR_ID = 2404252 USERNAME =  alexis.singletary</t>
+  </si>
+  <si>
+    <t>Can you provide the status of my invoice? BI Reference: 6 invoice Number = 0981 121 USERNAME =  ladatril.long date is 2019-10-31 04:00:00.0000000 besides The name of the entity is: GFL49 My Vendor_Id: 2920329</t>
+  </si>
+  <si>
+    <t>Hi . date of the invoice creation is: 2019-11-26 05:00:00.0000000 , by the following user - alexis.singletary ; Entity name specified as: GFL49 also InvNum = 0693-001750502 besides Code assigned to this BI: 123</t>
+  </si>
+  <si>
+    <t>I have the following data:  For tracking purposes, my BI code: 95 by the following user - laura.young ven id = 3040745 ,</t>
+  </si>
+  <si>
+    <t>What's going on , This is my data:  invoice was created by nicky.williams Entity name mentioned: GFL49 This is the vendor ID: 999467 the BI_CODE = 28</t>
+  </si>
+  <si>
+    <t>Hello , These are my details:  Here's the Vendor ID: 3074742 created by Robert.Thibault</t>
+  </si>
+  <si>
+    <t>Greetings , Kindly provide me with the status of my invoice.   Vendor ID provided is: 742864 besides Invoice Number recorded as: 1957290 besides ENTITY_ID is : GFL49 besides consider my bi name BI Identifier: 55 Thank you</t>
+  </si>
+  <si>
+    <t>Hey ; My information is as below:  The BI identifier is: Edmonton SW invoice Number = 41984 besides The date of invoice creation is: 2019-11-18 05:00:00.0000000 ; Entity name specified as: GFL49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BI CODE is - First Class this invoice was authored by: Leroy.Hatmaker VENDORID is 2479297 , my entity name is GFL49 date: 2019-12-03 05:00:00.0000000 InvNum = 0000169548 Thank you</t>
+  </si>
+  <si>
+    <t>I have the following information. my VENDOR_ID is 2099753 besides generated by the user: nicky.williams besides The InvoiceNum is mentioned as: 10182019 ,</t>
+  </si>
+  <si>
+    <t>Sup . Invoice date specified as: 2019-12-19 05:00:00.0000000 Entity name mentioned: GFL49 my BICODE is : Regina besides InvoiceNum specified as: 0378466 4 besides</t>
+  </si>
+  <si>
+    <t>Let me know the current status of my invoice.   Entity identifier reads: GFL49 The invoice was generated on: 2019-10-31 04:00:00.0000000 by the following user - maxine.oakley BI CODE is - 35 INVOICE Num: 0029884-IN This is the vendor ID: 1435794</t>
+  </si>
+  <si>
+    <t>Hi , Please provide me with my invoice status. userNAME - nicky.williams EntityName goes by: GFL49 , Unit ID: Cumberland InvoiceNum goes by: CHK1119-3</t>
+  </si>
+  <si>
+    <t>Howdy . Entity name specified as: GFL49 the creator's username is roxanne.hoskins Invoice Number provided is: 3010716 Date of origin: 2019-12-01 05:00:00.0000000 , Vendor ID provided is: 2799493 and bi code = 85</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice . My info:  The date of invoice creation is: 2019-10-02 04:00:00.0000000 and consider my bi name BI Identifier: Medicine Hat also num of my inv isI284-1288 , Vendor ID specified as: 1840917 ; The name of the entity is: GFL49</t>
+  </si>
+  <si>
+    <t>What's happening ; My details as follows:  The date of invoice creation is: 2019-11-15 05:00:00.0000000 VENDORID is 49461 also the creator's username is cynthia.pyle ; num of my inv - 0009730730 , Unit ID: Cumberland Thank you</t>
+  </si>
+  <si>
+    <t>Yo ; I need information about the status of my invoice. my vendor id is 2534858 generated by the user: sherry.wade , inv num: 1314922198 1119 date: 2019-11-18 05:00:00.0000000 enity name: GFL49</t>
+  </si>
+  <si>
+    <t>Here's what you need to know:  Vendor ID provided is: TRITRA01 besides USERNAME =  nicky.williams , EntityName goes by: GFL49 Date of origin: 2019-11-13 05:00:00.0000000 BI code mentioned as: 2 Thank you</t>
+  </si>
+  <si>
+    <t>Heya . Check out my information:  Vendor_Id is1668459 Invoice date specified as: 2019-12-09 05:00:00.0000000 ; USERNAME: billie.wood besides the BI_CODE = 55 also entity name -  GFL49 InvNum = E-10882 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the name of an enity is GFL49 ; The Business Code reads: 55 also date is 2019-11-18 05:00:00.0000000 ; num of my inv - 200440 1119</t>
+  </si>
+  <si>
+    <t>What's happening , I'm curious about the status of my invoice. Allow me to provide my information:  name = sarah.hsuneeley , Vendor ID specified as: PENPRE01 besides my inv num is Q00000343305 my BICODE is : Saskatoon</t>
+  </si>
+  <si>
+    <t>Hey hey , Any news on the status of my invoice? vendor id: 2006596 The BI identifier is: 81 , Invoice date specified as: 2019-11-15 05:00:00.0000000 The entity name is: GFL49 USERNAME is julie.brookshire</t>
+  </si>
+  <si>
+    <t>Hey hey ; My details are -  number of my invoice = 0003894-4869-7 , consider my bi name BI Identifier: Chemainus Thank you</t>
+  </si>
+  <si>
+    <t>invoice status ; name = jeannette.wilkerson ; Unit ID: 55 id of my Vendor = CLACON01 Date when invoice was created: 2019-10-30 04:00:00.0000000 besides I have the following name of invoice entity: GFL49 besides number of my invoice = 1025501 1019</t>
+  </si>
+  <si>
+    <t>Greetings . Could you check the status of my invoice? Here's the information I have:  Code assigned to this BI: Chemainus Entity name specified as: GFL49 and VendorId goes by: 2771116 Date of invoice generation: 2019-11-28 05:00:00.0000000 created by rita.wurschum number of my invoice is: 2697</t>
+  </si>
+  <si>
+    <t>give me invoice . BI code mentioned as: Chemainus My InvoiceNum: CHK1119 besides from the user named rita.wurschum</t>
+  </si>
+  <si>
+    <t>What's up . Please find my information:  The name of the entity is: GFL49 number of my invoice = 287423 and Invoice created by the user: nicky.williams</t>
+  </si>
+  <si>
+    <t>Greetings , I would like to have the invoice my entity name is GFL49 INVOICE Num: AG9018-7497 Business Unit ID is 134 userNAME - nicky.williams date is 2019-11-12 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Heya , Do you have any information on my invoice status? the time when my invoice was created is: 2019-11-01 04:00:00.0000000 ; VENDOR_ID = 3010028 The InvoiceNum is mentioned as: 0029926-IN USERNAME is roxanne.hoskins besides BI code mentioned as: 95 Thank you</t>
+  </si>
+  <si>
+    <t>What's going on ; Any news on the status of my invoice? Invoice identifier reads: 57063 4 , the name of an enity is GFL49 Invoice creation date recorded as: 2019-10-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Howdy . number of my invoice is: 9AX00003 my VENDOR_ID is 2419673 enity id = GFL49 business code is something like this: Cumberland , The date of invoice creation is: 2019-10-31 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Here's what I have:  Vendor_Id: 2344721 ; Invoice created on: 2019-11-16 05:00:00.0000000 consider my bi name BI Identifier: Cranbrook Hauling TS LF this invoice was authored by: nicky.williams Thank you</t>
+  </si>
+  <si>
+    <t>Hey , enity name: GFL49 besides code is: Cumberland InvoiceNum = 81365419 Thank you</t>
+  </si>
+  <si>
+    <t>Hey hey ; Kindly provide me with the status of my invoice. My information is as below:  my vend id 34614 submitted by the user: melonie.williford and On this date, the invoice was made: 2019-11-06 05:00:00.0000000 I have the following name of invoice entity: GFL49 i have the follwoing Invoice Number: 14054 1219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  USERNAME =  michelle.kennedy my vendor id is 1764942 invoice was created on: 2019-11-06 05:00:00.0000000 , My entity name: GFL49 , business code is something like this: 55 besides num of my inv - 4632-000000798</t>
+  </si>
+  <si>
+    <t>Details. InvoiceNum goes by: 181819 besides name = sarah.hsuneeley BUID = 55 Vendor ID provided is: 950401</t>
+  </si>
+  <si>
+    <t>I want status of my invoice . Vendor_Id is2929817 and Invoice created on: 2019-11-16 05:00:00.0000000 besides enity id = GFL49 , created by user with username: rita.wurschum BUID = 55 Inv_Num: 00 1019 Thank you</t>
+  </si>
+  <si>
+    <t>Hiya . Sharing my details:  Entity name mentioned: GFL49 besides the creator's username is stephanie.walker and number of my invoice 0648821163 1119 vendor id - 2295316 The invoice was generated on: 2019-11-18 05:00:00.0000000 besides Code assigned to this BI: Victoria Coast</t>
+  </si>
+  <si>
+    <t>Hi . I'm interested in knowing the status of my invoice. USERNAME =  sarah.hsuneeley Entity name mentioned: GFL49 and For tracking purposes, my BI code: 9</t>
+  </si>
+  <si>
+    <t>Hey hey . What's the current status of my invoice? I'd like to share my details:  The VENDORID is mentioned as: 2968816 and username = nicky.williams ; Entity name specified as: GFL49 and my business code is 73 and InvoiceNum: T11-0244093 Invoice creation date recorded as: 2019-10-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hi . Please provide me with my invoice status. Details:  This is the vendor ID: 2939151 and from the user named sarah.hsuneeley and Inv_Num is 799271 invoice was created on: 2019-12-01 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>I need information about the status of my invoice.   Entity identifier reads: GFL49 , business unit code is Dunford Yard and InvoiceNum goes by: 0017073-2511-2 ; username = nicky.williams Date of origin: 2019-11-06 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up ; Get me my Invoice Allow me to provide my information:  username = rhonda.massey ; The InvoiceNum is mentioned as: 0778-000588085 and Date of origin: 2019-11-01 04:00:00.0000000 Entity name mentioned: GFL49 also Vendor ID recorded as: ERLMEZ01 and business code is something like this: Cumberland Thank you</t>
+  </si>
+  <si>
+    <t>Please inform me about my invoice status. Details:  For tracking purposes, my BI code: Ground Force Date of origin: 2019-11-23 05:00:00.0000000 and InvoiceNum is 1788680415 1119 , id of my Vendor = 1968259 enity name: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Hey there , vendor id - 2912046 date: 2019-12-10 05:00:00.0000000 USERNAME is nicky.williams My entity name: GFL49 and my code is : Saskatoon Thank you</t>
+  </si>
+  <si>
+    <t>I'm inquiring about the status of my invoice. Info Date of origin: 2019-11-09 05:00:00.0000000 and Entity name provided is: GFL49 USERNAME is sandra.williams Vendor ID 2811579</t>
+  </si>
+  <si>
+    <t>Howdy . Here's the information I have:  Entity name specified as: GFL49 USERNAME created the invoice with details: julie.brookshire This is the vendor ID: 62527</t>
+  </si>
+  <si>
+    <t>invoice status . I'd like to share my details:  ven id = 12984 besides EntityName goes by: GFL49 name = sarah.hsuneeley my business code is 55 Date when invoice was created: 2019-11-15 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> . InvNum = AG9028-1087 ent id = GFL49 , USERNAME created the invoice with details: nicky.williams ; Vendor_Id: 2932354 Thank you</t>
+  </si>
+  <si>
+    <t>What's up , I'm interested in knowing the status of my invoice. Here's what you need to know:  by the following user - sarah.hsuneeley , The date when the invoice was formed: 2019-12-03 05:00:00.0000000 InvoiceNum: 0 1019 For tracking purposes, my BI code: Interior BC</t>
+  </si>
+  <si>
+    <t>I'm inquiring about the status of my invoice. My information is as below:  Code assigned to this BI: Edmonton SW username = amber.stone Invoice Number provided is: 0692-002238368 and date: 2019-11-30 05:00:00.0000000 also ent id = GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>I'm curious about the status of my invoice. BI code goes by: Cranbrook Hauling TS LF Vendor_Id: 2548361 ENTITY_ID is : GFL49 ; InvoiceNum is 48021020 1019 The date of invoice creation is: 2019-10-31 04:00:00.0000000 also</t>
+  </si>
+  <si>
+    <t>Hiya ; Any news on the status of my invoice? My information is as below:  Date when invoice was created: 2019-11-15 05:00:00.0000000 BI CODE is - Jetco Corp , My InvoiceNum: 6-835-93483</t>
+  </si>
+  <si>
+    <t>Sup . The date of invoice creation is: 2019-11-01 04:00:00.0000000 entity name -  GFL49 code is: Chemainus i have the follwoing Vendor ID: 3000786</t>
+  </si>
+  <si>
+    <t>Is there any update on my invoice status? The InvoiceNum is mentioned as: 3049152 the BI_CODE = Cumberland I have the following name of invoice entity: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>What's happening . I want to get my Invoice Status I'm providing the following data:  The entity is named: GFL49 besides Vendor_Id: 31149 , num of my inv - 135444068-8485</t>
+  </si>
+  <si>
+    <t>Please inform me about my invoice status. Here's what I have:  The date when the invoice was formed: 2019-11-15 05:00:00.0000000 also enity id = GFL49 ; Vendor ID provided is: 2800491 ; This is the invoice number: 14054 1019</t>
+  </si>
+  <si>
+    <t>Hey . Get me my Invoice   EntityName goes by: GFL49 ; bi code = Victoria Hauling my inv num is 0002451-IN The date of invoice creation is: 2019-10-15 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>give me invoice , My Data is:  invoice Number = 000606 1019 Creation date mentioned as: 2019-12-03 05:00:00.0000000 also USERNAME created the invoice with details: alexis.singletary also My entity name: GFL49 My Vendor_Id: 2993034 , Thank you</t>
+  </si>
+  <si>
+    <t>Allow me to provide my information:  date: 2019-11-07 05:00:00.0000000 , USERNAME created the invoice with details: raquel.garcia Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  For tracking purposes, my BI code: 55 also dates - 2019-10-16 04:00:00.0000000 , the name of an enity is GFL49 and Inv_Num is 5983098 , the username of the person who created invoice : sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>Let me share my info:  code is: Ground Force Date when invoice was created: 2019-09-10 04:00:00.0000000 also Invoice identifier reads: B 40698 generated by the user: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>Hi there ; I want to get an update on my invoice. enity id = GFL49 besides Invoice Number mentioned: 0029822-IN Invoice created by the user: susan.barnhill , business unit code is Saskatoon invoice was created on: 2019-11-25 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hiya ; I need information about the status of my invoice. Here's the information I have:  submitted by the user: natashia.mcmurrin date is 2019-11-11 05:00:00.0000000 ; number of my invoice is: 0243019-IN BUID = Cumberland Entity name provided is: GFL49 Vendor ID provided is: 2538226 Thank you</t>
+  </si>
+  <si>
+    <t>What's up . I need information about the status of my invoice. Info the name of an enity is GFL49 Date of origin: 2019-11-27 05:00:00.0000000 ; USERNAME: carol.dalton BI Reference: Cumberland</t>
+  </si>
+  <si>
+    <t>What's up . I'm interested in knowing the status of my invoice. Here's the information I have:  the creator's username is sarah.hsuneeley Invoice Number mentioned: 198 868 besides Vendor ID specified as: 2529830 ; business code is something like this: Jetco Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  enity name: GFL49 created by tracy.cooke ; InvNum = 0965-002254592 The invoice was generated on: 2019-12-01 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Howdy . Can you provide the status of my invoice? enity id = GFL49 person who created my invoice: nicky.williams the BI_CODE = Cumberland , Here's the Invoice Number: 3513 The date of invoice creation is: 2019-12-02 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey ; Give me my Invoice Vendor ID 963940 Entity name recorded as: GFL49 BI code mentioned as: 4 ; the author of the invoice is sherry.grisham and The date of invoice creation is: 2019-11-30 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Do you have any information on my invoice status? Vendor ID recorded as: 3042783 ; InvNum = 153421 besides submitted by the user: sarah.hsuneeley For tracking purposes, my BI code: 55</t>
+  </si>
+  <si>
+    <t>Greetings ; I'd like to check my invoice status. num of my inv - 7202602 ; date is 2019-11-01 04:00:00.0000000 also Vendor ID provided is: GLOTRA01 ,</t>
+  </si>
+  <si>
+    <t>Could you give me an update on my invoice? My details as follows:  the BI_CODE = 55 Entity name provided is: GFL49 InvoiceNum: 0030366-IN userNAME - sarah.hsuneeley Date of invoice generation: 2019-11-18 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Howdy . I have the following information by the following user - patricia.moorefield Date of invoice generation: 2019-10-31 04:00:00.0000000 entity name -  GFL49 my code is : 55 ; Here's the Vendor ID: 38359</t>
+  </si>
+  <si>
+    <t>I'd like to check my invoice status. id of my Vendor : 2815932 ; Entity name mentioned: GFL49 and BI code goes by: Victoria Coast also Thank you</t>
+  </si>
+  <si>
+    <t>Sup ; Please inform me about my invoice status. Entity identifier reads: GFL49 name = maxine.oakley i have the follwoing Invoice Number: 103293 , bi code = Chemainus</t>
+  </si>
+  <si>
+    <t>Is there any update on my invoice status? These are my particulars:  Invoice Number mentioned: 3881 1019 USERNAME: sarah.hsuneeley The date of invoice creation is: 2019-11-09 05:00:00.0000000 and enity id = GFL49 ; code is: 45 Thank you</t>
+  </si>
+  <si>
+    <t>Hello ; my VENDOR_ID is 1778914 and number of my invoice is: 0693-001746669 dates = 2019-11-13 05:00:00.0000000 Unit ID: Chemainus this invoice was authored by: tracy.cooke ENTITY_ID is : GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Hiya . BI Number is as follows: Medicine Hat , the time when my invoice was created is: 2019-11-01 04:00:00.0000000 enity id = GFL49 submitted by the user: rita.wurschum</t>
+  </si>
+  <si>
+    <t>I'd like to share my details:  Code assigned to this BI: Chemainus , this invoice was authored by: nicky.williams ; Date of origin: 2019-11-01 04:00:00.0000000 besides number of my invoice 278 983 ent id = GFL49</t>
+  </si>
+  <si>
+    <t>I need information about the status of my invoice. Below is my data:  this invoice was authored by: sarah.hsuneeley InvoiceNum = 2-12727 Entity name mentioned: GFL49 , Invoice date specified as: 2019-11-22 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Here's what you need to know:  Date of origin: 2019-11-24 05:00:00.0000000 This is the invoice number: 19504 1019 code is: 55 My entity name: GFL49 generated by the user: nicky.williams</t>
+  </si>
+  <si>
+    <t>Sup ; Vendor_Id is2862122 besides the username of the person who created invoice : francine.judd Thank you</t>
+  </si>
+  <si>
+    <t>Could you give me an update on my invoice? Info The entity is named: GFL49 ; created by nicky.williams inv num: INV-15003 VendorId goes by: 951869 consider my bi name BI Identifier: ABN</t>
+  </si>
+  <si>
+    <t>Get me my Invoice ; On this date, the invoice was made: 2019-11-15 05:00:00.0000000 This is the vendor ID: 1447365 and BI code mentioned as: 55 the username of the person who created invoice : sarah.hsuneeley ; inv num: 2-12640 also</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status , Inv_Num is R367001177-8 id of my Vendor : JACKEL01 besides enity name: GFL49 , date of the invoice creation is: 2019-09-09 04:00:00.0000000 Business Unit ID is 73 , USERNAME: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>What's going on . These are my particulars:  My Vendor_Id: 31384 and For tracking purposes, my BI code: Chemainus</t>
+  </si>
+  <si>
+    <t>What's happening , Get me my Invoice InvoiceNum = 1815886266 1119 ven id = 2459149 , the BI_CODE = Vancouver Fleet invoice was created on: 2019-11-30 05:00:00.0000000 The name of the entity is: GFL49</t>
+  </si>
+  <si>
+    <t>Details. Entity name provided is: GFL49 my inv num is 2967818 name = melonie.williford The BI identifier is: Cranbrook Hauling TS LF ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Date when invoice was created: 2019-12-01 05:00:00.0000000 generated by the user: cheryl.daniel the name of an enity is GFL49 VENDORID is 1422483 the BI_CODE = Edmonton SW ; InvoiceNum goes by: 1506588</t>
+  </si>
+  <si>
+    <t>I have the following information. the name of an enity is GFL49 , On this date, the invoice was made: 2019-12-01 05:00:00.0000000 and Invoice created by the user: sarah.hsuneeley besides Vendor ID specified as: 1588951</t>
+  </si>
+  <si>
+    <t>Hey .   Vendor_Id: CAPFEA01 ; bi code = TLRegional and The entity name is: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>What's happening ; Inv_Num: 134612 besides username = patricia.moorefield The date when the invoice was formed: 2019-11-20 05:00:00.0000000 ,</t>
+  </si>
+  <si>
+    <t>What's up . Here's what I have:  This is the invoice number: 0847165 date: 2019-10-15 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  USERNAME: nicky.williams besides BI Number is as follows: Richmond 1 also VENDORID is 2036437 InvoiceNum = Q00000342958 Thank you</t>
+  </si>
+  <si>
+    <t>Hiya . I would like to have the invoice Check out my information:  Invoice creation date recorded as: 2019-11-01 04:00:00.0000000 also my vendor id is 1206810 the author of the invoice is chris.milo my business code is Saskatoon and InvoiceNum = 12963 1219 besides Entity name recorded as: GFL49</t>
+  </si>
+  <si>
+    <t>Give me my Invoice , These are my details:  Vendor identifier reads: 2573849 ; Invoice Number recorded as: 1157874 USERNAME created the invoice with details: sarah.hsuneeley ; my business code is Cumberland The invoice was generated on: 2019-11-30 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>I want status of my invoice , Here's what I have:  The entity is named: GFL49 USERNAME created the invoice with details: nicky.williams VENDOR_ID = 2529881 , Date when invoice was created: 2019-11-10 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hi there , I'm interested in knowing the status of my invoice. dates - 2019-10-26 04:00:00.0000000 InvoiceNum is 59628 submitted by the user: nicky.williams ; Vendor ID specified as: 2548408 business unit code is 55 Thank you</t>
+  </si>
+  <si>
+    <t>Please find my information:  The entity is named: GFL49 also name = laura.young my vend id 509982 This is the invoice number: 015-019637 ;</t>
+  </si>
+  <si>
+    <t>Hey . Check out my information:  Invoice Number recorded as: 3026-000013405 The VENDORID is mentioned as: 2910788 , Entity name provided is: GFL49 besides Code assigned to this BI: 55</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status . My information is as below:  USERNAME =  amber.stone , InvNum = 0243446-IN also date: 2019-11-30 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey . I want to get an update on my invoice. Here's the information I have:  my vendor id is 2925461 besides from the user named sarah.hsuneeley also Invoice Number recorded as: TAY 012 also Invoice creation date recorded as: 2019-11-16 05:00:00.0000000 and</t>
+  </si>
+  <si>
+    <t>Yo ; Let me know the current status of my invoice. I'd like to share my details:  The InvoiceNum is mentioned as: 0372026 2 ; The BI identifier is: Edmonton SW</t>
+  </si>
+  <si>
+    <t>Hey there , I need information about the status of my invoice. These are my particulars:  BI Reference: 55 , Entity name mentioned: GFL49 ; generated by the user: laura.young</t>
+  </si>
+  <si>
+    <t>Here's my information:  USERNAME created the invoice with details: jacky.bonds , Date of origin: 2019-11-01 04:00:00.0000000 and The name of the entity is: GFL49</t>
+  </si>
+  <si>
+    <t>Please inform me about my invoice status. Sharing my details:  i have the follwoing Vendor ID: 2068885 Entity name specified as: GFL49 created by chris.milo INVOICE Num: 523 805 besides Business Unit ID is 96 , Creation date mentioned as: 2019-11-25 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>I'm providing the following data:  BI Reference: BJ Bear and Thank you</t>
+  </si>
+  <si>
+    <t>Please check and let me know the invoice status. consider my bi name BI Identifier: 35 my VENDOR_ID is 1692571 Invoice date specified as: 2019-11-30 05:00:00.0000000 I have the following name of invoice entity: GFL49 InvoiceNum specified as: 3050290</t>
+  </si>
+  <si>
+    <t>Howdy ; My Data is:  i have the follwoing Vendor ID: 2345686 my code is : 55 USERNAME is sarah.hsuneeley Thank you</t>
+  </si>
+  <si>
+    <t>Allow me to provide my information:  id of my Vendor = 2974221 ; consider my bi name BI Identifier: Cumberland ;</t>
+  </si>
+  <si>
+    <t>Yo . I want to get my Invoice Status My details include:  VENDOR_ID = 2551279 , the creator's username is chris.milo and</t>
+  </si>
+  <si>
+    <t>Could you give me an update on my invoice? My details as follows:  id of my Vendor : 33339 Invoice identifier reads: 0685-001200765 the time when my invoice was created is: 2019-11-23 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Here's my information:  Invoice created on: 2019-10-26 04:00:00.0000000 my VENDOR_ID is 3040711 and my BICODE is : Interior BC also Thank you</t>
+  </si>
+  <si>
+    <t>My details are -  InvNum = 703941 , The Business Code reads: 55 Here's the Vendor ID: CATGLO01 , date: 2019-11-14 05:00:00.0000000 ; Invoice created by the user: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The entity name is: GFL49 also Inv_Num is 0105756-0306-2 Thank you</t>
+  </si>
+  <si>
+    <t>Heya . USERNAME is wendelyn.fauth EntityName goes by: GFL49 For tracking purposes, my BI code: 55 ; The date of invoice creation is: 2019-10-25 04:00:00.0000000 and inv num: 0365918 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  my code is : SPL and InvoiceNum = 3113-000003026 person who created my invoice: michael.howell Thank you</t>
+  </si>
+  <si>
+    <t>I want status of my invoice ; These are my details:  ven id 3011813 Entity name mentioned: GFL49 number of my invoice 0365914 8 and USERNAME is crys.massey</t>
+  </si>
+  <si>
+    <t>Hiya ; Entity name provided is: GFL49 vendor id: 1783756 besides number of my invoice Packing slip my code is : 117 Thank you</t>
+  </si>
+  <si>
+    <t>I want to get an update on my invoice. date: 2019-10-26 04:00:00.0000000 Vendor identifier reads: 1675405 For tracking purposes, my BI code: Jetco Corp ent id = GFL49 Inv_Num is 0685-001200840</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice , I have the following information inv num: 0237467 1019 , created by alexis.singletary Thank you</t>
+  </si>
+  <si>
+    <t>Hey hey . These are my particulars:  num of my inv is360 1019 ; from the user named sarah.hsuneeley Creation date mentioned as: 2019-11-12 05:00:00.0000000 , ENTITY_ID is : GFL49 VENDORID is 1840888 Thank you</t>
+  </si>
+  <si>
+    <t>Sharing my details:  the name of an enity is GFL49 ; my inv num is 9BB00002 also my code is : Saskatoon ,</t>
+  </si>
+  <si>
+    <t>Hiya ; invoice status I'd like to share my details:  Invoice date specified as: 2019-10-22 04:00:00.0000000 ; Vendor ID 2475456 ; BUID = Cranbrook Hauling TS LF ;</t>
+  </si>
+  <si>
+    <t>I'm inquiring about the status of my invoice. Please find my information:  this invoice was authored by: robin.adkins besides number of my invoice is: 176314 ; Thank you</t>
+  </si>
+  <si>
+    <t>Hi ; I want status of my invoice ven id 2340391 BUID = 14 ; ENTITY_ID is : GFL49 also The invoice was generated on: 2019-11-01 04:00:00.0000000 the username of the person who created invoice : erica.shepherd Thank you</t>
+  </si>
+  <si>
+    <t>Hey , My info:  number of my invoice = 25866 dates = 2019-11-30 05:00:00.0000000 besides my business code is Accuworx by the following user - nicky.williams my vend id 1476211 Thank you</t>
+  </si>
+  <si>
+    <t>Kindly provide me with the status of my invoice.   num of my inv - 3 1019 ; from the user named nicky.williams , On this date, the invoice was made: 2019-10-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>I need information about the status of my invoice. date is 2019-11-26 05:00:00.0000000 ; EntityName goes by: GFL49 ; USERNAME =  chris.milo Invoice identifier reads: 1952387 besides Vendor ID recorded as: 2122378 Thank you</t>
+  </si>
+  <si>
+    <t>What's up ; My Data is:  Vendor ID 2915116 Invoice identifier reads: 314274 my business code is Edmonton SW created by user with username: sarah.hsuneeley My entity name: GFL49 the time when my invoice was created is: 2019-10-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey hey , I need information about the status of my invoice. this invoice was authored by: sarah.hsuneeley also BUID = 35 , ENTITY_ID is : GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Hi . Info The VENDORID is mentioned as: 2756725 consider my bi name BI Identifier: 17 Inv_Num: I284-1290 The date of invoice creation is: 2019-10-03 04:00:00.0000000 name = amber.stone</t>
+  </si>
+  <si>
+    <t>Sharing my details:  BUID = 2 my vend id 1430678 On this date, the invoice was made: 2019-11-07 05:00:00.0000000 invoice Number = 060893535 1119 besides USERNAME: crys.massey Entity name specified as: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status ; ENTITY_ID is : GFL49 also the username of the person who created invoice : francine.judd On this date, the invoice was made: 2019-11-30 05:00:00.0000000 BI CODE is - 31</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice , My information is as below:  the BI_CODE = BJ Bear and the time when my invoice was created is: 2019-10-29 04:00:00.0000000 inv num: B27609-110719 Vendor ID specified as: 1847318 Thank you</t>
+  </si>
+  <si>
+    <t>What's the current status of my invoice? InvoiceNum specified as: 0116169 1 also date: 2019-10-31 04:00:00.0000000 besides name = julie.brookshire ven id = 2949033 the name of an enity is GFL49</t>
+  </si>
+  <si>
+    <t>I'm interested in knowing the status of my invoice. The BI identifier is: ABN userNAME - brittany.holt , num of my inv - 3025231 besides Vendor ID mentioned: 879916 , My entity name: GFL49</t>
+  </si>
+  <si>
+    <t>Sup . I have the following data:  invoice Number = 9009 1219 vendor id: 531670 dates = 2019-11-30 05:00:00.0000000 ; The entity is named: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>What's going on ; Is there any update on my invoice status? entity name -  GFL49 i have the follwoing Invoice Number: 268483 ; my vend id 2842439 , code is: 4 Thank you</t>
+  </si>
+  <si>
+    <t>Hi ; bi code = 29 USERNAME: nicky.williams ven id WILPIN01 ; number of my invoice = 1154561</t>
+  </si>
+  <si>
+    <t>I'm providing the following data:  created by rita.wurschum num of my inv - 4172228944 11 For tracking purposes, my BI code: 55 ; EntityName goes by: GFL49 Creation date mentioned as: 2019-10-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>I'd like to check my invoice status.   VENDORID is 3036527 also The entity is named: GFL49 InvoiceNum goes by: 0000915698 and date: 2019-12-04 05:00:00.0000000 besides username = Stephanie.Walters The BI identifier is: 102</t>
+  </si>
+  <si>
+    <t>Can you provide the status of my invoice? I have the following details  the time when my invoice was created is: 2019-11-14 05:00:00.0000000 and Business Unit ID is 55 ; this invoice was authored by: jeannette.wilkerson enity id = GFL49 , InvNum = 360 1119 , Vendor_Id is2921276 Thank you</t>
+  </si>
+  <si>
+    <t>Hey , The VENDORID is mentioned as: 2360202 also Entity name recorded as: GFL49 generated by the user: cheryl.daniel BI code goes by: SPL</t>
+  </si>
+  <si>
+    <t>I want status of my invoice , I'd like to share my details:  ent id = GFL49 ; The date when the invoice was formed: 2019-10-15 04:00:00.0000000 vendor id - 2718059</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status ; Here's my information:  the author of the invoice is sarah.hsuneeley , Vendor identifier reads: 731401 my BICODE is : Cumberland besides InvoiceNum goes by: 314276 Thank you</t>
+  </si>
+  <si>
+    <t>Greetings . Please check and let me know the invoice status. Here's what you need to know:  On this date, the invoice was made: 2019-11-30 05:00:00.0000000 , the author of the invoice is sarah.hsuneeley id of my Vendor = 2548096</t>
+  </si>
+  <si>
+    <t>What's the current status of my invoice? I'd like to share my details:  This is the invoice number: 1957514 USERNAME: michael.howell also I have the following name of invoice entity: GFL49 , Date of origin: 2019-11-04 05:00:00.0000000 business unit code is 55 Thank you</t>
+  </si>
+  <si>
+    <t>Below is my data:  Date of invoice generation: 2019-11-07 05:00:00.0000000 My InvoiceNum: 50065072 ; enity id = GFL49 , BUID = Cumberland</t>
+  </si>
+  <si>
+    <t>Hi . Can you provide the status of my invoice? My Data is:  created by user with username: robin.adkins besides ENTITY_ID is : GFL49 BI Reference: 86 invoice Number = 16662 Vendor ID provided is: 2309407 Thank you</t>
+  </si>
+  <si>
+    <t>Please find my information:  Date when invoice was created: 2019-11-01 04:00:00.0000000 besides ent id = GFL49 , Invoice Number mentioned: 314282 and generated by the user: nicky.williams</t>
+  </si>
+  <si>
+    <t>I'd like to check my invoice status. Sharing my details:  username = billie.wood my vendor id is 2439316 , invoice Number = 5004113273001 1119 ENTITY_ID is : GFL49 BI Number is as follows: 1 Thank you</t>
+  </si>
+  <si>
+    <t>Hey . I'd like to check my invoice status. InvoiceNum goes by: 0000764064 ven id 2938406 Business Unit ID is Jetco Corp userNAME - tracy.cooke ; ENTITY_ID is : GFL49 besides date: 2019-11-25 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Kindly provide me with the status of my invoice. Below is my data:  by the following user - sarah.hsuneeley EntityName goes by: GFL49 , Unit ID: 20 The date when the invoice was formed: 2019-12-09 05:00:00.0000000 Inv_Num: 2003645859002 1219 Thank you</t>
+  </si>
+  <si>
+    <t>give me invoice . The entity is named: GFL49 and Date when invoice was created: 2019-11-01 04:00:00.0000000 and This is the invoice number: 24157458 RI also Thank you</t>
+  </si>
+  <si>
+    <t>Howdy ; I'm curious about the status of my invoice. my entity name is GFL49 this invoice was authored by: nicky.williams invoice was created on: 2019-11-02 04:00:00.0000000 InvoiceNum is 11222019-WR Thank you</t>
+  </si>
+  <si>
+    <t>Hiya ; Could you give me an update on my invoice? Here's my information:  my business code is Saskatoon number of my invoice 10961 0919 also Date when invoice was created: 2019-09-02 04:00:00.0000000 this invoice was authored by: Stephanie.Walters</t>
+  </si>
+  <si>
+    <t>Hey . Sharing my details:  VendorId goes by: 2737639 ; by the following user - billie.wood InvoiceNum goes by: 95000 1019 bi code = Cranbrook Hauling TS LF Thank you</t>
+  </si>
+  <si>
+    <t>Howdy , Please inform me about my invoice status. I have the following details  USERNAME: sarah.hsuneeley besides enity id = GFL49 besides For tracking purposes, my BI code: Cumberland Thank you</t>
+  </si>
+  <si>
+    <t>I have the following information. This is the invoice number: 1654367 ; Entity name mentioned: GFL49 dates - 2019-11-15 05:00:00.0000000 also Vendor ID 3045141 also created by sharon.watkins</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status ; BI code goes by: 55 USERNAME: rita.wurschum invoice was created on: 2019-11-02 04:00:00.0000000 ; InvoiceNum goes by: 071819434 1119 Entity name mentioned: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>I want to get an update on my invoice. Please find my information:  USERNAME is nicky.williams id of my Vendor = 1969163 The entity is named: GFL49 , date of the invoice creation is: 2019-11-01 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up . I have the following information the BI_CODE = 73 , On this date, the invoice was made: 2019-10-02 04:00:00.0000000 ; Entity name provided is: GFL49 and InvoiceNum is 0030360-IN</t>
+  </si>
+  <si>
+    <t>give me invoice , the time when my invoice was created is: 2019-11-30 05:00:00.0000000 , Here's the Invoice Number: 0029891-IN ; Vendor ID recorded as: 1781849 The BI identifier is: 21</t>
+  </si>
+  <si>
+    <t>May I know the status of my invoice?   my inv num is 6113 1119 , BI code goes by: Saskatoon vendor id - 2666990 submitted by the user: erica.shepherd</t>
+  </si>
+  <si>
+    <t>What's up ; What's the current status of my invoice? date of the invoice creation is: 2019-11-30 05:00:00.0000000 The VENDORID is mentioned as: 1372480 Invoice Number recorded as: 2922148 ; BI code goes by: Cumberland Thank you</t>
+  </si>
+  <si>
+    <t>Details. from the user named nicky.williams also Vendor_Id: 1326310 invoice was created on: 2019-10-02 04:00:00.0000000 , Invoice Number mentioned: 0029929-IN ; BUID = 14</t>
+  </si>
+  <si>
+    <t>Please provide me with my invoice status. the author of the invoice is laura.young ; Entity name mentioned: GFL49 and number of my invoice = S20012955-1</t>
+  </si>
+  <si>
+    <t>Hey there , Any news on the status of my invoice? These are my details:  On this date, the invoice was made: 2019-11-04 05:00:00.0000000 , Entity name specified as: GFL49 num of my inv - 0693-001756502 vendor id: 3036535</t>
+  </si>
+  <si>
+    <t>Howdy . I'm curious about the status of my invoice. number of my invoice = 9C500004 also BI code mentioned as: 35 and This is the vendor ID: 21581 also date: 2019-12-01 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey . Could you check the status of my invoice? InvoiceNum goes by: 62055801 1019 also EntityName goes by: GFL49 submitted by the user: nicky.williams Vendor ID specified as: 2919053 ; Invoice created on: 2019-12-01 05:00:00.0000000 business code is something like this: Medicine Hat</t>
+  </si>
+  <si>
+    <t>Hey hey ; EntityName goes by: GFL49 ; Date of origin: 2019-11-12 05:00:00.0000000 created by nicky.williams ;</t>
+  </si>
+  <si>
+    <t>Hi . Can you provide the status of my invoice? Here's the information I have:  dates = 2019-11-16 05:00:00.0000000 ; username = rhonda.massey also InvoiceNum = 49923-5 Unit ID: Dunford Yard Vendor ID provided is: 1985420 also Thank you</t>
+  </si>
+  <si>
+    <t>Allow me to provide my information:  Vendor_Id is3040972 The entity is named: GFL49 number of my invoice is: 10156 1019 BI Number is as follows: Cranbrook Hauling TS LF Date of invoice generation: 2019-12-09 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's going on , This is my data:  Invoice created by the user: sarah.hsuneeley Vendor_Id: 1225535 The entity is named: GFL49 BUID = 55 Creation date mentioned as: 2019-11-30 05:00:00.0000000 also</t>
+  </si>
+  <si>
+    <t>Sup . ven id = 963843 besides Entity name mentioned: GFL49 besides Invoice Number recorded as: 48011 1119 , Unit ID: 55 also the author of the invoice is brittany.holt</t>
+  </si>
+  <si>
+    <t>Hi there , I'm curious about the status of my invoice. business code is something like this: Cumberland The invoice was generated on: 2019-11-11 05:00:00.0000000 Entity identifier reads: GFL49 username = sarah.hsuneeley ; vendor id: 2474971</t>
+  </si>
+  <si>
+    <t>Here's what I have:  invoice Number = 1241 1119 and Entity name recorded as: GFL49 dates = 2019-10-18 04:00:00.0000000 this invoice was authored by: rita.wurschum ,</t>
+  </si>
+  <si>
+    <t>Hi . I'm interested in knowing the status of my invoice. my business code is 55 also This is the vendor ID: 2855627 invoice was created on: 2019-10-15 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Greetings ; give me invoice I'd like to share my details:  USERNAME: sarah.hsuneeley my BICODE is : Chemainus , Entity name recorded as: GFL49</t>
+  </si>
+  <si>
+    <t>May I know the status of my invoice? Check out my information:  Invoice created by the user: nicky.williams ; dates = 2019-10-25 04:00:00.0000000 the name of an enity is GFL49 ; Thank you</t>
+  </si>
+  <si>
+    <t>Greetings , invoice was created by nicky.williams EntityName goes by: GFL49 Invoice Number provided is: Q60001125313 Date of invoice generation: 2019-10-31 04:00:00.0000000 also i have the follwoing Vendor ID: 26155</t>
+  </si>
+  <si>
+    <t>What's the current status of my invoice? This is my data:  Date of invoice generation: 2019-10-18 04:00:00.0000000 ; code is: 55 and Vendor ID provided is: 2942940 Thank you</t>
+  </si>
+  <si>
+    <t>What's the current status of my invoice? my BICODE is : 2 num of my inv - 1708958699 1119 the author of the invoice is crys.massey ; Date when invoice was created: 2019-10-02 04:00:00.0000000 , Thank you</t>
+  </si>
+  <si>
+    <t>Please check and let me know the invoice status. Invoice date specified as: 2019-11-08 05:00:00.0000000 Here's the Vendor ID: 1968267 InvoiceNum = 301 666 also Entity name specified as: GFL49</t>
+  </si>
+  <si>
+    <t>Hiya . VENDORID is 2355905 from the user named laura.young ; Entity name mentioned: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Hi there . invoice was created by sharon.watkins also VENDOR_ID = 2583828 also BI code goes by: 55 number of my invoice is: 1930939 , Thank you</t>
+  </si>
+  <si>
+    <t>Greetings ; My information is as below:  date is 2019-11-05 05:00:00.0000000 ; USERNAME =  nicky.williams I have the following name of invoice entity: GFL49 number of my invoice 40001003 1119 Thank you</t>
+  </si>
+  <si>
+    <t>My Data is:  The Business Code reads: Cumberland , Vendor ID specified as: 2855598 Inv_Num is 000606 1119 , Thank you</t>
+  </si>
+  <si>
+    <t>I'd like to share my details:  Vendor ID mentioned: 47028 besides Invoice creation date recorded as: 2019-10-31 04:00:00.0000000 and USERNAME is sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>I have the following data:  dates - 2019-11-07 05:00:00.0000000 Entity name recorded as: GFL49 USERNAME created the invoice with details: erica.shepherd ; Vendor ID 2482963</t>
+  </si>
+  <si>
+    <t>I have the following data:  VENDORID is 1961153 ; the username of the person who created invoice : sarah.hsuneeley Date when invoice was created: 2019-11-30 05:00:00.0000000 ; The Business Code reads: Edmonton SW</t>
+  </si>
+  <si>
+    <t>Below is my data:  Invoice date specified as: 2019-12-05 05:00:00.0000000 Here's the Vendor ID: 2739095 besides generated by the user: chris.milo besides My InvoiceNum: Q60001125325 also The entity name is: GFL49 , my code is : Cranbrook Hauling TS LF Thank you</t>
+  </si>
+  <si>
+    <t>Hey hey . These are my details:  INVOICE Num: 1929144 and userNAME - nicky.williams Business Unit ID is 104 Thank you</t>
+  </si>
+  <si>
+    <t>Yo . Check out my information:  dates - 2019-10-06 04:00:00.0000000 also my VENDOR_ID is 2370822 Inv_Num is 866 095 the name of an enity is GFL49 also BI CODE is - 73 created by sarah.hsuneeley Thank you</t>
+  </si>
+  <si>
+    <t>Yo , invoice was created by sarah.hsuneeley id of my Vendor = 1994060 , Invoice date specified as: 2019-11-30 05:00:00.0000000 enity id = GFL49 also The InvoiceNum is mentioned as: 1144745-0017</t>
+  </si>
+  <si>
+    <t>Can you provide the status of my invoice? Inv_Num is 51240802 RI ; i have the follwoing Vendor ID: 2082732</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status , my business code is 5 besides The InvoiceNum is mentioned as: 0685-001202997 EntityName goes by: GFL49 the username of the person who created invoice : robin.adkins</t>
+  </si>
+  <si>
+    <t>What's up . the name of an enity is GFL49 On this date, the invoice was made: 2019-10-31 04:00:00.0000000 from the user named nicky.williams and Vendor ID recorded as: 1759377</t>
+  </si>
+  <si>
+    <t>Howdy ; I have the following details  dates = 2019-11-22 05:00:00.0000000 InvNum = 0372249 0 userNAME - kirsten.cox besides enity name: GFL49 , BI CODE is - 55 Thank you</t>
+  </si>
+  <si>
+    <t>I'd like to check my invoice status. enity name: GFL49 , Vendor ID specified as: 1906091 and by the following user - tracy.cooke Thank you</t>
+  </si>
+  <si>
+    <t>Hey ; These are my particulars:  enity id = GFL49 and BI code goes by: 14</t>
+  </si>
+  <si>
+    <t>Hey hey , Get me my Invoice Inv_Num: 0005570 0 the time when my invoice was created is: 2019-11-11 05:00:00.0000000 id of my Vendor = 2683749 The BI identifier is: 55 and from the user named natashia.mcmurrin Thank you</t>
+  </si>
+  <si>
+    <t>Hiya . created by sarah.hsuneeley also The date when the invoice was formed: 2019-10-31 04:00:00.0000000 and Unit ID: 7 VendorId goes by: 4757 Thank you</t>
+  </si>
+  <si>
+    <t>Sup , Invoice created by the user: chris.milo and VENDORID is 2704714 , The invoice was generated on: 2019-11-25 05:00:00.0000000 Here's the Invoice Number: 0973-000490122</t>
+  </si>
+  <si>
+    <t>Hiya , I have the following information The name of the entity is: GFL49 Vendor ID specified as: 2683853 also BI Number is as follows: First Class</t>
+  </si>
+  <si>
+    <t>I have the following details . my code is : 55 , USERNAME created the invoice with details: sarah.hsuneeley Vendor ID SEWFEN01 Invoice creation date recorded as: 2019-11-27 05:00:00.0000000 also INVOICE Num: 5500 8228 Thank you</t>
+  </si>
+  <si>
+    <t>Hello , Here's what you need to know:  Entity name recorded as: GFL49 , Date of origin: 2019-10-31 04:00:00.0000000 ; from the user named Megan.Gullion Thank you</t>
+  </si>
+  <si>
+    <t>Please provide me with my invoice status. business code is something like this: Cumberland Invoice Number recorded as: 3026-000013484 ; from the user named laura.young ; ven id 2401879 Thank you</t>
+  </si>
+  <si>
+    <t>Here's what I have:  USERNAME created the invoice with details: sarah.hsuneeley ; enity name: GFL49 also the BI_CODE = Chemainus</t>
+  </si>
+  <si>
+    <t>Hey hey , Check out my information:  The entity name is: GFL49 submitted by the user: nicky.williams The date of invoice creation is: 2019-11-30 05:00:00.0000000 For tracking purposes, my BI code: Cumberland besides Invoice identifier reads: 32639889012 1219 besides id of my Vendor : 2859302 Thank you</t>
+  </si>
+  <si>
+    <t>Hi ; invoice status Here's my information:  ven id = 1985155 , date of the invoice creation is: 2019-11-01 04:00:00.0000000 besides the name of an enity is GFL49 ; Business Unit ID is Victoria Coast Invoice created by the user: rene.vanek Thank you</t>
+  </si>
+  <si>
+    <t>Hey ; The date when the invoice was formed: 2019-12-06 05:00:00.0000000 my entity name is GFL49 , bi code = Cranbrook Hauling TS LF Invoice identifier reads: 19504 1119</t>
+  </si>
+  <si>
+    <t>What's happening ; Give me my Invoice Allow me to provide my information:  id of my Vendor : 3036631 inv num: 567 1119 the BI_CODE = Chemainus date: 2019-11-22 05:00:00.0000000 The entity name is: GFL49 created by user with username: Stephanie.Walters Thank you</t>
+  </si>
+  <si>
+    <t>Hello . Please find my information:  Code assigned to this BI: Cranbrook Hauling TS LF , ENTITY_ID is : GFL49 ; USERNAME created the invoice with details: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>Hey ; Is there any update on my invoice status? Details My entity name: GFL49 also Invoice Number mentioned: 1916500 and created by user with username: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>Sup ; Check out my information:  The date when the invoice was formed: 2019-11-01 04:00:00.0000000 submitted by the user: sarah.hsuneeley Thank you</t>
+  </si>
+  <si>
+    <t>Hello , Here's what you need to know:  InvoiceNum specified as: 0151690 Invoice creation date recorded as: 2019-11-18 05:00:00.0000000 ; Vendor ID 2513483 The name of the entity is: GFL49 Invoice created by the user: alexis.singletary , my business code is Cumberland</t>
+  </si>
+  <si>
+    <t>Sup . Is there any update on my invoice status? This is my data:  my VENDOR_ID is G490035991 , BUID = 55 besides InvoiceNum goes by: 24930 1019 , created by sarah.hsuneeley Entity name mentioned: GFL49</t>
+  </si>
+  <si>
+    <t>Hiya ; I would like to have the invoice enity id = GFL49 , my business code is 18 ; ven id = 56573 dates - 2019-11-11 05:00:00.0000000 , USERNAME is nicky.williams Thank you</t>
+  </si>
+  <si>
+    <t>Sup , give me invoice Here's what you need to know:  This is the invoice number: 000010 1019 Vendor ID specified as: 2420703 date: 2019-11-18 05:00:00.0000000 besides the author of the invoice is rhonda.massey , business code is something like this: Cumberland also</t>
+  </si>
+  <si>
+    <t>Hiya . invoice status The date when the invoice was formed: 2019-11-18 05:00:00.0000000 created by sherry.grisham The BI identifier is: 85 Inv_Num: 0029928-IN Entity name provided is: GFL49 and vendor id: 2917584 Thank you</t>
+  </si>
+  <si>
+    <t>Heya . I'm inquiring about the status of my invoice. number of my invoice is: 000402 1219 and date is 2019-12-01 05:00:00.0000000 username = sarah.hsuneeley ; BI code goes by: 30 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  username = sarah.hsuneeley and dates - 2019-11-01 04:00:00.0000000 consider my bi name BI Identifier: 55 , Vendor identifier reads: 1971722 Thank you</t>
+  </si>
+  <si>
+    <t>Yo , Could you give me an update on my invoice? USERNAME =  stephanie.walker ; VENDOR_ID = 1983598 Invoice created on: 2019-11-06 05:00:00.0000000 BI CODE is - Cumberland My entity name: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Inv_Num: 0365919 7 VENDORID is 2911570 ; EntityName goes by: GFL49 BI code mentioned as: Victoria Coast Thank you</t>
+  </si>
+  <si>
+    <t>What's happening ; I want status of my invoice USERNAME created the invoice with details: alexis.singletary , BI Number is as follows: Cranbrook Hauling TS LF , Date when invoice was created: 2019-10-13 04:00:00.0000000 my vendor id is 491014 Invoice Number recorded as: 2-12713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ENTITY_ID is : GFL49 ; invoice was created by sarah.hsuneeley and Code assigned to this BI: 55 Thank you</t>
+  </si>
+  <si>
+    <t>Yo , I'm interested in knowing the status of my invoice. the name of an enity is GFL49 ; the creator's username is nicky.williams business unit code is 90 dates - 2019-10-31 04:00:00.0000000 , num of my inv - 0084343-IN Thank you</t>
+  </si>
+  <si>
+    <t>Hi there . vendor id - 2359447 Creation date mentioned as: 2019-10-28 04:00:00.0000000 ent id = GFL49 , InvoiceNum = 49923-12 from the user named nicky.williams Thank you</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status . These are my particulars:  Invoice date specified as: 2019-11-15 05:00:00.0000000 and ven id = 3025300 also this invoice was authored by: sarah.hsuneeley ; Here's the Invoice Number: 29268</t>
+  </si>
+  <si>
+    <t>Sup ; Get me my Invoice enity name: GFL49 vendor id: 1186003 the creator's username is sarah.hsuneeley date: 2019-11-19 05:00:00.0000000 , BI Reference: 55 Thank you</t>
+  </si>
+  <si>
+    <t>I want status of my invoice ; num of my inv is22-479173 USERNAME created the invoice with details: sarah.hsuneeley besides dates = 2019-10-27 04:00:00.0000000 enity id = GFL49 also my business code is 55</t>
+  </si>
+  <si>
+    <t>What's going on . My entity name: GFL49 and BI CODE is - 55 also Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Invoice created by the user: tracy.cooke Vendor identifier reads: 382766 Entity name specified as: GFL49 and Creation date mentioned as: 2019-11-30 05:00:00.0000000 Here's the Invoice Number: 1929246 Thank you</t>
+  </si>
+  <si>
+    <t>Do you have any information on my invoice status? by the following user - alexis.singletary besides the BI_CODE = 18 invoice was created on: 2019-11-27 05:00:00.0000000 also ENTITY_ID is : GFL49 , inv num: 48020718 1119</t>
+  </si>
+  <si>
+    <t>I'm inquiring about the status of my invoice. created by faith.sairls and Inv_Num is 0378460 7 , I have the following name of invoice entity: GFL49 ;</t>
+  </si>
+  <si>
+    <t>Hello . Could you give me an update on my invoice? I have the following information USERNAME created the invoice with details: stephanie.walker BI Number is as follows: Jetco Corp The date of invoice creation is: 2019-12-03 05:00:00.0000000 This is the vendor ID: 2773496</t>
+  </si>
+  <si>
+    <t>Hello , num of my inv is718188 ; ent id = GFL49 BI code goes by: 73 ; The date of invoice creation is: 2019-10-14 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's happening . These are my details:  EntityName goes by: GFL49 and id of my Vendor : 1379956 the time when my invoice was created is: 2019-12-01 05:00:00.0000000 , BI Number is as follows: 55 Thank you</t>
+  </si>
+  <si>
+    <t>Could you check the status of my invoice? Entity name recorded as: GFL49 i have the follwoing Invoice Number: 0778-000590500 vendor id - 876871 consider my bi name BI Identifier: 28 Thank you</t>
+  </si>
+  <si>
+    <t>Hey there , I'm providing the following data:  The date when the invoice was formed: 2019-10-08 04:00:00.0000000 , The BI identifier is: TLRegional , the username of the person who created invoice : tena.trapp inv num: 2-12714</t>
+  </si>
+  <si>
+    <t>Hi there , business unit code is 55 date is 2019-08-31 04:00:00.0000000 also person who created my invoice: brittany.holt and entity name -  GFL49</t>
+  </si>
+  <si>
+    <t>Hiya . May I know the status of my invoice? My details include:  Business Unit ID is 55 ; Invoice date specified as: 2019-10-31 04:00:00.0000000 ; The entity name is: GFL49 ven id = 2401852 person who created my invoice: sarah.hsuneeley Thank you</t>
+  </si>
+  <si>
+    <t>What's going on . the name of an enity is GFL49 , the BI_CODE = Cumberland This is the invoice number: 2919334 and Creation date mentioned as: 2019-11-12 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Could you check the status of my invoice? My Vendor_Id: 2881315 InvoiceNum goes by: 1929167</t>
+  </si>
+  <si>
+    <t>I need information about the status of my invoice. Details:  my vendor id is 3050919 , ent id = GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Hello , I'm curious about the status of my invoice. Info The entity is named: GFL49 , Invoice created on: 2019-11-13 05:00:00.0000000 InvoiceNum: 700 1119 USERNAME =  rhonda.massey business code is something like this: 55 Vendor identifier reads: 2415672 Thank you</t>
+  </si>
+  <si>
+    <t>Hey hey , invoice status The date when the invoice was formed: 2019-10-31 04:00:00.0000000 The Business Code reads: Cumberland id of my Vendor : 978367 Thank you</t>
+  </si>
+  <si>
+    <t>Howdy , number of my invoice is: 001 1119 Entity name provided is: GFL49 On this date, the invoice was made: 2019-10-28 04:00:00.0000000 besides code is: Jetco Corp</t>
+  </si>
+  <si>
+    <t>Hey there ; Could you give me an update on my invoice? I have the following information The date when the invoice was formed: 2019-12-04 05:00:00.0000000 besides VENDORID is 1431822 BUID = Edmonton SW ; the username of the person who created invoice : nicky.williams Thank you</t>
+  </si>
+  <si>
+    <t>what is my invoice status , Invoice Number recorded as: 716974 ; For tracking purposes, my BI code: 73 ; invoice was created on: 2019-11-13 05:00:00.0000000 ;</t>
+  </si>
+  <si>
+    <t>Info. The VENDORID is mentioned as: 1202721 enity id = GFL49 and InvoiceNum = 358 454 Creation date mentioned as: 2019-11-30 05:00:00.0000000 my BICODE is : 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  submitted by the user: nicky.williams Inv_Num: 32639889010 1219 besides code is: 55 ; VendorId goes by: 2925541 the name of an enity is GFL49 date of the invoice creation is: 2019-11-30 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  person who created my invoice: alphenie.ware besides Entity name mentioned: GFL49 and Here's the Invoice Number: 0011307 8 The VENDORID is mentioned as: 2122141 Code assigned to this BI: 183</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice , my VENDOR_ID is 1070449 Invoice creation date recorded as: 2019-11-02 04:00:00.0000000 username = julie.brookshire ; My entity name: GFL49 ; my inv num is 0000913344 also BI CODE is - Cranbrook Hauling TS LF</t>
+  </si>
+  <si>
+    <t>Hi , Get me my Invoice Check out my information:  dates = 2019-11-27 05:00:00.0000000 The VENDORID is mentioned as: 1776003 name = jeannette.wilkerson InvoiceNum specified as: 48771 ent id = GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>I'm interested in knowing the status of my invoice. My details are -  number of my invoice = I284-1289 ; BI code goes by: Cumberland submitted by the user: stephanie.walker</t>
+  </si>
+  <si>
+    <t>Sharing my details:  The Business Code reads: 55 , USERNAME created the invoice with details: amber.stone also Invoice creation date recorded as: 2019-11-14 05:00:00.0000000 besides The VENDORID is mentioned as: 2951387 The entity is named: GFL49</t>
+  </si>
+  <si>
+    <t>Let me share my info:  enity name: GFL49 BUID = Cumberland , num of my inv - 3013107904 1119 created by harriet.carltonjames and Date of origin: 2019-11-01 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hi . Here's what I have:  userNAME - Stephanie.Walters Entity name mentioned: GFL49 the time when my invoice was created is: 2019-11-04 05:00:00.0000000 besides This is the invoice number: 29397 VendorId goes by: 2493646 ; the BI_CODE = 55</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status , Please find my information:  my BICODE is : Edmonton SW dates - 2019-10-31 04:00:00.0000000 my vendor id is 1980266 ent id = GFL49 InvoiceNum specified as: 21565260 besides by the following user - sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>Could you give me an update on my invoice? Entity name provided is: GFL49 USERNAME is alexis.singletary inv num: 0693-001755515 consider my bi name BI Identifier: Saskatoon , date is 2019-11-13 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Howdy , VENDORID is 1421843 besides my BICODE is : 55 The date of invoice creation is: 2019-10-31 04:00:00.0000000 ; inv num: 3551832 and from the user named sherry.wade</t>
+  </si>
+  <si>
+    <t>What's happening . Get me my Invoice Here's what you need to know:  vendor id - 2698220 ; Invoice created by the user: nicky.williams , dates = 2019-11-30 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BI Number is as follows: Cumberland dates = 2019-10-30 04:00:00.0000000 ; the username of the person who created invoice : rita.wurschum and</t>
+  </si>
+  <si>
+    <t>I want to get an update on my invoice. Here's what you need to know:  VENDORID is 1422467 , username = sarah.hsuneeley I have the following name of invoice entity: GFL49 On this date, the invoice was made: 2019-11-07 05:00:00.0000000 business code is something like this: Cumberland Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  InvoiceNum goes by: 16230 also entity name -  GFL49 besides Thank you</t>
+  </si>
+  <si>
+    <t>Give me my Invoice . Here's what I have:  consider my bi name BI Identifier: 55 , Vendor ID 2919686 ; ent id = GFL49 also person who created my invoice: Melissa.White invoice Number = 0866-000485900 Thank you</t>
+  </si>
+  <si>
+    <t>Sharing my details:  Vendor ID mentioned: 2548791 and BUID = Chemainus userNAME - nicky.williams date is 2019-10-31 04:00:00.0000000 , num of my inv is0013725-0381-1 and My entity name: GFL49</t>
+  </si>
+  <si>
+    <t>What's up . I want status of my invoice id of my Vendor = 456391 besides entity name -  GFL49 my BICODE is : Cranbrook Hauling TS LF date of the invoice creation is: 2019-12-13 05:00:00.0000000 submitted by the user: sarah.hsuneeley Invoice identifier reads: 49923-26 Thank you</t>
+  </si>
+  <si>
+    <t>Please provide me with my invoice status. Creation date mentioned as: 2019-11-27 05:00:00.0000000 ; ENTITY_ID is : GFL49</t>
+  </si>
+  <si>
+    <t>I need information about the status of my invoice. Below is my data:  id of my Vendor : 2272608 besides InvoiceNum = 5202-718600 besides Entity name provided is: GFL49 , BI Number is as follows: 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Entity identifier reads: GFL49 also Vendor ID specified as: 888011 , InvoiceNum: 14157 1019 Thank you</t>
+  </si>
+  <si>
+    <t>Hello ; Any news on the status of my invoice? Check out my information:  ent id = GFL49 , ven id 2266671 besides For tracking purposes, my BI code: 122 invoice was created on: 2019-12-05 05:00:00.0000000 The InvoiceNum is mentioned as: 0685-001210000 generated by the user: ann.yorgey Thank you</t>
+  </si>
+  <si>
+    <t>What's happening , Do you have any information on my invoice status? this invoice was authored by: rita.wurschum , inv num: 29362 consider my bi name BI Identifier: Edmonton SW The entity is named: GFL49</t>
+  </si>
+  <si>
+    <t>Hello , Details the name of an enity is GFL49 Vendor ID specified as: 2194304 InvoiceNum: QG0000013166 The date when the invoice was formed: 2019-12-01 05:00:00.0000000 business unit code is 10 Invoice created by the user: maxine.oakley Thank you</t>
+  </si>
+  <si>
+    <t>Hey there ; what is my invoice status business code is something like this: ABN besides i have the follwoing Invoice Number: 9C900003 ; USERNAME created the invoice with details: robin.adkins also ven id 2919361 and Invoice creation date recorded as: 2019-11-29 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hello , The VENDORID is mentioned as: 3053415 also The name of the entity is: GFL49 On this date, the invoice was made: 2019-11-01 04:00:00.0000000 , number of my invoice is: 032 158 Invoice created by the user: nicky.williams</t>
+  </si>
+  <si>
+    <t>Hi there . I need information about the status of my invoice. This is my data:  InvNum = 10 P2 also Vendor ID mentioned: G490029335 ; ent id = GFL49 Unit ID: Cumberland the time when my invoice was created is: 2019-10-19 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Give me my Invoice ; Date when invoice was created: 2019-11-01 04:00:00.0000000 vendor id: 2987241 BI code goes by: 55 username = patricia.moorefield Entity name recorded as: GFL49</t>
+  </si>
+  <si>
+    <t>Below is my data:  my business code is 55 number of my invoice 0866-000485995 I have the following name of invoice entity: GFL49 the time when my invoice was created is: 2019-11-12 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up , May I know the status of my invoice? My Data is:  id of my Vendor = JHSERV01 invoice was created on: 2019-11-06 05:00:00.0000000 Entity name provided is: GFL49 person who created my invoice: alexis.singletary and The InvoiceNum is mentioned as: 7194484 Thank you</t>
+  </si>
+  <si>
+    <t>Greetings . Any news on the status of my invoice? number of my invoice is: 3013107673 1119 consider my bi name BI Identifier: 121 created by user with username: sarah.hsuneeley Entity name mentioned: GFL49 Date when invoice was created: 2019-08-01 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Please inform me about my invoice status. Here's the information I have:  My InvoiceNum: 1941602 my vendor id is 2284191 this invoice was authored by: rita.wurschum , Date of origin: 2019-11-11 05:00:00.0000000 besides business unit code is 55</t>
+  </si>
+  <si>
+    <t>What's happening .   consider my bi name BI Identifier: Cumberland and number of my invoice 0939-001516604 The date of invoice creation is: 2019-08-26 04:00:00.0000000 ;</t>
+  </si>
+  <si>
+    <t>Hey hey , Please inform me about my invoice status. Please find my information:  vendor id - 3028068 i have the follwoing Invoice Number: 2-12728 and username = stephanie.walker Entity identifier reads: GFL49 On this date, the invoice was made: 2019-11-14 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Greetings , give me invoice Here's my information:  BUID = Chemainus The InvoiceNum is mentioned as: 49923-21 ; entity name -  GFL49 The date when the invoice was formed: 2019-08-05 04:00:00.0000000 vendor id - 2615199</t>
+  </si>
+  <si>
+    <t>Hi , I have the following details  Here's the Vendor ID: 2446073 Invoice created on: 2019-10-31 04:00:00.0000000 BI code mentioned as: 64 , entity name -  GFL49 submitted by the user: nicky.williams</t>
+  </si>
+  <si>
+    <t>I'd like to check my invoice status. entity name -  GFL49 , date: 2019-11-06 05:00:00.0000000 InvoiceNum: S20012952-1 , Thank you</t>
+  </si>
+  <si>
+    <t>Hi ; Please inform me about my invoice status. ven id 973726 , date is 2019-12-01 05:00:00.0000000 ; My entity name: GFL49 Invoice Number provided is: 5126-000065689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Inv_Num: 49539-10 ven id = 2911449 created by user with username: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>Hiya , I'd like to check my invoice status. My Data is:  number of my invoice 627668 and Creation date mentioned as: 2019-11-18 05:00:00.0000000 consider my bi name BI Identifier: Enviro BP , my VENDOR_ID is 2921612</t>
+  </si>
+  <si>
+    <t>Hey there ; I'm inquiring about the status of my invoice. InvoiceNum is 314284 also BUID = Victoria Coast USERNAME created the invoice with details: alexis.singletary my vend id 3034290 enity id = GFL49</t>
+  </si>
+  <si>
+    <t>What's going on , Give me my Invoice Please find my information:  BI code mentioned as: 55 also EntityName goes by: GFL49 and InvoiceNum goes by: Inv-0714</t>
+  </si>
+  <si>
+    <t>Hello , Let me know the current status of my invoice. inv num: 0685-001212840 besides code is: 73 ; this invoice was authored by: alvin.singletary ; Invoice created on: 2019-10-10 04:00:00.0000000 and Thank you</t>
+  </si>
+  <si>
+    <t>Hello . Give me my Invoice vendor id: 2305220 also My InvoiceNum: 24160208 RI Entity name provided is: GFL49 also created by sarah.hsuneeley Thank you</t>
+  </si>
+  <si>
+    <t>I'm inquiring about the status of my invoice. dates - 2019-11-27 05:00:00.0000000 num of my inv isA-37428 Vendor ID provided is: 3034388 , person who created my invoice: alexis.singletary I have the following name of invoice entity: GFL49</t>
+  </si>
+  <si>
+    <t>Let me know the current status of my invoice. ENTITY_ID is : GFL49 USERNAME created the invoice with details: sarah.hsuneeley , BI code mentioned as: Chemainus Date of origin: 2019-11-30 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>give me invoice , My details are -  Inv_Num is 175056889-001 enity id = GFL49 Vendor ID 1965453 ; date of the invoice creation is: 2019-10-30 04:00:00.0000000 the creator's username is sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>What's going on ; enity name: GFL49 ; My Vendor_Id: 1540738 business unit code is Ground Force ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BI Reference: Cumberland , Creation date mentioned as: 2019-12-04 05:00:00.0000000 ; Entity name mentioned: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Any news on the status of my invoice? Allow me to provide my information:  USERNAME =  rhonda.massey besides my business code is 183 , Vendor ID mentioned: 552331</t>
+  </si>
+  <si>
+    <t>Heya ; Here's the information I have:  I have the following name of invoice entity: GFL49 Vendor_Id: 2942851 InvoiceNum specified as: 8 1019 , BI Reference: 35 ;</t>
+  </si>
+  <si>
+    <t>Hey hey ; May I know the status of my invoice? Please find my information:  the BI_CODE = Recyclex InvoiceNum is 2-12741 ; The date of invoice creation is: 2019-11-02 04:00:00.0000000 ,</t>
+  </si>
+  <si>
+    <t>Hi there ; I would like to have the invoice Invoice Number provided is: 40315-1019 Entity name specified as: GFL49 ; the username of the person who created invoice : nicky.williams ; BI Reference: Cumberland my VENDOR_ID is 2929737</t>
+  </si>
+  <si>
+    <t>Give me my Invoice . Details:  invoice was created by nicky.williams besides Vendor_Id is738208</t>
+  </si>
+  <si>
+    <t>Greetings , My details include:  Invoice Number mentioned: IN861611 ; person who created my invoice: sarah.hsuneeley and The BI identifier is: 55</t>
+  </si>
+  <si>
+    <t>What's happening . I want to get my Invoice Status Here's the information I have:  The date when the invoice was formed: 2019-12-06 05:00:00.0000000 The Business Code reads: 85 The name of the entity is: GFL49 and my vendor id is 2894546</t>
+  </si>
+  <si>
+    <t>Hello , I want status of my invoice Invoice Number mentioned: 9AS00004 ; Vendor ID 1786594 name = chris.milo consider my bi name BI Identifier: 55 Entity identifier reads: GFL49</t>
+  </si>
+  <si>
+    <t>invoice status . Here's the information I have:  BI Reference: 73 ; vendor id: 2262741 besides created by alexis.singletary Creation date mentioned as: 2019-11-30 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey . Here's my information:  userNAME - jeannette.wilkerson The entity is named: GFL49 ; Vendor ID specified as: 3063664 and date is 2019-12-01 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Sup ; Here's my information:  My entity name: GFL49 USERNAME =  billie.wood BI code goes by: 18 and My InvoiceNum: 21527547</t>
+  </si>
+  <si>
+    <t>Hey , Entity name provided is: GFL49 also The date when the invoice was formed: 2019-11-01 04:00:00.0000000 my vend id 2052445</t>
+  </si>
+  <si>
+    <t>give me invoice . id of my Vendor : 2434591 and the creator's username is sarah.hsuneeley Inv_Num is 32639889015 1219 Entity identifier reads: GFL49 ; The invoice was generated on: 2019-11-30 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey , userNAME - chris.milo , vendor id: 2443753 This is the invoice number: 168456</t>
+  </si>
+  <si>
+    <t>What's happening . Here's what you need to know:  Entity name recorded as: GFL49 ; The date when the invoice was formed: 2019-12-04 05:00:00.0000000 number of my invoice = 80040406 0919 besides submitted by the user: nicky.williams and The Business Code reads: Jetco Corp</t>
+  </si>
+  <si>
+    <t>Hi there ; I'm interested in knowing the status of my invoice. Allow me to provide my information:  Code assigned to this BI: 55 and The invoice was generated on: 2019-11-30 05:00:00.0000000 also enity id = GFL49 also</t>
+  </si>
+  <si>
+    <t>My Data is:  Invoice date specified as: 2019-10-25 04:00:00.0000000 Entity identifier reads: GFL49 Inv_Num: 543 168</t>
+  </si>
+  <si>
+    <t>Hey there . Could you give me an update on my invoice? Entity name mentioned: GFL49 generated by the user: alexis.singletary Code assigned to this BI: Victoria Coast , InvoiceNum = 51191 1119 Date when invoice was created: 2019-11-30 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey hey . my inv num is 200503000039 1219 , Code assigned to this BI: 55 Date when invoice was created: 2019-11-12 05:00:00.0000000 and My entity name: GFL49 the author of the invoice is nicky.williams</t>
+  </si>
+  <si>
+    <t>Heya . Could you give me an update on my invoice? My information is as below:  Vendor_Id is1606215 USERNAME =  sarah.hsuneeley ; enity name: GFL49 and Thank you</t>
+  </si>
+  <si>
+    <t>I'd like to share my details:  invoice Number = 5979 , The date of invoice creation is: 2019-12-01 05:00:00.0000000 and Entity identifier reads: GFL49 , BI code goes by: 121 besides</t>
+  </si>
+  <si>
+    <t>I want status of my invoice ; Check out my information:  the username of the person who created invoice : sarah.hsuneeley , enity name: GFL49 Unit ID: Cranbrook Hauling TS LF VendorId goes by: LORMAT01</t>
+  </si>
+  <si>
+    <t>What's happening ; VendorId goes by: 522183 On this date, the invoice was made: 2019-12-02 05:00:00.0000000 BUID = 96 number of my invoice is: 0081958-IN Thank you</t>
+  </si>
+  <si>
+    <t>Please check and let me know the invoice status. i have the follwoing Vendor ID: 872255 Date of invoice generation: 2019-10-31 04:00:00.0000000 USERNAME created the invoice with details: sarah.hsuneeley , InvoiceNum = 1065 1219 Business Unit ID is 55</t>
+  </si>
+  <si>
+    <t>Could you check the status of my invoice? I'm providing the following data:  dates = 2019-09-02 04:00:00.0000000 bi code = Vancouver Hauling , Vendor ID 3038581 and submitted by the user: rhonda.massey</t>
+  </si>
+  <si>
+    <t>Hi , Here's the information I have:  the author of the invoice is rita.wurschum BI code goes by: 35 ; The date when the invoice was formed: 2019-11-14 05:00:00.0000000 besides The VENDORID is mentioned as: 920421 Invoice Number mentioned: 3011767 enity name: GFL49</t>
+  </si>
+  <si>
+    <t>Allow me to provide my information:  business code is something like this: Chemainus Date when invoice was created: 2019-11-19 05:00:00.0000000 , Entity name specified as: GFL49 invoice was created by patricia.moorefield</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status , business unit code is 55 also Date of origin: 2019-11-01 04:00:00.0000000 besides enity id = GFL49 ; Thank you</t>
+  </si>
+  <si>
+    <t>I need information about the status of my invoice. My information is as below:  The BI identifier is: 95 also entity name -  GFL49 , date of the invoice creation is: 2019-11-06 05:00:00.0000000 My InvoiceNum: 1192200 1119</t>
+  </si>
+  <si>
+    <t>I need information about the status of my invoice. number of my invoice is: 0693-001747098 ; id of my Vendor = 2998572 the BI_CODE = Cranbrook Hauling TS LF Invoice date specified as: 2019-11-20 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up , Here's my information:  enity name: GFL49 besides dates - 2019-11-30 05:00:00.0000000 , Invoice created by the user: sarah.hsuneeley also inv num: 1241819 ; consider my bi name BI Identifier: First Class Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  enity name: GFL49 ; Invoice date specified as: 2019-10-31 04:00:00.0000000 invoice was created by sarah.hsuneeley code is: 55 InvoiceNum specified as: 16205 Thank you</t>
+  </si>
+  <si>
+    <t>Hiya ; what is my invoice status I have the following data:  EntityName goes by: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  My Vendor_Id: 2434208 The entity name is: GFL49 besides Code assigned to this BI: Cumberland and date of the invoice creation is: 2019-11-14 05:00:00.0000000 generated by the user: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>I'm interested in knowing the status of my invoice. Sharing my details:  InvoiceNum is 0685-001209207 submitted by the user: nicky.williams also Vendor ID recorded as: 70869 Thank you</t>
+  </si>
+  <si>
+    <t>Do you have any information on my invoice status? I'm providing the following data:  enity id = GFL49 ; code is: Saskatoon Date of invoice generation: 2019-12-01 05:00:00.0000000 ; Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  invoice was created by cheryl.daniel consider my bi name BI Identifier: 55 , Vendor ID recorded as: 1036187 date is 2019-10-16 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey hey ; Vendor ID specified as: 3038590 generated by the user: roxanne.hoskins Date of invoice generation: 2019-11-30 05:00:00.0000000 , Inv_Num is 1933418 and entity name -  GFL49</t>
+  </si>
+  <si>
+    <t>I have the following information. Invoice created on: 2019-11-27 05:00:00.0000000 ; enity name: GFL49 , created by user with username: tena.trapp The Business Code reads: 55 also This is the vendor ID: 2620422 besides number of my invoice is: 22 1119</t>
+  </si>
+  <si>
+    <t>Give me my Invoice ; entity name -  GFL49 userNAME - michael.howell BI Number is as follows: 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  number of my invoice 1119 ; On this date, the invoice was made: 2019-11-20 05:00:00.0000000 name = michael.howell besides ven id 554839</t>
+  </si>
+  <si>
+    <t>I'd like to check my invoice status. Allow me to provide my information:  i have the follwoing Vendor ID: 1057586 The BI identifier is: 55 enity name: GFL49 The date of invoice creation is: 2019-10-15 04:00:00.0000000 ; the creator's username is alexis.singletary</t>
+  </si>
+  <si>
+    <t>Could you give me an update on my invoice? Here's what you need to know:  Vendor_Id: 3058363 The date of invoice creation is: 2019-11-30 05:00:00.0000000 and my BICODE is : 55 i have the follwoing Invoice Number: 200771077270 and USERNAME created the invoice with details: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>Howdy . invoice status Here's the information I have:  Here's the Invoice Number: 5477 bi code = Cumberland Thank you</t>
+  </si>
+  <si>
+    <t>Here's the information I have:  EntityName goes by: GFL49 invoice was created on: 2019-11-22 05:00:00.0000000 and INVOICE Num: 1143955-0016 and username = laura.young</t>
+  </si>
+  <si>
+    <t>What's the current status of my invoice? Below is my data:  Date of invoice generation: 2019-11-01 04:00:00.0000000 , Entity name mentioned: GFL49 Invoice created by the user: nicky.williams Thank you</t>
+  </si>
+  <si>
+    <t>invoice status . These are my particulars:  Invoice created by the user: ann.yorgey besides Invoice created on: 2019-10-15 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hi . My details include:  InvoiceNum goes by: 7194554 Invoice created by the user: sarah.hsuneeley Here's the Vendor ID: 2939134 The name of the entity is: GFL49 my business code is 55 Thank you</t>
+  </si>
+  <si>
+    <t>I'd like to check my invoice status. The BI identifier is: 73 ; Invoice creation date recorded as: 2019-12-02 05:00:00.0000000 also Thank you</t>
+  </si>
+  <si>
+    <t>May I know the status of my invoice? The entity name is: GFL49 BI code goes by: Cumberland from the user named laura.young Vendor ID specified as: 1182408 besides i have the follwoing Invoice Number: 1929164 Thank you</t>
+  </si>
+  <si>
+    <t>invoice status , Below is my data:  created by user with username: sarah.hsuneeley vendor id: 2661523 i have the follwoing Invoice Number: 000379 1119 ; my BICODE is : 2 Invoice creation date recorded as: 2019-10-10 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up ; created by jeannette.wilkerson Inv_Num: 015-019577 and BUID = Cumberland Creation date mentioned as: 2019-10-02 04:00:00.0000000 besides The VENDORID is mentioned as: 1958991 besides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Invoice Number mentioned: 627062 ; Entity identifier reads: GFL49 besides</t>
+  </si>
+  <si>
+    <t>Yo ; My details include:  i have the follwoing Vendor ID: 2917111 ; my entity name is GFL49 , Thank you</t>
+  </si>
+  <si>
+    <t>What's the current status of my invoice? vendor id - 1417801 , Creation date mentioned as: 2019-09-11 04:00:00.0000000 ; EntityName goes by: GFL49 besides Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Entity name recorded as: GFL49 This is the vendor ID: 1566081 dates = 2019-10-28 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hello , These are my particulars:  My InvoiceNum: 4634-000001274 I have the following name of invoice entity: GFL49 ; vendor id: 2910307 ; invoice was created on: 2019-11-30 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>I need information about the status of my invoice. This is my data:  The VENDORID is mentioned as: 2862173 For tracking purposes, my BI code: 55 USERNAME: sarah.hsuneeley entity name -  GFL49 , InvoiceNum specified as: 271528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The Business Code reads: Jetco Corp and Here's the Invoice Number: 27576499 besides id of my Vendor = 2370814 enity name: GFL49 created by sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>Hello ; give me invoice BI Reference: Dunford Yard besides my vendor id is 2126299 the username of the person who created invoice : laura.young inv num: 115182 1106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BI Number is as follows: BJ Bear VENDOR_ID = 3050599 ; The name of the entity is: GFL49 and dates = 2019-12-01 05:00:00.0000000 person who created my invoice: chris.milo</t>
+  </si>
+  <si>
+    <t>Greetings ; Entity identifier reads: GFL49 invoice Number = 408436135 1019 besides business code is something like this: 55 Vendor ID 2767838 also Date when invoice was created: 2019-10-24 04:00:00.0000000 USERNAME =  sharon.watkins Thank you</t>
+  </si>
+  <si>
+    <t>My details as follows:  entity name -  GFL49 and date of the invoice creation is: 2019-12-02 05:00:00.0000000 besides</t>
+  </si>
+  <si>
+    <t>Yo . My information is as below:  my inv num is 51240800 RI USERNAME: michael.howell The entity is named: GFL49 Unit ID: Cumberland and ven id = 1255380</t>
+  </si>
+  <si>
+    <t>Kindly provide me with the status of my invoice. My information is as below:  consider my bi name BI Identifier: Edmonton SW ; Here's the Invoice Number: 0030258-IN The name of the entity is: GFL49 date is 2019-11-13 05:00:00.0000000 ; Vendor_Id is1416171</t>
+  </si>
+  <si>
+    <t>Please check and let me know the invoice status. Here's what you need to know:  Invoice Number provided is: 1846477605 1119 besides Entity name specified as: GFL49 ; Vendor ID provided is: 2317298 The BI identifier is: Edmonton SW Thank you</t>
+  </si>
+  <si>
+    <t>I'd like to check my invoice status. I have the following details  person who created my invoice: stephanie.walker num of my inv - 4745-000012423 , Invoice created on: 2019-11-18 05:00:00.0000000 Vendor_Id is2859281 and entity name -  GFL49</t>
+  </si>
+  <si>
+    <t>Heya . Here's the information I have:  enity id = GFL49 this invoice was authored by: michelle.kennedy consider my bi name BI Identifier: Edmonton SW and Vendor ID recorded as: 1046238 Thank you</t>
+  </si>
+  <si>
+    <t>Hello ; give me invoice This is my data:  The entity is named: GFL49 besides dates = 2019-11-07 05:00:00.0000000 ; BI Number is as follows: TLRegional this invoice was authored by: stephanie.walker Invoice Number mentioned: 962 1019</t>
+  </si>
+  <si>
+    <t>Sharing my details:  Invoice Number recorded as: INV-010708 , Invoice date specified as: 2019-11-18 05:00:00.0000000 For tracking purposes, my BI code: 21</t>
+  </si>
+  <si>
+    <t>Hi , What's the current status of my invoice? consider my bi name BI Identifier: 2 the name of an enity is GFL49 and This is the invoice number: Y65354</t>
+  </si>
+  <si>
+    <t>What's happening ; Can you provide the status of my invoice? The date of invoice creation is: 2019-11-14 05:00:00.0000000 and my inv num is 006 1019 id of my Vendor : 2862093 BI Number is as follows: 55 Thank you</t>
+  </si>
+  <si>
+    <t>Greetings . I'm interested in knowing the status of my invoice. Invoice Number mentioned: 0693-001746671 Unit ID: 73 The invoice was generated on: 2019-11-04 05:00:00.0000000 and Here's the Vendor ID: 2912370</t>
+  </si>
+  <si>
+    <t>Hi there , I'm curious about the status of my invoice. Here's my information:  Date of invoice generation: 2019-10-19 04:00:00.0000000 besides Inv_Num: 80040406 0719 , This is the vendor ID: 48821 besides USERNAME: natashia.mcmurrin BI code mentioned as: First Class Entity identifier reads: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Kindly provide me with the status of my invoice. Vendor identifier reads: 2944970 Invoice created on: 2019-11-01 04:00:00.0000000 and The Business Code reads: 121 besides generated by the user: jeannette.wilkerson ; invoice Number = 4474-000004385 Entity name recorded as: GFL49</t>
+  </si>
+  <si>
+    <t>Get me my Invoice ; Creation date mentioned as: 2019-12-02 05:00:00.0000000 enity id = GFL49 besides BI Number is as follows: Cumberland , the username of the person who created invoice : sandra.williams besides Invoice identifier reads: 21320504-001</t>
+  </si>
+  <si>
+    <t>Sup , Get me my Invoice Details:  InvoiceNum specified as: 2-12683 Entity name recorded as: GFL49 created by sarah.hsuneeley , Thank you</t>
+  </si>
+  <si>
+    <t>I want status of my invoice ; my VENDOR_ID is 19060 , The entity name is: GFL49 ; invoice was created by chris.milo ; BI Reference: 95 The date of invoice creation is: 2019-12-10 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Get me my Invoice ; My details include:  USERNAME: tiffany.mcpherson The entity name is: GFL49 besides</t>
+  </si>
+  <si>
+    <t>Could you give me an update on my invoice? Here's my information:  the time when my invoice was created is: 2019-12-01 05:00:00.0000000 ; vendor id: 3063699 name = nicky.williams and BUID = 55 also number of my invoice is: 10564 1119</t>
+  </si>
+  <si>
+    <t>What's happening ; my code is : Jetco Corp my VENDOR_ID is 1807421 The date when the invoice was formed: 2019-10-02 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hiya , What's the current status of my invoice? I have the following details  BI CODE is - 95 besides Vendor identifier reads: BLUSIT01 USERNAME created the invoice with details: tracy.cooke num of my inv is5962200 Thank you</t>
+  </si>
+  <si>
+    <t>I'm inquiring about the status of my invoice. My details as follows:  vendor id: 898922 ; Entity name mentioned: GFL49 The Business Code reads: Edmonton SW , number of my invoice is: 0685-001184788 ; dates = 2019-11-30 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hey hey , I'm providing the following data:  BUID = 55 InvoiceNum: 0030285-IN Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Invoice creation date recorded as: 2019-11-30 05:00:00.0000000 business code is something like this: Windsor Vendor ID recorded as: CERTIT01 USERNAME =  rita.wurschum Thank you</t>
+  </si>
+  <si>
+    <t>I want to get an update on my invoice. enity name: GFL49 also Invoice created on: 2019-11-04 05:00:00.0000000 also Business Unit ID is 10 inv num: 0603-003673575</t>
+  </si>
+  <si>
+    <t>What's happening , my entity name is GFL49 besides Invoice created on: 2019-11-26 05:00:00.0000000 person who created my invoice: nicky.williams Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name = Stephanie.Walters , ven id 1955600 This is the invoice number: P288156-IN besides The invoice was generated on: 2019-11-21 05:00:00.0000000 ; The BI identifier is: 21 Entity name mentioned: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>What's happening ; I have the following details  Entity identifier reads: GFL49 Code assigned to this BI: 55 ; VENDOR_ID = 2013155 and Invoice Number recorded as: 3026-000013425</t>
+  </si>
+  <si>
+    <t>Hey there , I'm inquiring about the status of my invoice. ENTITY_ID is : GFL49 bi code = Edmonton SW Here's the Vendor ID: 1973963 generated by the user: amber.stone Invoice creation date recorded as: 2019-10-30 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Sup , Allow me to provide my information:  id of my Vendor = 596203 dates - 2019-10-15 04:00:00.0000000 Entity name recorded as: GFL49 ; Here's the Invoice Number: 3708-000017348</t>
+  </si>
+  <si>
+    <t>Hey there ; My details include:  EntityName goes by: GFL49 the BI_CODE = 73 invoice was created by sandra.williams</t>
+  </si>
+  <si>
+    <t>What's going on . submitted by the user: tracy.cooke the BI_CODE = 55 The entity name is: GFL49 besides InvoiceNum goes by: C9J1420</t>
+  </si>
+  <si>
+    <t>Please provide me with my invoice status. id of my Vendor : 2397064 Code assigned to this BI: 35 Invoice identifier reads: 1549541287 1119 Entity name specified as: GFL49</t>
+  </si>
+  <si>
+    <t>Hi ; what is my invoice status I have the following name of invoice entity: GFL49 my inv num is 680 951 person who created my invoice: sarah.hsuneeley ;</t>
+  </si>
+  <si>
+    <t>Heya . I would like to have the invoice Date of invoice generation: 2019-11-02 04:00:00.0000000 InvoiceNum is 24157824 RI ; USERNAME is stephanie.walker ; I have the following name of invoice entity: GFL49 Vendor identifier reads: 2295471</t>
+  </si>
+  <si>
+    <t>Greetings ; Let me share my info:  Entity name recorded as: GFL49 also ven id 2938369 and the BI_CODE = 55 ; Date when invoice was created: 2019-11-01 04:00:00.0000000 and i have the follwoing Invoice Number: 0609-000682259 also username = julie.brookshire</t>
+  </si>
+  <si>
+    <t>I'm curious about the status of my invoice. I have the following details  this invoice was authored by: sarah.hsuneeley besides Here's the Vendor ID: 1985649 besides Entity name recorded as: GFL49</t>
+  </si>
+  <si>
+    <t>Hello , What's the current status of my invoice? I have the following data:  i have the follwoing Invoice Number: 24969 ; code is: Chemainus the author of the invoice is sarah.hsuneeley ; Here's the Vendor ID: 2910121 Thank you</t>
+  </si>
+  <si>
+    <t>Howdy , I need information about the status of my invoice. I'd like to share my details:  business unit code is Cumberland besides Creation date mentioned as: 2019-12-01 05:00:00.0000000 ; the creator's username is Stephanie.Walters besides my VENDOR_ID is 2951459 , number of my invoice = 9B800004 Entity identifier reads: GFL49</t>
+  </si>
+  <si>
+    <t>What's going on , dates - 2019-11-09 05:00:00.0000000 ; BI Number is as follows: 55 , id of my Vendor : 1744132 Invoice created by the user: amy.greenlaw</t>
+  </si>
+  <si>
+    <t>Here's what I have:  generated by the user: patricia.moorefield and my code is : Jetco Corp VendorId goes by: 1765110 and the name of an enity is GFL49 InvoiceNum specified as: 1 1219 On this date, the invoice was made: 2019-11-20 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hiya . Can you provide the status of my invoice? Here's what you need to know:  Vendor_Id: 2537514 Unit ID: Chemainus inv num: 3512-000003870 besides userNAME - susan.barnhill also Entity name specified as: GFL49</t>
+  </si>
+  <si>
+    <t>What's going on ; Here's my information:  num of my inv - 3882 1119 ENTITY_ID is : GFL49 dates = 2019-11-15 05:00:00.0000000 ; by the following user - brittany.holt my VENDOR_ID is 1785170 my business code is Interior BC Thank you</t>
+  </si>
+  <si>
+    <t>I have the following data:  The name of the entity is: GFL49 the creator's username is rita.wurschum id of my Vendor : 2946861 besides invoice Number = 32924-1019</t>
+  </si>
+  <si>
+    <t>I want status of my invoice ; Here's the information I have:  Invoice Number provided is: 0800-007320184 BI Reference: Cumberland vendor id - 1779061 The date when the invoice was formed: 2019-11-22 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Details:  Date of origin: 2019-12-01 05:00:00.0000000 Invoice created by the user: sarah.hsuneeley besides consider my bi name BI Identifier: 55 ven id 3044931 Thank you</t>
+  </si>
+  <si>
+    <t>What's up , These are my details:  Inv_Num is 267353 the BI_CODE = 55 dates = 2019-11-12 05:00:00.0000000 vendor id - 3034329</t>
+  </si>
+  <si>
+    <t>Could you check the status of my invoice? Below is my data:  my vend id 1766243 besides ent id = GFL49 Invoice identifier reads: 19-4255</t>
+  </si>
+  <si>
+    <t>Greetings , I would like to have the invoice My details as follows:  Vendor ID recorded as: 2422629 enity name: GFL49 by the following user - nicky.williams date is 2019-11-15 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Details:  The VENDORID is mentioned as: 3008761 also ent id = GFL49 Unit ID: Edmonton SW also InvoiceNum: 631-NOV</t>
+  </si>
+  <si>
+    <t>Hi . Let me know the current status of my invoice. Here's my information:  The date when the invoice was formed: 2019-11-01 04:00:00.0000000 besides business code is something like this: Cranbrook Hauling TS LF also ven id = 2441643 ; Invoice created by the user: rita.wurschum Thank you</t>
+  </si>
+  <si>
+    <t>Could you check the status of my invoice? My details include:  ven id 2925630 created by rita.wurschum also Invoice Number provided is: 7194565</t>
+  </si>
+  <si>
+    <t>I want to get my Invoice Status .   Entity name recorded as: GFL49 , Invoice date specified as: 2019-10-02 04:00:00.0000000 , The Business Code reads: 55 Thank you</t>
+  </si>
+  <si>
+    <t>I would like to have the invoice , I have the following information dates = 2019-08-17 04:00:00.0000000 ; Vendor ID mentioned: 952108 ; business code is something like this: Victoria Hauling Thank you</t>
+  </si>
+  <si>
+    <t>Hi , Let me share my info:  Code assigned to this BI: 14 date: 2019-10-31 04:00:00.0000000 ; vendor id - 2440835 and the creator's username is nicky.williams Thank you</t>
+  </si>
+  <si>
+    <t>give me invoice . My details include:  The Business Code reads: Cranbrook Hauling TS LF Vendor_Id: 10381 ; the time when my invoice was created is: 2019-10-31 04:00:00.0000000 by the following user - sarah.hsuneeley and The name of the entity is: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Yo , I would like to have the invoice I have the following information Vendor ID mentioned: 2919862 enity id = GFL49 and The Business Code reads: 21 On this date, the invoice was made: 2019-11-15 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Let me know the current status of my invoice. I'm providing the following data:  Code assigned to this BI: 80 VendorId goes by: 2598894 ENTITY_ID is : GFL49 , Date of invoice generation: 2019-12-05 05:00:00.0000000 by the following user - michelle.kennedy</t>
+  </si>
+  <si>
+    <t>My information is as below:  USERNAME created the invoice with details: sarah.hsuneeley The Business Code reads: 55 also my VENDOR_ID is 2920265 Thank you</t>
+  </si>
+  <si>
+    <t>Hey . business unit code is Dunford Yard my entity name is GFL49 also invoice was created on: 2019-10-30 04:00:00.0000000 , Invoice created by the user: sarah.hsuneeley , i have the follwoing Invoice Number: 4634-000001200 i have the follwoing Vendor ID: DELAGE01</t>
+  </si>
+  <si>
+    <t>Please inform me about my invoice status. Please find my information:  Invoice created by the user: Stephanie.Walters dates - 2019-10-31 04:00:00.0000000 the BI_CODE = 45 besides vendor id: 52097 EntityName goes by: GFL49</t>
+  </si>
+  <si>
+    <t>I need information about the status of my invoice. Check out my information:  by the following user - nicky.williams also The InvoiceNum is mentioned as: 7003810699001 1119 and Date of origin: 2019-10-21 04:00:00.0000000 Business Unit ID is 55 Vendor ID recorded as: 2529864</t>
+  </si>
+  <si>
+    <t>Details:  the username of the person who created invoice : laura.young also Invoice Number mentioned: 128-125 business code is something like this: Interior BC</t>
+  </si>
+  <si>
+    <t>Could you check the status of my invoice? These are my particulars:  vendor id: 2916944 USERNAME: sarah.hsuneeley InvoiceNum = 33019 1119 and the name of an enity is GFL49</t>
+  </si>
+  <si>
+    <t>Please check and let me know the invoice status. This is the vendor ID: 2500931 username = jeannette.wilkerson besides Code assigned to this BI: 117 Here's the Invoice Number: 61748 4 Thank you</t>
+  </si>
+  <si>
+    <t>What's going on ; What's the current status of my invoice? Details:  BI code mentioned as: Cumberland InvoiceNum is B112119-32 , userNAME - sarah.hsuneeley The VENDORID is mentioned as: 2933841 On this date, the invoice was made: 2019-11-18 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>give me invoice ; I have the following data:  date is 2019-11-17 05:00:00.0000000 number of my invoice A-37427 USERNAME =  laura.young ; Entity name recorded as: GFL49 ;</t>
+  </si>
+  <si>
+    <t>invoice status . The date when the invoice was formed: 2019-12-01 05:00:00.0000000 The InvoiceNum is mentioned as: 2968255 and consider my bi name BI Identifier: 55 by the following user - rene.vanek and id of my Vendor = 2264034</t>
+  </si>
+  <si>
+    <t>Hey hey , Invoice creation date recorded as: 2019-10-30 04:00:00.0000000 , Invoice Number provided is: 3727 , Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Creation date mentioned as: 2019-11-02 04:00:00.0000000 Invoice created by the user: nicky.williams besides business unit code is Victoria Coast besides I have the following name of invoice entity: GFL49 my VENDOR_ID is 1527402</t>
+  </si>
+  <si>
+    <t>Heya ; from the user named billie.wood ; my code is : Cumberland besides</t>
+  </si>
+  <si>
+    <t>My Data is:  Date when invoice was created: 2019-10-24 04:00:00.0000000 USERNAME is rhonda.massey BI code goes by: 96 Vendor ID recorded as: 1997210 ; ent id = GFL49 The InvoiceNum is mentioned as: 33000 1119</t>
+  </si>
+  <si>
+    <t>I have the following information. InvoiceNum goes by: 14867 consider my bi name BI Identifier: 123 also ent id = GFL49 person who created my invoice: tracy.cooke ; id of my Vendor : 2922412</t>
+  </si>
+  <si>
+    <t>Yo , Please provide me with my invoice status. My details are -  The Business Code reads: 55 , EntityName goes by: GFL49 My InvoiceNum: 001 1219 the username of the person who created invoice : alexis.singletary invoice was created on: 2019-10-31 04:00:00.0000000 besides My Vendor_Id: 2386488 Thank you</t>
+  </si>
+  <si>
+    <t>Kindly provide me with the status of my invoice. I have the following name of invoice entity: GFL49 BI code goes by: 103 invoice Number = 566896 , Thank you</t>
+  </si>
+  <si>
+    <t>Hey hey , I'm providing the following data:  Date of invoice generation: 2019-12-01 05:00:00.0000000 submitted by the user: alexis.singletary ent id = GFL49 ; code is: Chemainus and inv num: 0003765-4869-9 i have the follwoing Vendor ID: 3006109</t>
+  </si>
+  <si>
+    <t>What's the current status of my invoice? BUID = Cranbrook Hauling TS LF and username = alexis.singletary ; Creation date mentioned as: 2019-11-20 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey there . Could you give me an update on my invoice? Info my entity name is GFL49 , On this date, the invoice was made: 2019-11-13 05:00:00.0000000 also vendor id - 2444975 also the author of the invoice is rita.wurschum Thank you</t>
+  </si>
+  <si>
+    <t>Can you provide the status of my invoice? number of my invoice 0029824-IN This is the vendor ID: 2242062 BI code goes by: Ground Force Entity identifier reads: GFL49 ; Thank you</t>
+  </si>
+  <si>
+    <t>This is my data:  entity name -  GFL49 VendorId goes by: 3047365 and the username of the person who created invoice : sarah.hsuneeley business unit code is 64 The date of invoice creation is: 2019-12-01 05:00:00.0000000 This is the invoice number: 16 1119</t>
+  </si>
+  <si>
+    <t>Greetings , Check out my information:  Entity name specified as: GFL49 and This is the invoice number: 1241 1019 also submitted by the user: alexis.singletary VENDORID is 2595677 ; Date of invoice generation: 2019-12-04 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Howdy , Please inform me about my invoice status. invoice was created on: 2019-11-19 05:00:00.0000000 besides BUID = 49 , id of my Vendor = 2540721 submitted by the user: Patricia.Oyola ENTITY_ID is : GFL49</t>
+  </si>
+  <si>
+    <t>Details. created by jeannette.wilkerson ; The date of invoice creation is: 2019-12-04 05:00:00.0000000 the name of an enity is GFL49 Invoice Number mentioned: 0295 111 Thank you</t>
+  </si>
+  <si>
+    <t>Hey there , date: 2019-10-02 04:00:00.0000000 besides ENTITY_ID is : GFL49 the username of the person who created invoice : patricia.brown and Invoice identifier reads: A-37429 ; id of my Vendor = 2212470</t>
+  </si>
+  <si>
+    <t>What's the current status of my invoice? created by user with username: ann.yorgey</t>
+  </si>
+  <si>
+    <t>What's up . Could you check the status of my invoice? I'd like to share my details:  BI CODE is - Saskatoon InvoiceNum is 314287 dates - 2019-11-14 05:00:00.0000000 Entity name mentioned: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Greetings . Please check and let me know the invoice status. The Business Code reads: 55 Invoice creation date recorded as: 2019-10-31 04:00:00.0000000 USERNAME created the invoice with details: tracy.cooke Invoice Number recorded as: 32639889003 1219</t>
+  </si>
+  <si>
+    <t>I want to get an update on my invoice. These are my details:  person who created my invoice: nicky.williams ; my business code is Hamilton besides date: 2019-11-15 05:00:00.0000000 InvoiceNum goes by: 00019984 0000005 my vendor id is 965822 , Entity name specified as: GFL49</t>
+  </si>
+  <si>
+    <t>Yo ; Here's what you need to know:  Invoice Number mentioned: 2962301 username = sarah.hsuneeley Vendor_Id: 2922279 ; the time when my invoice was created is: 2019-11-29 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Greetings ; This is my data:  USERNAME: sarah.hsuneeley and EntityName goes by: GFL49 Vendor ID specified as: 2932231 BI Reference: Cumberland</t>
+  </si>
+  <si>
+    <t>My details include:  inv num: 7200569 Invoice created on: 2019-11-23 05:00:00.0000000 BI code goes by: 35 Vendor_Id is2512448 ; ent id = GFL49</t>
+  </si>
+  <si>
+    <t>Here's what I have:  my vend id 2921364 also Date of invoice generation: 2019-11-19 05:00:00.0000000 , BI code mentioned as: 83 Entity name specified as: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>My details as follows:  generated by the user: sarah.hsuneeley ; The entity name is: GFL49 On this date, the invoice was made: 2019-11-05 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's going on ; Invoice identifier reads: 80040406 1019 , USERNAME: Stephanie.Walters , Entity name provided is: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Any news on the status of my invoice? My Vendor_Id: 2977579 and my business code is Cumberland enity id = GFL49 ; invoice was created on: 2019-11-12 05:00:00.0000000 USERNAME created the invoice with details: rita.wurschum</t>
+  </si>
+  <si>
+    <t>Hey there , On this date, the invoice was made: 2019-11-09 05:00:00.0000000 ven id 1161164 my entity name is GFL49 , number of my invoice = 70424 ; Thank you</t>
+  </si>
+  <si>
+    <t>Is there any update on my invoice status? I'd like to share my details:  my business code is Cumberland Invoice creation date recorded as: 2019-11-14 05:00:00.0000000 InvoiceNum: CHK1019-1 , invoice was created by jeannette.wilkerson Thank you</t>
+  </si>
+  <si>
+    <t>What's happening , Please check and let me know the invoice status. my business code is Interior BC VendorId goes by: 614011 ; number of my invoice is: TAY 013 dates - 2019-12-02 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  business code is something like this: 55 the author of the invoice is sarah.hsuneeley and i have the follwoing Invoice Number: 264 0418760 ; VENDOR_ID = 2424780 ; The date of invoice creation is: 2019-10-26 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's happening ; my vendor id is 377377 INVOICE Num: EMSI1655983 dates = 2019-11-25 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Hi . what is my invoice status My details as follows:  enity id = GFL49 business unit code is 2 and Here's the Vendor ID: 1390717 ; number of my invoice = 191596 Invoice created by the user: sarah.hsuneeley Thank you</t>
+  </si>
+  <si>
+    <t>I have the following details . vendor id - 1543285 ; the BI_CODE = Cranbrook Hauling TS LF by the following user - sarah.hsuneeley Inv_Num is 50064685 also ent id = GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>What's going on , Sharing my details:  Vendor ID specified as: 3029562 also The name of the entity is: GFL49 and The Business Code reads: Victoria Hauling , InvoiceNum goes by: 1939486 ; created by rita.wurschum ; invoice was created on: 2019-10-23 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Please find my information:  my vendor id is 2879928 Here's the Invoice Number: 0743-001604280 Entity identifier reads: GFL49 The date of invoice creation is: 2019-10-31 04:00:00.0000000 and Thank you</t>
+  </si>
+  <si>
+    <t>Hey there , Kindly provide me with the status of my invoice. date: 2019-11-09 05:00:00.0000000 Entity identifier reads: GFL49 ; Code assigned to this BI: Cumberland also Thank you</t>
+  </si>
+  <si>
+    <t>Hey there , I'm interested in knowing the status of my invoice. Here's what you need to know:  EntityName goes by: GFL49 this invoice was authored by: nicky.williams , The invoice was generated on: 2019-12-02 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's happening ; created by melonie.williford Entity name specified as: GFL49 also the BI_CODE = 55 vendor id - 2340746 Thank you</t>
+  </si>
+  <si>
+    <t>Here's what you need to know:  the author of the invoice is nicky.williams and business unit code is 120 i have the follwoing Invoice Number: 4218 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  number of my invoice is: 2922142 , enity id = GFL49 besides Here's the Vendor ID: 2921102 invoice was created by sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Entity name mentioned: GFL49 , userNAME - william.pearce ; InvoiceNum: 3002925 Thank you</t>
+  </si>
+  <si>
+    <t>Howdy . number of my invoice 2141432 ; my business code is Chemainus Date of origin: 2019-09-01 04:00:00.0000000 ven id = 22349 The entity name is: GFL49 , USERNAME is stephanie.walker</t>
+  </si>
+  <si>
+    <t>Could you give me an update on my invoice? Invoice identifier reads: 1 1119 , my business code is 123 date: 2019-11-01 04:00:00.0000000 , i have the follwoing Vendor ID: 2513521</t>
+  </si>
+  <si>
+    <t>Howdy ; I would like to have the invoice Details:  entity name -  GFL49 ; For tracking purposes, my BI code: 183 created by sarah.hsuneeley number of my invoice = 21537851</t>
+  </si>
+  <si>
+    <t>Hi there , I need information about the status of my invoice. Entity identifier reads: GFL49 , the username of the person who created invoice : carol.dalton InvoiceNum: 000339 1119 vendor id - 2923087 and Invoice date specified as: 2019-11-18 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey there . invoice was created by nicky.williams also BI code mentioned as: 121 ; Vendor ID provided is: 1376851</t>
+  </si>
+  <si>
+    <t>Hi there ; Here's my information:  Vendor_Id isLOPCON01 INVOICE Num: 362729 BI code mentioned as: 55 and date of the invoice creation is: 2019-12-03 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's happening , Do you have any information on my invoice status? The VENDORID is mentioned as: 2227364 date: 2019-12-01 05:00:00.0000000 Invoice Number recorded as: 286474-62055801 Thank you</t>
+  </si>
+  <si>
+    <t>What's up . InvNum = 2067 submitted by the user: jeannette.wilkerson</t>
+  </si>
+  <si>
+    <t>Sup , Please provide me with my invoice status. Entity name specified as: GFL49 person who created my invoice: sarah.hsuneeley also This is the vendor ID: 2996008 also number of my invoice = 214 383 , The invoice was generated on: 2019-11-27 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Yo ; Below is my data:  Invoice date specified as: 2019-08-01 04:00:00.0000000 ; BUID = 55 My InvoiceNum: 0696-000839150 and My entity name: GFL49 and Vendor ID 984687 besides the creator's username is jacob.killmeier</t>
+  </si>
+  <si>
+    <t>These are my details:  created by rita.wurschum Invoice Number provided is: 316097 besides Date of invoice generation: 2019-10-31 04:00:00.0000000 , Vendor identifier reads: 3038549 EntityName goes by: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Hiya ; I want to get my Invoice Status My details are -  USERNAME: sarah.hsuneeley ; Entity name mentioned: GFL49 date is 2019-11-02 04:00:00.0000000 besides Invoice Number provided is: 3708-000017346 Thank you</t>
+  </si>
+  <si>
+    <t>Heya , I need information about the status of my invoice. Vendor_Id is4095 my entity name is GFL49 from the user named natashia.mcmurrin , num of my inv - 7517 invoice was created on: 2019-11-05 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Can you provide the status of my invoice? Info Vendor_Id is1953997 also Here's the Invoice Number: 719027 Entity name mentioned: GFL49 ; my code is : Dunford Yard USERNAME =  natashia.mcmurrin Thank you</t>
+  </si>
+  <si>
+    <t>Hey there , Please find my information:  Vendor_Id is2938377 Invoice created on: 2019-11-25 05:00:00.0000000 consider my bi name BI Identifier: 55 Invoice Number recorded as: 17708 , by the following user - rita.wurschum also the name of an enity is GFL49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  invoice was created by sarah.hsuneeley and InvoiceNum goes by: 0395834 1119 the name of an enity is GFL49 also Here's the Vendor ID: MARTHR01</t>
+  </si>
+  <si>
+    <t>Hey there ; My details include:  The InvoiceNum is mentioned as: IN870259 ; BI code goes by: Saskatoon ; username = stephanie.walker Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The invoice was generated on: 2019-10-15 04:00:00.0000000 besides id of my Vendor : 1096956 , number of my invoice is: 1760382436 1119 and generated by the user: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>Heya . Check out my information:  date: 2019-12-01 05:00:00.0000000 EntityName goes by: GFL49 created by sarah.hsuneeley id of my Vendor = 2910913 ; my inv num is 0825-000858138 Thank you</t>
+  </si>
+  <si>
+    <t>Heya , my entity name is GFL49 created by Stephanie.Walters For tracking purposes, my BI code: 55 This is the invoice number: 125400 1119 Thank you</t>
+  </si>
+  <si>
+    <t>I need information about the status of my invoice. id of my Vendor : 2574471 , The Business Code reads: Cumberland besides</t>
+  </si>
+  <si>
+    <t>Hello , Inv_Num: 0744-001907129 and id of my Vendor : 2836602 and date of the invoice creation is: 2019-10-31 04:00:00.0000000 The name of the entity is: GFL49 besides my business code is Chemainus</t>
+  </si>
+  <si>
+    <t>Hi , Could you check the status of my invoice? The date of invoice creation is: 2019-11-01 04:00:00.0000000 and Invoice identifier reads: 5004113273001 1219 ENTITY_ID is : GFL49 and Unit ID: Chemainus The VENDORID is mentioned as: 1421018</t>
+  </si>
+  <si>
+    <t>I'm interested in knowing the status of my invoice. Info On this date, the invoice was made: 2019-06-07 04:00:00.0000000 Unit ID: Dunford Yard generated by the user: sarah.hsuneeley Here's the Vendor ID: 36345 ; My entity name: GFL49</t>
+  </si>
+  <si>
+    <t>Yo ; My info:  this invoice was authored by: natashia.mcmurrin The entity is named: GFL49 my business code is Cranbrook Hauling TS LF ; invoice was created on: 2019-11-01 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hi there ; Vendor ID recorded as: 2378322 Invoice created on: 2019-12-02 05:00:00.0000000 For tracking purposes, my BI code: Cumberland and ent id = GFL49 Inv_Num: 5024477 0 Thank you</t>
+  </si>
+  <si>
+    <t>Please find my information:  Code assigned to this BI: 55 besides The date of invoice creation is: 2019-10-23 04:00:00.0000000 Entity name provided is: GFL49 besides My InvoiceNum: 1713 Thank you</t>
+  </si>
+  <si>
+    <t>What's up . May I know the status of my invoice? I have the following details  The name of the entity is: GFL49 number of my invoice 258233391 also vendor id: 2914501 Thank you</t>
+  </si>
+  <si>
+    <t>Allow me to provide my information:  Vendor ID specified as: 2022801 also dates = 2019-11-06 05:00:00.0000000 Invoice Number mentioned: 1929158 this invoice was authored by: sarah.hsuneeley ; BI code goes by: 110 Thank you</t>
+  </si>
+  <si>
+    <t>Any news on the status of my invoice? My info:  My InvoiceNum: 5202-722106 created by rhonda.massey Thank you</t>
+  </si>
+  <si>
+    <t>What's up ; Date of invoice generation: 2019-12-04 05:00:00.0000000 Invoice Number provided is: 125400 1019 besides Invoice created by the user: sarah.hsuneeley besides The BI identifier is: 5 Thank you</t>
+  </si>
+  <si>
+    <t>Hey . I'm providing the following data:  Entity name provided is: GFL49 created by user with username: jeannette.wilkerson vendor id: 2909331 ; the time when my invoice was created is: 2019-12-01 05:00:00.0000000 ; Invoice Number mentioned: 267074 , BUID = Jetco Corp Thank you</t>
+  </si>
+  <si>
+    <t>Hiya . Get me my Invoice My information is as below:  the BI_CODE = 55 id of my Vendor : 3011741 ; USERNAME =  amy.greenlaw Thank you</t>
+  </si>
+  <si>
+    <t>I'm curious about the status of my invoice. The entity name is: GFL49 ; generated by the user: roxanne.hoskins Vendor ID 1966595</t>
+  </si>
+  <si>
+    <t>Hey ; Could you check the status of my invoice? Here's my information:  USERNAME: stephanie.walker besides my business code is 55 , The invoice was generated on: 2019-11-23 05:00:00.0000000 Invoice Number provided is: 1158793 ENTITY_ID is : GFL49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  date is 2019-11-01 04:00:00.0000000 Here's the Invoice Number: 3013136623 1119 USERNAME created the invoice with details: wendelyn.fauth The name of the entity is: GFL49 VENDOR_ID = 2076156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  On this date, the invoice was made: 2019-12-01 05:00:00.0000000 my entity name is GFL49 and Invoice created by the user: tracy.cooke inv num: 0029883-IN BUID = Jetco Corp</t>
+  </si>
+  <si>
+    <t>Hiya . May I know the status of my invoice? My details are -  VENDOR_ID = 3032104 ; The date when the invoice was formed: 2019-11-22 05:00:00.0000000 and userNAME - amber.stone ; invoice Number = 0029879-IN I have the following name of invoice entity: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Sup . Please inform me about my invoice status. Invoice created on: 2019-10-24 04:00:00.0000000 also number of my invoice is: 52 1119 besides Entity name mentioned: GFL49</t>
+  </si>
+  <si>
+    <t>Hi there ; Allow me to provide my information:  enity id = GFL49 my vendor id is 2418179 BI code goes by: Cumberland Invoice created by the user: sarah.hsuneeley num of my inv is1805683789 1119</t>
+  </si>
+  <si>
+    <t>What's happening . Do you have any information on my invoice status? I have the following data:  USERNAME is amber.stone The entity is named: GFL49 number of my invoice is: 717481 , Thank you</t>
+  </si>
+  <si>
+    <t>Hey ; I'd like to share my details:  the name of an enity is GFL49 date: 2019-10-30 04:00:00.0000000 my vend id 2192069 number of my invoice 0609-000680957 by the following user - sarah.hsuneeley Thank you</t>
+  </si>
+  <si>
+    <t>Howdy ; what is my invoice status The invoice was generated on: 2019-11-18 05:00:00.0000000 invoice Number = 17752 1119 ; BI CODE is - Chemainus</t>
+  </si>
+  <si>
+    <t>Yo . num of my inv - 273258 , id of my Vendor = 2632044 USERNAME: stephanie.walker also date: 2019-10-01 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>Sup ; Here's the Invoice Number: 809 904 and ENTITY_ID is : GFL49 ; BI Number is as follows: Dunford Yard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Vendor ID specified as: 2665102 besides The BI identifier is: 55 , The invoice was generated on: 2019-09-13 04:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's happening . what is my invoice status Here's what I have:  submitted by the user: jeannette.wilkerson besides My Vendor_Id: 2529910 ; The date of invoice creation is: 2019-11-15 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Get me my Invoice ; Date of invoice generation: 2019-11-04 05:00:00.0000000 also the username of the person who created invoice : sarah.hsuneeley ; BI Reference: Chemainus ven id = 1896136</t>
+  </si>
+  <si>
+    <t>Is there any update on my invoice status? My details as follows:  business code is something like this: Jetco Corp ; InvoiceNum specified as: 3006224 USERNAME: sherry.grisham also Invoice creation date recorded as: 2019-11-30 05:00:00.0000000 Thank you</t>
+  </si>
+  <si>
+    <t>What's up , I want status of my invoice BI code mentioned as: Saskatoon , vendor id - 1950032 USERNAME is nicky.williams enity id = GFL49 The date of invoice creation is: 2019-11-30 05:00:00.0000000 and Invoice Number recorded as: 4107</t>
+  </si>
+  <si>
+    <t>What's happening ; Is there any update on my invoice status? USERNAME created the invoice with details: sarah.hsuneeley also I have the following name of invoice entity: GFL49 Invoice identifier reads: 234 540 , The VENDORID is mentioned as: 1997703</t>
+  </si>
+  <si>
+    <t>Greetings ; invoice status Below is my data:  My Vendor_Id: 2294962 username = nicky.williams ; Date when invoice was created: 2019-11-30 05:00:00.0000000 , i have the follwoing Invoice Number: 25931 Thank you</t>
+  </si>
+  <si>
+    <t>What's up ; Let me know the current status of my invoice. num of my inv - 0030269-IN BUID = 10 ; enity id = GFL49 The date when the invoice was formed: 2019-11-01 04:00:00.0000000 the author of the invoice is ladatril.long</t>
+  </si>
+  <si>
+    <t>Let me share my info:  The date of invoice creation is: 2019-11-27 05:00:00.0000000 also USERNAME is nicky.williams Here's the Invoice Number: 135220646-8485 , Here's the Vendor ID: CDWDIR Code assigned to this BI: Levis ENTITY_ID is : GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>invoice status , consider my bi name BI Identifier: 121 USERNAME is nicky.williams , My entity name: GFL49 Here's the Invoice Number: 379 738 Thank you</t>
+  </si>
+  <si>
+    <t>Hey hey . Could you give me an update on my invoice? Date of origin: 2019-12-01 05:00:00.0000000 and by the following user - Stephanie.Walters enity id = GFL49 BUID = 31 also Invoice identifier reads: 5838888-1</t>
+  </si>
+  <si>
+    <t>Any news on the status of my invoice? Inv_Num is AG9029-6743 and EntityName goes by: GFL49 Vendor ID specified as: 2659861 the time when my invoice was created is: 2019-10-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>I'd like to share my details:  my VENDOR_ID is 2792603 , by the following user - nicky.williams , The Business Code reads: 59 and date: 2019-10-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's up ; The invoice was generated on: 2019-11-15 05:00:00.0000000 Invoice Number mentioned: 255 1119 BI code mentioned as: 55 vendor id: 2929673</t>
+  </si>
+  <si>
+    <t>Heya . created by user with username: nicky.williams also date: 2019-10-31 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's going on . Here's the information I have:  the username of the person who created invoice : sarah.hsuneeley ENTITY_ID is : GFL49 Vendor ID 1315821 and Thank you</t>
+  </si>
+  <si>
+    <t>Hey . I want status of my invoice My details include:  InvoiceNum: 1811432808 1119 This is the vendor ID: 2513512 besides My entity name: GFL49 The date of invoice creation is: 2019-11-25 05:00:00.0000000 BI code mentioned as: Cranbrook Hauling TS LF the username of the person who created invoice : alexis.singletary</t>
+  </si>
+  <si>
+    <t>What's up , I'm curious about the status of my invoice. BUID = 122 invoice was created by jeannette.wilkerson , Date of origin: 2019-11-15 05:00:00.0000000 VendorId goes by: 2910614 Thank you</t>
+  </si>
+  <si>
+    <t>Info. BI code goes by: Edmonton SW also Vendor ID 1511937 , number of my invoice is: 6-1981-0537-09811019 The invoice was generated on: 2019-10-02 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's going on , I'm inquiring about the status of my invoice. Inv_Num: K8-21804 BI CODE is - 55 ; name = sarah.hsuneeley the time when my invoice was created is: 2019-10-25 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>May I know the status of my invoice? My information is as below:  Vendor ID recorded as: 2441521 also The date when the invoice was formed: 2019-12-05 05:00:00.0000000 The BI identifier is: 1 ; USERNAME is brittany.holt The entity name is: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  InvoiceNum specified as: 2967349 USERNAME created the invoice with details: sarah.hsuneeley The date when the invoice was formed: 2019-11-22 05:00:00.0000000 vendor id - 1016397 Thank you</t>
+  </si>
+  <si>
+    <t>Sup . Details:  BI Reference: Victoria Hauling ; Inv_Num is 2-12698 ; vendor id: 1038772 the username of the person who created invoice : sarah.hsuneeley Thank you</t>
+  </si>
+  <si>
+    <t>Let me know the current status of my invoice.   ent id = GFL49 besides Invoice Number provided is: 0692-002241858 ; vendor id - 47861 The BI identifier is: 117 besides The date when the invoice was formed: 2019-10-16 04:00:00.0000000 Invoice created by the user: sarah.hsuneeley</t>
+  </si>
+  <si>
+    <t>Hiya . The date of invoice creation is: 2019-10-30 04:00:00.0000000 also The name of the entity is: GFL49 i have the follwoing Invoice Number: 65706-1 my vendor id is G490034494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  enity name: GFL49 , Invoice date specified as: 2019-11-07 05:00:00.0000000 this invoice was authored by: rita.wurschum , i have the follwoing Invoice Number: IH-2819 vendor id - 3072958</t>
+  </si>
+  <si>
+    <t>Hey , What's the current status of my invoice? My details are -  InvoiceNum: 1929685 date is 2019-10-31 04:00:00.0000000 also userNAME - annette.johnson , The BI identifier is: Interior BC</t>
+  </si>
+  <si>
+    <t>Yo ; what is my invoice status number of my invoice = 1007 1019 Vendor_Id is2851423 besides person who created my invoice: rita.wurschum , I have the following name of invoice entity: GFL49</t>
+  </si>
+  <si>
+    <t>Hi . Get me my Invoice These are my particulars:  the creator's username is laura.young ; inv num: 5126-000065535 besides The entity is named: GFL49 BI code goes by: 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  business unit code is Victoria Hauling ; entity name -  GFL49 and num of my inv - 24157573 RI Thank you</t>
+  </si>
+  <si>
+    <t>I'd like to check my invoice status. My Data is:  Vendor ID recorded as: 2968787 besides my BICODE is : 55 ; Invoice date specified as: 2019-11-30 05:00:00.0000000 , USERNAME: sarah.hsuneeley also Invoice identifier reads: 01 N</t>
+  </si>
+  <si>
+    <t>Hey hey . May I know the status of my invoice? These are my particulars:  Vendor_Id is1960329 I have the following name of invoice entity: GFL49 business code is something like this: Cranbrook Hauling TS LF besides from the user named tracy.cooke Invoice identifier reads: 01 1219</t>
+  </si>
+  <si>
+    <t>What's happening , May I know the status of my invoice? id of my Vendor : 2419139 ; ent id = GFL49 ;</t>
+  </si>
+  <si>
+    <t>Greetings . Let me know the current status of my invoice. I'm providing the following data:  VENDOR_ID = 1563622 and Entity name specified as: GFL49 and the creator's username is rita.wurschum Invoice Number provided is: 200503000039 1219a</t>
+  </si>
+  <si>
+    <t>Sup , Code assigned to this BI: Cumberland enity id = GFL49 , The VENDORID is mentioned as: 2053907 USERNAME is rita.wurschum Thank you</t>
+  </si>
+  <si>
+    <t>Hey hey . Let me know the current status of my invoice. InvoiceNum: 0000770358 also date of the invoice creation is: 2019-12-01 05:00:00.0000000 besides Entity name specified as: GFL49 userNAME - cheryl.daniel also business unit code is 55 my vendor id is USBANK Thank you</t>
+  </si>
+  <si>
+    <t>Howdy . Info Vendor ID mentioned: G490029573 and the name of an enity is GFL49 my code is : Cumberland ; from the user named sarah.hsuneeley Thank you</t>
+  </si>
+  <si>
+    <t>invoice status , I have the following data:  the BI_CODE = 45 The VENDORID is mentioned as: 2523833 dates - 2019-12-02 05:00:00.0000000 USERNAME created the invoice with details: sarah.hsuneeley the name of an enity is GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Hiya , I'm interested in knowing the status of my invoice. the username of the person who created invoice : matt.lanier ; BI Number is as follows: Cumberland ; invoice was created on: 2019-11-26 05:00:00.0000000</t>
+  </si>
+  <si>
+    <t>What's going on ; What's the current status of my invoice? Here's what I have:  num of my inv is0609-000680914 my vend id 2853867 ; BI code mentioned as: Saskatoon entity name -  GFL49 , USERNAME =  alexis.singletary dates = 2019-11-03 04:00:00.0000000</t>
+  </si>
+  <si>
+    <t>Hey ; what is my invoice status Check out my information:  VendorId goes by: 2771061 besides business code is something like this: Cranbrook Hauling TS LF USERNAME is sarah.hsuneeley The entity name is: GFL49 Thank you</t>
+  </si>
+  <si>
+    <t>Heya , I would like to have the invoice num of my inv is0016966113 ; Date when invoice was created: 2019-12-01 05:00:00.0000000 , i have the follwoing Vendor ID: 3044893 also generated by the user: stephanie.walker BI code mentioned as: Vancouver Hauling Thank you</t>
+  </si>
+  <si>
+    <t>Hiya ; my code is : 59 number of my invoice is: 15197 , USERNAME: rita.wurschum , The invoice was generated on: 2019-09-20 04:00:00.0000000 , Vendor ID specified as: 2533231 Thank you</t>
+  </si>
+  <si>
+    <t>Hey there . Get me my Invoice Here's what I have:  the BI_CODE = 73 the username of the person who created invoice : nicky.williams besides VENDORID is 3029221 Date when invoice was created: 2019-11-01 04:00:00.0000000 number of my invoice = 0685-001183496 Thank you</t>
   </si>
 </sst>
 </file>
@@ -1610,16 +2189,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B408"/>
+  <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="239.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -4882,6 +5456,1550 @@
         <v>407</v>
       </c>
     </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>500</v>
+      </c>
+      <c r="B502" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601" t="s">
+        <v>600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
